--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="H3" t="n">
         <v>4.6</v>
       </c>
       <c r="I3" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,28 +826,28 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="S3" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="T3" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="U3" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -856,31 +856,31 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y3" t="n">
         <v>23</v>
       </c>
-      <c r="Y3" t="n">
-        <v>36</v>
-      </c>
       <c r="Z3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE3" t="n">
         <v>1000</v>
       </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>55</v>
-      </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
@@ -889,7 +889,7 @@
         <v>15.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>21</v>
@@ -901,13 +901,13 @@
         <v>27</v>
       </c>
       <c r="AM3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO3" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.05</v>
+        <v>7.4</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>1.32</v>
       </c>
       <c r="I4" t="n">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="J4" t="n">
         <v>4.7</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>6.4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,28 +961,28 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>1.48</v>
+        <v>2.32</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.21</v>
+        <v>1.54</v>
       </c>
       <c r="R4" t="n">
         <v>1.52</v>
       </c>
       <c r="S4" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,58 +991,58 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA4" t="n">
         <v>13</v>
       </c>
-      <c r="Z4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>15</v>
-      </c>
       <c r="AB4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>130</v>
+      </c>
+      <c r="AG4" t="n">
         <v>50</v>
       </c>
-      <c r="AC4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH4" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="5">
@@ -1078,16 +1078,16 @@
         <v>2.04</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="I5" t="n">
         <v>5.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>9.4</v>
       </c>
       <c r="J6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K6" t="n">
         <v>5.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>1.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,25 +1261,25 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Z6" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AA6" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AE6" t="n">
         <v>140</v>
@@ -1291,28 +1291,28 @@
         <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>14.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AN6" t="n">
         <v>4.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -1348,16 +1348,16 @@
         <v>3.65</v>
       </c>
       <c r="H7" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I7" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J7" t="n">
         <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1366,13 +1366,13 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q7" t="n">
         <v>1.68</v>
@@ -1384,7 +1384,7 @@
         <v>2.68</v>
       </c>
       <c r="T7" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U7" t="n">
         <v>2.4</v>
@@ -1399,7 +1399,7 @@
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,25 +1408,25 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AH7" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1444,10 +1444,10 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO7" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="G8" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H8" t="n">
         <v>5.9</v>
       </c>
       <c r="I8" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1516,7 +1516,7 @@
         <v>1.35</v>
       </c>
       <c r="S8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T8" t="n">
         <v>1.99</v>
@@ -1531,46 +1531,46 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z8" t="n">
         <v>55</v>
       </c>
       <c r="AA8" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC8" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC8" t="n">
-        <v>10</v>
-      </c>
       <c r="AD8" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
         <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>27</v>
       </c>
       <c r="AI8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ8" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AL8" t="n">
         <v>44</v>
@@ -1615,7 +1615,7 @@
         <v>2.18</v>
       </c>
       <c r="G9" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="H10" t="n">
-        <v>9.800000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
         <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="K10" t="n">
-        <v>15.5</v>
+        <v>950</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G2" t="n">
         <v>3.75</v>
       </c>
       <c r="H2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I2" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J2" t="n">
         <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q2" t="n">
         <v>1.96</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G3" t="n">
         <v>1.87</v>
       </c>
       <c r="H3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
         <v>4.7</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q3" t="n">
         <v>1.63</v>
@@ -847,7 +847,7 @@
         <v>1.61</v>
       </c>
       <c r="U3" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>1.79</v>
       </c>
       <c r="G5" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="H5" t="n">
         <v>3.95</v>
@@ -1084,7 +1084,7 @@
         <v>5.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
         <v>5.4</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="H6" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J6" t="n">
         <v>5.7</v>
       </c>
       <c r="K6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1231,28 +1231,28 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S6" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T6" t="n">
         <v>1.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1264,46 +1264,46 @@
         <v>34</v>
       </c>
       <c r="Y6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z6" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE6" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
         <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM6" t="n">
         <v>95</v>
@@ -1345,19 +1345,19 @@
         <v>3.55</v>
       </c>
       <c r="G7" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="n">
         <v>2.12</v>
       </c>
       <c r="I7" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1366,28 +1366,28 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
         <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q7" t="n">
         <v>1.68</v>
       </c>
       <c r="R7" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S7" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T7" t="n">
         <v>1.62</v>
       </c>
       <c r="U7" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,13 +1396,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="n">
         <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1411,22 +1411,22 @@
         <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>34</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -1489,7 +1489,7 @@
         <v>6.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1507,10 +1507,10 @@
         <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R8" t="n">
         <v>1.35</v>
@@ -1519,7 +1519,7 @@
         <v>3.65</v>
       </c>
       <c r="T8" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U8" t="n">
         <v>1.92</v>
@@ -1558,7 +1558,7 @@
         <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
         <v>27</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.66</v>
+        <v>2.86</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="H2" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="I2" t="n">
-        <v>2.96</v>
+        <v>2.74</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>5.5</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="Q2" t="n">
         <v>1.96</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G3" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I3" t="n">
         <v>4.7</v>
@@ -832,22 +832,22 @@
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T3" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL3" t="n">
         <v>27</v>
       </c>
       <c r="AM3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO3" t="n">
         <v>40</v>
@@ -970,7 +970,7 @@
         <v>2.32</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R4" t="n">
         <v>1.52</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H7" t="n">
         <v>2.12</v>
@@ -1372,13 +1372,13 @@
         <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q7" t="n">
         <v>1.68</v>
       </c>
       <c r="R7" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S7" t="n">
         <v>2.7</v>
@@ -1411,13 +1411,13 @@
         <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AF7" t="n">
         <v>34</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G8" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H8" t="n">
         <v>5.9</v>
       </c>
       <c r="I8" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -1507,10 +1507,10 @@
         <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
         <v>1.35</v>
@@ -1519,7 +1519,7 @@
         <v>3.65</v>
       </c>
       <c r="T8" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U8" t="n">
         <v>1.92</v>
@@ -1546,7 +1546,7 @@
         <v>8</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
         <v>25</v>
@@ -1555,16 +1555,16 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG8" t="n">
         <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ8" t="n">
         <v>18.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -832,10 +832,10 @@
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
         <v>1.6</v>
@@ -889,7 +889,7 @@
         <v>15.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ3" t="n">
         <v>21</v>
@@ -976,13 +976,13 @@
         <v>1.52</v>
       </c>
       <c r="S4" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T4" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         <v>5.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>5.4</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.4</v>
       </c>
-      <c r="G6" t="n">
-        <v>1.41</v>
-      </c>
       <c r="H6" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="J6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K6" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="Q6" t="n">
         <v>1.48</v>
@@ -1264,10 +1264,10 @@
         <v>34</v>
       </c>
       <c r="Y6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA6" t="n">
         <v>290</v>
@@ -1285,13 +1285,13 @@
         <v>130</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1303,13 +1303,13 @@
         <v>14</v>
       </c>
       <c r="AL6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>95</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO6" t="n">
         <v>120</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G7" t="n">
         <v>3.7</v>
@@ -1378,7 +1378,7 @@
         <v>1.68</v>
       </c>
       <c r="R7" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S7" t="n">
         <v>2.7</v>
@@ -1417,7 +1417,7 @@
         <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>34</v>
@@ -1438,7 +1438,7 @@
         <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.72</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.73</v>
       </c>
       <c r="H8" t="n">
         <v>5.9</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -1519,7 +1519,7 @@
         <v>3.65</v>
       </c>
       <c r="T8" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U8" t="n">
         <v>1.92</v>
@@ -1552,7 +1552,7 @@
         <v>25</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF8" t="n">
         <v>9.800000000000001</v>
@@ -1645,7 +1645,7 @@
         <v>1.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I11" t="n">
         <v>4.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
         <v>5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,16 +673,16 @@
         <v>3.35</v>
       </c>
       <c r="H2" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="I2" t="n">
         <v>2.74</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q2" t="n">
         <v>1.96</v>
@@ -826,22 +826,22 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S3" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T3" t="n">
         <v>1.6</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
         <v>1.32</v>
@@ -949,7 +949,7 @@
         <v>1.39</v>
       </c>
       <c r="J4" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="K4" t="n">
         <v>6.4</v>
@@ -967,22 +967,22 @@
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="R4" t="n">
         <v>1.52</v>
       </c>
       <c r="S4" t="n">
-        <v>2.34</v>
+        <v>2.54</v>
       </c>
       <c r="T4" t="n">
         <v>1.99</v>
       </c>
       <c r="U4" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
         <v>10.5</v>
@@ -1015,31 +1015,31 @@
         <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AH4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="n">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="AK4" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AL4" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AM4" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN4" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AO4" t="n">
         <v>6.2</v>
@@ -1075,19 +1075,19 @@
         <v>1.79</v>
       </c>
       <c r="G5" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1237,19 +1237,19 @@
         <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="Q6" t="n">
         <v>1.48</v>
       </c>
       <c r="R6" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S6" t="n">
         <v>2.18</v>
       </c>
       <c r="T6" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U6" t="n">
         <v>2.22</v>
@@ -1270,7 +1270,7 @@
         <v>90</v>
       </c>
       <c r="AA6" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
@@ -1279,10 +1279,10 @@
         <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE6" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF6" t="n">
         <v>10.5</v>
@@ -1306,7 +1306,7 @@
         <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN6" t="n">
         <v>4.4</v>
@@ -1345,7 +1345,7 @@
         <v>3.65</v>
       </c>
       <c r="G7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="n">
         <v>2.12</v>
@@ -1375,7 +1375,7 @@
         <v>2.32</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R7" t="n">
         <v>1.54</v>
@@ -1411,7 +1411,7 @@
         <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
@@ -1507,7 +1507,7 @@
         <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q8" t="n">
         <v>2.02</v>
@@ -1519,7 +1519,7 @@
         <v>3.65</v>
       </c>
       <c r="T8" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U8" t="n">
         <v>1.92</v>
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA8" t="n">
         <v>210</v>
       </c>
       <c r="AB8" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC8" t="n">
         <v>9</v>
@@ -1564,13 +1564,13 @@
         <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="n">
         <v>44</v>
@@ -1579,7 +1579,7 @@
         <v>170</v>
       </c>
       <c r="AN8" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,36 +1598,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="G9" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,11 +1642,11 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1.74</v>
       </c>
-      <c r="Q9" t="n">
-        <v>2.08</v>
-      </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
@@ -1717,276 +1717,6 @@
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>English National League</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-01-13</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Southend</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Gateshead</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>950</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-01-13</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Puebla</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Mazatlan FC</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="G2" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
         <v>2.44</v>
@@ -685,16 +685,16 @@
         <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
         <v>1.87</v>
@@ -703,76 +703,76 @@
         <v>1.96</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -826,13 +826,13 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q3" t="n">
         <v>1.62</v>
@@ -841,7 +841,7 @@
         <v>1.61</v>
       </c>
       <c r="S3" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T3" t="n">
         <v>1.6</v>
@@ -859,7 +859,7 @@
         <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z3" t="n">
         <v>40</v>
@@ -943,13 +943,13 @@
         <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="I4" t="n">
         <v>1.39</v>
       </c>
       <c r="J4" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K4" t="n">
         <v>6.4</v>
@@ -976,7 +976,7 @@
         <v>1.52</v>
       </c>
       <c r="S4" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T4" t="n">
         <v>1.99</v>
@@ -1081,7 +1081,7 @@
         <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
@@ -1210,10 +1210,10 @@
         <v>1.38</v>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I6" t="n">
         <v>9.6</v>
@@ -1222,7 +1222,7 @@
         <v>5.8</v>
       </c>
       <c r="K6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1243,13 +1243,13 @@
         <v>1.48</v>
       </c>
       <c r="R6" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="S6" t="n">
         <v>2.18</v>
       </c>
       <c r="T6" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U6" t="n">
         <v>2.22</v>
@@ -1348,7 +1348,7 @@
         <v>3.75</v>
       </c>
       <c r="H7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="I7" t="n">
         <v>2.14</v>
@@ -1357,7 +1357,7 @@
         <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.23</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G8" t="n">
         <v>1.72</v>
@@ -1507,7 +1507,7 @@
         <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q8" t="n">
         <v>2.02</v>
@@ -1567,13 +1567,13 @@
         <v>110</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
         <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
         <v>170</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -706,10 +706,10 @@
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
@@ -718,7 +718,7 @@
         <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="H3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
         <v>4.7</v>
@@ -820,94 +820,94 @@
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="S3" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="T3" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U3" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
         <v>24</v>
       </c>
       <c r="Z3" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH3" t="n">
         <v>15.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ3" t="n">
         <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO3" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -940,22 +940,22 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="I4" t="n">
         <v>1.39</v>
       </c>
       <c r="J4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K4" t="n">
         <v>6.4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -970,7 +970,7 @@
         <v>2.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R4" t="n">
         <v>1.52</v>
@@ -982,13 +982,13 @@
         <v>1.99</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X4" t="n">
         <v>26</v>
@@ -1006,10 +1006,10 @@
         <v>44</v>
       </c>
       <c r="AC4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1072,34 +1072,34 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="H5" t="n">
         <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
         <v>2.3</v>
@@ -1108,76 +1108,76 @@
         <v>1.53</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1219,7 +1219,7 @@
         <v>9.6</v>
       </c>
       <c r="J6" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K6" t="n">
         <v>6</v>
@@ -1279,7 +1279,7 @@
         <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AE6" t="n">
         <v>140</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G7" t="n">
         <v>3.75</v>
@@ -1372,7 +1372,7 @@
         <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
         <v>1.69</v>
@@ -1411,7 +1411,7 @@
         <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
@@ -1426,7 +1426,7 @@
         <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>34</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="8">
@@ -1483,13 +1483,13 @@
         <v>1.72</v>
       </c>
       <c r="H8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
         <v>6.2</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1501,13 +1501,13 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q8" t="n">
         <v>2.02</v>
@@ -1519,7 +1519,7 @@
         <v>3.65</v>
       </c>
       <c r="T8" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U8" t="n">
         <v>1.92</v>
@@ -1546,7 +1546,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
         <v>25</v>
@@ -1561,7 +1561,7 @@
         <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
         <v>110</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G9" t="n">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,7 +679,7 @@
         <v>2.74</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>3.8</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G3" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J3" t="n">
         <v>4.1</v>
@@ -820,7 +820,7 @@
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -832,10 +832,10 @@
         <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R3" t="n">
         <v>1.64</v>
@@ -853,10 +853,10 @@
         <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
         <v>24</v>
@@ -880,7 +880,7 @@
         <v>46</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG3" t="n">
         <v>9.800000000000001</v>
@@ -907,7 +907,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AO3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -940,7 +940,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="H4" t="n">
         <v>1.34</v>
@@ -970,7 +970,7 @@
         <v>2.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R4" t="n">
         <v>1.52</v>
@@ -1117,7 +1117,7 @@
         <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
         <v>1.27</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="G6" t="n">
         <v>1.39</v>
@@ -1225,7 +1225,7 @@
         <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1243,25 +1243,25 @@
         <v>1.48</v>
       </c>
       <c r="R6" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S6" t="n">
         <v>2.18</v>
       </c>
       <c r="T6" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U6" t="n">
         <v>2.22</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y6" t="n">
         <v>42</v>
@@ -1270,40 +1270,40 @@
         <v>90</v>
       </c>
       <c r="AA6" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AE6" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG6" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
         <v>100</v>
@@ -1312,7 +1312,7 @@
         <v>4.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -1351,16 +1351,16 @@
         <v>2.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1390,64 +1390,64 @@
         <v>2.52</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X7" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="n">
         <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="8">
@@ -1489,19 +1489,19 @@
         <v>6.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O8" t="n">
         <v>1.34</v>
@@ -1522,201 +1522,606 @@
         <v>2.02</v>
       </c>
       <c r="U8" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
         <v>18.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA8" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE8" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
         <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
         <v>11.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Caernarfon Town</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Connahs Quay</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G9" t="n">
+        <v>500</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I9" t="n">
+        <v>610</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K9" t="n">
+        <v>950</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K10" t="n">
+        <v>950</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Penybont FC</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K11" t="n">
+        <v>950</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Mexican Liga MX</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>2026-01-13</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Puebla</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Mazatlan FC</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="F12" t="n">
         <v>1.82</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="G12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>950</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -697,7 +697,7 @@
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q2" t="n">
         <v>1.96</v>
@@ -826,28 +826,28 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S3" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U3" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="V3" t="n">
         <v>1.27</v>
@@ -859,19 +859,19 @@
         <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
         <v>38</v>
       </c>
       <c r="AA3" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB3" t="n">
         <v>13.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
         <v>17.5</v>
@@ -940,7 +940,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="H4" t="n">
         <v>1.34</v>
@@ -967,7 +967,7 @@
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q4" t="n">
         <v>1.61</v>
@@ -982,7 +982,7 @@
         <v>1.99</v>
       </c>
       <c r="U4" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="V4" t="n">
         <v>3.5</v>
@@ -1096,7 +1096,7 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.21</v>
@@ -1108,13 +1108,13 @@
         <v>1.53</v>
       </c>
       <c r="R5" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="U5" t="n">
         <v>2.2</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="G6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
+        <v>9</v>
+      </c>
+      <c r="I6" t="n">
         <v>9.4</v>
       </c>
-      <c r="I6" t="n">
-        <v>9.6</v>
-      </c>
       <c r="J6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K6" t="n">
         <v>5.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>1.22</v>
@@ -1234,7 +1234,7 @@
         <v>6.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
         <v>2.92</v>
@@ -1243,31 +1243,31 @@
         <v>1.48</v>
       </c>
       <c r="R6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.77</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.76</v>
       </c>
       <c r="U6" t="n">
         <v>2.22</v>
       </c>
       <c r="V6" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="X6" t="n">
         <v>30</v>
       </c>
       <c r="Y6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z6" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AA6" t="n">
         <v>300</v>
@@ -1282,10 +1282,10 @@
         <v>34</v>
       </c>
       <c r="AE6" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
@@ -1306,13 +1306,13 @@
         <v>27</v>
       </c>
       <c r="AM6" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN6" t="n">
         <v>4.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G7" t="n">
         <v>3.75</v>
@@ -1363,7 +1363,7 @@
         <v>1.29</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
         <v>5.2</v>
@@ -1381,10 +1381,10 @@
         <v>1.54</v>
       </c>
       <c r="S7" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T7" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U7" t="n">
         <v>2.52</v>
@@ -1408,7 +1408,7 @@
         <v>26</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC7" t="n">
         <v>8.800000000000001</v>
@@ -1444,7 +1444,7 @@
         <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO7" t="n">
         <v>11.5</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="G8" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I8" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1501,7 +1501,7 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O8" t="n">
         <v>1.34</v>
@@ -1516,10 +1516,10 @@
         <v>1.35</v>
       </c>
       <c r="S8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
         <v>1.94</v>
@@ -1534,13 +1534,13 @@
         <v>14</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="n">
         <v>48</v>
       </c>
       <c r="AA8" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AB8" t="n">
         <v>8</v>
@@ -1555,19 +1555,19 @@
         <v>95</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
         <v>95</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
         <v>18.5</v>
@@ -1579,7 +1579,7 @@
         <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
         <v>120</v>
@@ -1636,7 +1636,7 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="O9" t="n">
         <v>1.23</v>
@@ -1771,7 +1771,7 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="O10" t="n">
         <v>1.12</v>
@@ -1906,7 +1906,7 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="O11" t="n">
         <v>1.01</v>
@@ -1921,7 +1921,7 @@
         <v>1.08</v>
       </c>
       <c r="S11" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="T11" t="n">
         <v>1.01</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="G12" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>950</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="G2" t="n">
         <v>3.25</v>
       </c>
       <c r="H2" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="I2" t="n">
         <v>2.74</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
         <v>3.8</v>
@@ -697,7 +697,7 @@
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q2" t="n">
         <v>1.96</v>
@@ -730,7 +730,7 @@
         <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AB2" t="n">
         <v>12.5</v>
@@ -742,7 +742,7 @@
         <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
         <v>22</v>
@@ -754,22 +754,22 @@
         <v>18</v>
       </c>
       <c r="AI2" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
         <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AO2" t="n">
         <v>25</v>
@@ -826,28 +826,28 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.6</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.63</v>
-      </c>
       <c r="S3" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="T3" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U3" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="V3" t="n">
         <v>1.27</v>
@@ -865,13 +865,13 @@
         <v>38</v>
       </c>
       <c r="AA3" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB3" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
         <v>17.5</v>
@@ -883,10 +883,10 @@
         <v>13.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
         <v>46</v>
@@ -895,7 +895,7 @@
         <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
         <v>26</v>
@@ -907,7 +907,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -943,13 +943,13 @@
         <v>12.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="I4" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="J4" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="K4" t="n">
         <v>6.4</v>
@@ -967,7 +967,7 @@
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q4" t="n">
         <v>1.61</v>
@@ -985,7 +985,7 @@
         <v>1.92</v>
       </c>
       <c r="V4" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="W4" t="n">
         <v>1.08</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="G5" t="n">
         <v>1.93</v>
@@ -1087,7 +1087,7 @@
         <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1129,7 +1129,7 @@
         <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1144,7 +1144,7 @@
         <v>14.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1156,19 +1156,19 @@
         <v>15.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.39</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.4</v>
       </c>
       <c r="H6" t="n">
         <v>9</v>
@@ -1222,7 +1222,7 @@
         <v>5.8</v>
       </c>
       <c r="K6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>1.22</v>
@@ -1246,7 +1246,7 @@
         <v>1.78</v>
       </c>
       <c r="S6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T6" t="n">
         <v>1.77</v>
@@ -1255,10 +1255,10 @@
         <v>2.22</v>
       </c>
       <c r="V6" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="X6" t="n">
         <v>30</v>
@@ -1288,7 +1288,7 @@
         <v>10.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>23</v>
@@ -1300,7 +1300,7 @@
         <v>12.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL6" t="n">
         <v>27</v>
@@ -1360,13 +1360,13 @@
         <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.23</v>
@@ -1378,7 +1378,7 @@
         <v>1.69</v>
       </c>
       <c r="R7" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S7" t="n">
         <v>2.72</v>
@@ -1396,7 +1396,7 @@
         <v>1.36</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="n">
         <v>12.5</v>
@@ -1420,7 +1420,7 @@
         <v>19.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG7" t="n">
         <v>15</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H8" t="n">
         <v>6.2</v>
@@ -1492,7 +1492,7 @@
         <v>3.95</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
         <v>1.42</v>
@@ -1525,7 +1525,7 @@
         <v>1.94</v>
       </c>
       <c r="V8" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W8" t="n">
         <v>2.4</v>
@@ -1573,7 +1573,7 @@
         <v>18.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="n">
         <v>140</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="G12" t="n">
         <v>2.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K12" t="n">
         <v>3.95</v>
@@ -2050,7 +2050,7 @@
         <v>1.94</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -829,7 +829,7 @@
         <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
         <v>2.48</v>
@@ -841,13 +841,13 @@
         <v>1.6</v>
       </c>
       <c r="S3" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T3" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="V3" t="n">
         <v>1.27</v>
@@ -991,7 +991,7 @@
         <v>1.08</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y4" t="n">
         <v>11.5</v>
@@ -1225,7 +1225,7 @@
         <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1252,7 +1252,7 @@
         <v>1.77</v>
       </c>
       <c r="U6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
         <v>1.11</v>
@@ -1303,7 +1303,7 @@
         <v>13</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
         <v>95</v>
@@ -1444,7 +1444,7 @@
         <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO7" t="n">
         <v>11.5</v>
@@ -1483,7 +1483,7 @@
         <v>1.71</v>
       </c>
       <c r="H8" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
         <v>6.4</v>
@@ -1507,7 +1507,7 @@
         <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q8" t="n">
         <v>2.02</v>
@@ -1522,7 +1522,7 @@
         <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V8" t="n">
         <v>1.18</v>
@@ -1531,7 +1531,7 @@
         <v>2.4</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
         <v>19</v>
@@ -1546,7 +1546,7 @@
         <v>8</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
         <v>24</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H12" t="n">
         <v>3.9</v>
@@ -2035,16 +2035,16 @@
         <v>3.95</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
         <v>1.94</v>
@@ -2053,76 +2053,76 @@
         <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G2" t="n">
         <v>3.25</v>
@@ -691,19 +691,19 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q2" t="n">
         <v>1.96</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
         <v>3.35</v>
@@ -712,7 +712,7 @@
         <v>1.72</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
         <v>1.57</v>
@@ -736,7 +736,7 @@
         <v>12.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
         <v>12.5</v>
@@ -859,7 +859,7 @@
         <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z3" t="n">
         <v>38</v>
@@ -904,7 +904,7 @@
         <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AO3" t="n">
         <v>36</v>
@@ -1246,10 +1246,10 @@
         <v>1.78</v>
       </c>
       <c r="S6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U6" t="n">
         <v>2.2</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G8" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H8" t="n">
         <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J8" t="n">
         <v>3.95</v>
@@ -1507,7 +1507,7 @@
         <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q8" t="n">
         <v>2.02</v>
@@ -1519,16 +1519,16 @@
         <v>3.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U8" t="n">
         <v>1.93</v>
       </c>
       <c r="V8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
@@ -1546,7 +1546,7 @@
         <v>8</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
         <v>24</v>
@@ -1567,7 +1567,7 @@
         <v>95</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK8" t="n">
         <v>18.5</v>
@@ -2122,6 +2122,276 @@
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Necaxa</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X13" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>22:06:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Pachuca</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Leon</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="X14" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO14" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="G2" t="n">
         <v>3.25</v>
@@ -679,7 +679,7 @@
         <v>2.74</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>3.8</v>
@@ -691,7 +691,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
@@ -709,7 +709,7 @@
         <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U2" t="n">
         <v>2.12</v>
@@ -727,7 +727,7 @@
         <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA2" t="n">
         <v>980</v>
@@ -772,7 +772,7 @@
         <v>980</v>
       </c>
       <c r="AO2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="G3" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
@@ -841,7 +841,7 @@
         <v>1.6</v>
       </c>
       <c r="S3" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T3" t="n">
         <v>1.63</v>
@@ -853,19 +853,19 @@
         <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="X3" t="n">
         <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
         <v>38</v>
       </c>
       <c r="AA3" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB3" t="n">
         <v>12.5</v>
@@ -877,7 +877,7 @@
         <v>17.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF3" t="n">
         <v>13.5</v>
@@ -889,10 +889,10 @@
         <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK3" t="n">
         <v>17</v>
@@ -907,7 +907,7 @@
         <v>8.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="G4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="I4" t="n">
         <v>1.35</v>
       </c>
       <c r="J4" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K4" t="n">
         <v>6.4</v>
@@ -973,13 +973,13 @@
         <v>1.61</v>
       </c>
       <c r="R4" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S4" t="n">
         <v>2.52</v>
       </c>
       <c r="T4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
         <v>1.92</v>
@@ -988,7 +988,7 @@
         <v>3.85</v>
       </c>
       <c r="W4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="X4" t="n">
         <v>25</v>
@@ -1012,7 +1012,7 @@
         <v>11.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF4" t="n">
         <v>120</v>
@@ -1042,7 +1042,7 @@
         <v>260</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1096,13 +1096,13 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="O5" t="n">
         <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q5" t="n">
         <v>1.53</v>
@@ -1114,7 +1114,7 @@
         <v>2.08</v>
       </c>
       <c r="T5" t="n">
-        <v>1.33</v>
+        <v>1.59</v>
       </c>
       <c r="U5" t="n">
         <v>2.2</v>
@@ -1213,7 +1213,7 @@
         <v>1.39</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>9.4</v>
@@ -1237,7 +1237,7 @@
         <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="Q6" t="n">
         <v>1.48</v>
@@ -1246,13 +1246,13 @@
         <v>1.78</v>
       </c>
       <c r="S6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T6" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V6" t="n">
         <v>1.11</v>
@@ -1264,13 +1264,13 @@
         <v>30</v>
       </c>
       <c r="Y6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z6" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AA6" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
@@ -1345,7 +1345,7 @@
         <v>3.65</v>
       </c>
       <c r="G7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H7" t="n">
         <v>2.1</v>
@@ -1390,10 +1390,10 @@
         <v>2.52</v>
       </c>
       <c r="V7" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X7" t="n">
         <v>19</v>
@@ -1444,7 +1444,7 @@
         <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO7" t="n">
         <v>11.5</v>
@@ -1495,34 +1495,34 @@
         <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Q8" t="n">
         <v>2.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
         <v>1.19</v>
@@ -1531,7 +1531,7 @@
         <v>2.38</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
         <v>19</v>
@@ -1543,7 +1543,7 @@
         <v>170</v>
       </c>
       <c r="AB8" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC8" t="n">
         <v>8.6</v>
@@ -1552,7 +1552,7 @@
         <v>24</v>
       </c>
       <c r="AE8" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="n">
         <v>9.199999999999999</v>
@@ -1564,7 +1564,7 @@
         <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ8" t="n">
         <v>16.5</v>
@@ -1579,7 +1579,7 @@
         <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO8" t="n">
         <v>120</v>
@@ -2020,19 +2020,19 @@
         <v>1.99</v>
       </c>
       <c r="G12" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I12" t="n">
         <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2041,25 +2041,25 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="O12" t="n">
         <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="R12" t="n">
         <v>1.31</v>
       </c>
       <c r="S12" t="n">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="T12" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="U12" t="n">
         <v>1.92</v>
@@ -2068,34 +2068,34 @@
         <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y12" t="n">
         <v>21</v>
       </c>
       <c r="Z12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE12" t="n">
         <v>75</v>
       </c>
       <c r="AF12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
@@ -2155,10 +2155,10 @@
         <v>2.58</v>
       </c>
       <c r="G13" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H13" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="I13" t="n">
         <v>2.8</v>
@@ -2179,19 +2179,19 @@
         <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
         <v>2.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="R13" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T13" t="n">
         <v>1.54</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I14" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="J14" t="n">
         <v>4.3</v>
@@ -2308,13 +2308,13 @@
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>2.32</v>
+        <v>4.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
         <v>2.32</v>
@@ -2323,76 +2323,76 @@
         <v>1.64</v>
       </c>
       <c r="R14" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="T14" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W14" t="n">
         <v>2.32</v>
       </c>
       <c r="X14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AF14" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -673,13 +673,13 @@
         <v>3.25</v>
       </c>
       <c r="H2" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I2" t="n">
         <v>2.74</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
         <v>3.8</v>
@@ -691,7 +691,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
@@ -730,7 +730,7 @@
         <v>17.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AB2" t="n">
         <v>12.5</v>
@@ -808,16 +808,16 @@
         <v>1.85</v>
       </c>
       <c r="H3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I3" t="n">
         <v>4.5</v>
       </c>
-      <c r="I3" t="n">
-        <v>4.6</v>
-      </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.28</v>
@@ -832,34 +832,34 @@
         <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q3" t="n">
         <v>1.64</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S3" t="n">
         <v>2.56</v>
       </c>
       <c r="T3" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V3" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W3" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X3" t="n">
         <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z3" t="n">
         <v>38</v>
@@ -874,7 +874,7 @@
         <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE3" t="n">
         <v>48</v>
@@ -892,7 +892,7 @@
         <v>48</v>
       </c>
       <c r="AJ3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
         <v>17</v>
@@ -901,7 +901,7 @@
         <v>26</v>
       </c>
       <c r="AM3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN3" t="n">
         <v>8.4</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="I4" t="n">
         <v>1.35</v>
       </c>
       <c r="J4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K4" t="n">
         <v>6.4</v>
@@ -961,16 +961,16 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O4" t="n">
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R4" t="n">
         <v>1.54</v>
@@ -979,7 +979,7 @@
         <v>2.52</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U4" t="n">
         <v>1.92</v>
@@ -1009,7 +1009,7 @@
         <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>17.5</v>
@@ -1018,7 +1018,7 @@
         <v>120</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>
@@ -1027,19 +1027,19 @@
         <v>44</v>
       </c>
       <c r="AJ4" t="n">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="AK4" t="n">
         <v>200</v>
       </c>
       <c r="AL4" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AM4" t="n">
         <v>180</v>
       </c>
       <c r="AN4" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AO4" t="n">
         <v>6</v>
@@ -1084,10 +1084,10 @@
         <v>4.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1102,19 +1102,19 @@
         <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
         <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="T5" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="U5" t="n">
         <v>2.2</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
         <v>15.5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="G6" t="n">
         <v>1.39</v>
@@ -1219,7 +1219,7 @@
         <v>9.4</v>
       </c>
       <c r="J6" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K6" t="n">
         <v>6</v>
@@ -1249,10 +1249,10 @@
         <v>2.22</v>
       </c>
       <c r="T6" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
         <v>1.11</v>
@@ -1348,16 +1348,16 @@
         <v>3.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I7" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="J7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.95</v>
       </c>
       <c r="L7" t="n">
         <v>1.3</v>
@@ -1372,22 +1372,22 @@
         <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S7" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T7" t="n">
         <v>1.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
         <v>1.87</v>
@@ -1408,7 +1408,7 @@
         <v>26</v>
       </c>
       <c r="AB7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8.800000000000001</v>
@@ -1432,7 +1432,7 @@
         <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK7" t="n">
         <v>36</v>
@@ -1444,7 +1444,7 @@
         <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO7" t="n">
         <v>11.5</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="G8" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I8" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J8" t="n">
         <v>3.95</v>
@@ -1495,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1504,31 +1504,31 @@
         <v>3.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
         <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V8" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W8" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="X8" t="n">
         <v>13.5</v>
@@ -1543,10 +1543,10 @@
         <v>170</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
         <v>24</v>
@@ -1558,7 +1558,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH8" t="n">
         <v>22</v>
@@ -1576,7 +1576,7 @@
         <v>38</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="n">
         <v>10.5</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="G9" t="n">
         <v>500</v>
@@ -1621,10 +1621,10 @@
         <v>1.02</v>
       </c>
       <c r="I9" t="n">
-        <v>610</v>
+        <v>970</v>
       </c>
       <c r="J9" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="K9" t="n">
         <v>950</v>
@@ -2053,7 +2053,7 @@
         <v>1.96</v>
       </c>
       <c r="R12" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S12" t="n">
         <v>2.98</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G13" t="n">
         <v>2.76</v>
@@ -2161,13 +2161,13 @@
         <v>2.62</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2185,10 +2185,10 @@
         <v>2.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="R13" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S13" t="n">
         <v>2.54</v>
@@ -2200,10 +2200,10 @@
         <v>2.54</v>
       </c>
       <c r="V13" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W13" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X13" t="n">
         <v>24</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="G14" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="H14" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="I14" t="n">
         <v>5.7</v>
@@ -2329,19 +2329,19 @@
         <v>2.56</v>
       </c>
       <c r="T14" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U14" t="n">
         <v>2.18</v>
       </c>
       <c r="V14" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W14" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
         <v>23</v>
@@ -2362,7 +2362,7 @@
         <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF14" t="n">
         <v>12.5</v>
@@ -2380,7 +2380,7 @@
         <v>18.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="n">
         <v>32</v>
@@ -2389,7 +2389,7 @@
         <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
         <v>65</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="G2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.25</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.3</v>
       </c>
       <c r="K2" t="n">
         <v>3.8</v>
@@ -715,7 +715,7 @@
         <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W2" t="n">
         <v>1.45</v>
@@ -724,55 +724,55 @@
         <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
         <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AO2" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -811,7 +811,7 @@
         <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J3" t="n">
         <v>4.2</v>
@@ -820,37 +820,37 @@
         <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="S3" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T3" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W3" t="n">
         <v>2.16</v>
@@ -859,7 +859,7 @@
         <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
         <v>38</v>
@@ -871,7 +871,7 @@
         <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
         <v>18</v>
@@ -895,7 +895,7 @@
         <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL3" t="n">
         <v>26</v>
@@ -943,19 +943,19 @@
         <v>12.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="I4" t="n">
         <v>1.35</v>
       </c>
       <c r="J4" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K4" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -979,7 +979,7 @@
         <v>2.52</v>
       </c>
       <c r="T4" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U4" t="n">
         <v>1.92</v>
@@ -988,10 +988,10 @@
         <v>3.85</v>
       </c>
       <c r="W4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="n">
         <v>11.5</v>
@@ -1003,46 +1003,46 @@
         <v>13</v>
       </c>
       <c r="AB4" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC4" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>17.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI4" t="n">
         <v>44</v>
       </c>
       <c r="AJ4" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AK4" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AL4" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AM4" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN4" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="AO4" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="5">
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G5" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
         <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="O5" t="n">
         <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="T5" t="n">
         <v>1.66</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="V5" t="n">
         <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,25 +1138,25 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1165,7 +1165,7 @@
         <v>980</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
         <v>980</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G6" t="n">
         <v>1.39</v>
       </c>
       <c r="H6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I6" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J6" t="n">
         <v>5.9</v>
@@ -1228,7 +1228,7 @@
         <v>1.24</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
         <v>6.6</v>
@@ -1243,13 +1243,13 @@
         <v>1.48</v>
       </c>
       <c r="R6" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U6" t="n">
         <v>2.2</v>
@@ -1258,7 +1258,7 @@
         <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="X6" t="n">
         <v>30</v>
@@ -1345,7 +1345,7 @@
         <v>3.65</v>
       </c>
       <c r="G7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="n">
         <v>2.12</v>
@@ -1360,7 +1360,7 @@
         <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1372,7 +1372,7 @@
         <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
         <v>1.7</v>
@@ -1384,16 +1384,16 @@
         <v>2.74</v>
       </c>
       <c r="T7" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V7" t="n">
         <v>1.87</v>
       </c>
       <c r="W7" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X7" t="n">
         <v>19</v>
@@ -1408,7 +1408,7 @@
         <v>26</v>
       </c>
       <c r="AB7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC7" t="n">
         <v>8.800000000000001</v>
@@ -1432,7 +1432,7 @@
         <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK7" t="n">
         <v>36</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H8" t="n">
         <v>6.2</v>
@@ -1495,13 +1495,13 @@
         <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1510,16 +1510,16 @@
         <v>1.97</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R8" t="n">
         <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="U8" t="n">
         <v>1.97</v>
@@ -1528,13 +1528,13 @@
         <v>1.18</v>
       </c>
       <c r="W8" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z8" t="n">
         <v>48</v>
@@ -1555,10 +1555,10 @@
         <v>90</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH8" t="n">
         <v>22</v>
@@ -1570,7 +1570,7 @@
         <v>16.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL8" t="n">
         <v>38</v>
@@ -1615,10 +1615,10 @@
         <v>1.09</v>
       </c>
       <c r="G9" t="n">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="H9" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="I9" t="n">
         <v>970</v>
@@ -2020,7 +2020,7 @@
         <v>1.99</v>
       </c>
       <c r="G12" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H12" t="n">
         <v>3.85</v>
@@ -2038,91 +2038,91 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>1.86</v>
+        <v>3.55</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
         <v>1.86</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="R12" t="n">
         <v>1.33</v>
       </c>
       <c r="S12" t="n">
-        <v>2.98</v>
+        <v>3.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="U12" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
         <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH12" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y12" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>25</v>
-      </c>
       <c r="AI12" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AK12" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -2161,16 +2161,16 @@
         <v>2.62</v>
       </c>
       <c r="I13" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
         <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2188,7 +2188,7 @@
         <v>1.61</v>
       </c>
       <c r="R13" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="n">
         <v>2.54</v>
@@ -2293,19 +2293,19 @@
         <v>1.66</v>
       </c>
       <c r="H14" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I14" t="n">
         <v>5.7</v>
       </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
         <v>4.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:25:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>870</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>500</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S2" t="n">
         <v>2.84</v>
       </c>
-      <c r="G2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.35</v>
-      </c>
       <c r="T2" t="n">
-        <v>1.73</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.45</v>
+        <v>2.32</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AE2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:25:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.84</v>
+        <v>2.9</v>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>5.6</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>2.52</v>
+        <v>1.89</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.96</v>
       </c>
       <c r="R3" t="n">
-        <v>1.61</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>2.54</v>
+        <v>3.35</v>
       </c>
       <c r="T3" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>1.27</v>
+        <v>1.58</v>
       </c>
       <c r="W3" t="n">
-        <v>2.16</v>
+        <v>1.43</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AF3" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AK3" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.4</v>
+        <v>38</v>
       </c>
       <c r="AO3" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,31 +928,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>1.83</v>
       </c>
       <c r="G4" t="n">
-        <v>12.5</v>
+        <v>1.84</v>
       </c>
       <c r="H4" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.35</v>
+        <v>4.6</v>
       </c>
       <c r="J4" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
@@ -961,88 +961,88 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="S4" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T4" t="n">
-        <v>1.99</v>
+        <v>1.62</v>
       </c>
       <c r="U4" t="n">
-        <v>1.92</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>3.85</v>
+        <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>1.08</v>
+        <v>2.18</v>
       </c>
       <c r="X4" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.5</v>
+        <v>24</v>
       </c>
       <c r="Z4" t="n">
-        <v>10.5</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="n">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="AB4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE4" t="n">
         <v>46</v>
       </c>
-      <c r="AC4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AF4" t="n">
-        <v>130</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AO4" t="n">
         <v>36</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>500</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>220</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>170</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>280</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>6.2</v>
       </c>
     </row>
     <row r="5">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.84</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>1.96</v>
+        <v>13.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.8</v>
+        <v>1.35</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>5.8</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="T5" t="n">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.32</v>
+        <v>1.92</v>
       </c>
       <c r="V5" t="n">
-        <v>1.27</v>
+        <v>3.85</v>
       </c>
       <c r="W5" t="n">
-        <v>2.04</v>
+        <v>1.08</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y5" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.4</v>
+        <v>280</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.38</v>
+        <v>1.78</v>
       </c>
       <c r="G6" t="n">
-        <v>1.39</v>
+        <v>1.96</v>
       </c>
       <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
         <v>9.4</v>
       </c>
-      <c r="I6" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.4</v>
-      </c>
       <c r="AO6" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.65</v>
+        <v>1.38</v>
       </c>
       <c r="G7" t="n">
-        <v>3.75</v>
+        <v>1.39</v>
       </c>
       <c r="H7" t="n">
-        <v>2.12</v>
+        <v>9.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.16</v>
+        <v>9.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>5.9</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.96</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="R7" t="n">
-        <v>1.54</v>
+        <v>1.78</v>
       </c>
       <c r="S7" t="n">
-        <v>2.74</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="U7" t="n">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="V7" t="n">
-        <v>1.87</v>
+        <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>1.36</v>
+        <v>3.6</v>
       </c>
       <c r="X7" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>290</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AK7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL7" t="n">
         <v>26</v>
       </c>
-      <c r="AB7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>40</v>
-      </c>
       <c r="AM7" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AN7" t="n">
-        <v>27</v>
+        <v>4.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>11.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC Heidenheim</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1.7</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.99</v>
-      </c>
       <c r="R8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.37</v>
       </c>
-      <c r="S8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.4</v>
-      </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AC8" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>24</v>
+        <v>10.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.4</v>
+        <v>28</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16.5</v>
+        <v>65</v>
       </c>
       <c r="AK8" t="n">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="AL8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AN8" t="n">
-        <v>10.5</v>
+        <v>27</v>
       </c>
       <c r="AO8" t="n">
-        <v>120</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.09</v>
+        <v>1.7</v>
       </c>
       <c r="G9" t="n">
-        <v>470</v>
+        <v>1.71</v>
       </c>
       <c r="H9" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>970</v>
+        <v>6.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.09</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
-        <v>950</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>1.08</v>
+        <v>1.98</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.23</v>
+        <v>1.89</v>
       </c>
       <c r="R9" t="n">
-        <v>1.08</v>
+        <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>1.23</v>
+        <v>3.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -1738,28 +1738,28 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="H10" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="J10" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="K10" t="n">
         <v>950</v>
@@ -1774,19 +1774,19 @@
         <v>1.01</v>
       </c>
       <c r="O10" t="n">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="P10" t="n">
         <v>1.08</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="R10" t="n">
         <v>1.08</v>
       </c>
       <c r="S10" t="n">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1873,12 +1873,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1909,19 +1909,19 @@
         <v>1.01</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="P11" t="n">
         <v>1.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="R11" t="n">
         <v>1.08</v>
       </c>
       <c r="S11" t="n">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="T11" t="n">
         <v>1.01</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.99</v>
+        <v>1.02</v>
       </c>
       <c r="G12" t="n">
-        <v>2.14</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>3.85</v>
+        <v>1.02</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>1.02</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>950</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>1.86</v>
+        <v>1.08</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="R12" t="n">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="S12" t="n">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="T12" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.76</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.62</v>
+        <v>3.95</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.8</v>
       </c>
-      <c r="K13" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.3</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.56</v>
-      </c>
       <c r="W13" t="n">
-        <v>1.58</v>
+        <v>1.9</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Z13" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -2273,36 +2273,36 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>22:06:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Leon</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.63</v>
+        <v>2.6</v>
       </c>
       <c r="G14" t="n">
-        <v>1.66</v>
+        <v>2.78</v>
       </c>
       <c r="H14" t="n">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
       <c r="I14" t="n">
-        <v>5.7</v>
+        <v>2.78</v>
       </c>
       <c r="J14" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.27</v>
@@ -2314,84 +2314,219 @@
         <v>4.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
         <v>2.32</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="T14" t="n">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="U14" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="V14" t="n">
-        <v>1.21</v>
+        <v>1.56</v>
       </c>
       <c r="W14" t="n">
-        <v>2.5</v>
+        <v>1.56</v>
       </c>
       <c r="X14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y14" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Z14" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="AA14" t="n">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>18</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
       </c>
       <c r="AD14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN14" t="n">
         <v>21</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AO14" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>22:06:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Pachuca</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Leon</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE15" t="n">
         <v>65</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF15" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG15" t="n">
         <v>11</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH15" t="n">
         <v>19.5</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI15" t="n">
         <v>60</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ15" t="n">
         <v>18.5</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK15" t="n">
         <v>17</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL15" t="n">
         <v>32</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM15" t="n">
         <v>100</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN15" t="n">
         <v>8</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO15" t="n">
         <v>65</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="H2" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="I2" t="n">
-        <v>870</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>500</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>2.7</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>2.84</v>
+        <v>3.25</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W2" t="n">
         <v>2.32</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
         <v>970</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AD2" t="n">
         <v>970</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
         <v>970</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G3" t="n">
         <v>3.3</v>
@@ -829,7 +829,7 @@
         <v>3.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
         <v>1.89</v>
@@ -850,19 +850,19 @@
         <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X3" t="n">
         <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="n">
         <v>44</v>
@@ -871,7 +871,7 @@
         <v>15</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
         <v>14.5</v>
@@ -883,10 +883,10 @@
         <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
         <v>50</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G4" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
         <v>4.4</v>
@@ -955,7 +955,7 @@
         <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -967,13 +967,13 @@
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.62</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.61</v>
       </c>
       <c r="S4" t="n">
         <v>2.54</v>
@@ -982,19 +982,19 @@
         <v>1.62</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="V4" t="n">
         <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X4" t="n">
         <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z4" t="n">
         <v>38</v>
@@ -1033,7 +1033,7 @@
         <v>16</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM4" t="n">
         <v>65</v>
@@ -1078,7 +1078,7 @@
         <v>13.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="I5" t="n">
         <v>1.35</v>
@@ -1132,13 +1132,13 @@
         <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AC5" t="n">
         <v>14.5</v>
@@ -1147,7 +1147,7 @@
         <v>12.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>130</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="G6" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
         <v>4.8</v>
@@ -1258,7 +1258,7 @@
         <v>1.27</v>
       </c>
       <c r="W6" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1348,7 +1348,7 @@
         <v>1.39</v>
       </c>
       <c r="H7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I7" t="n">
         <v>9.6</v>
@@ -1384,16 +1384,16 @@
         <v>2.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U7" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V7" t="n">
         <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="X7" t="n">
         <v>30</v>
@@ -1495,7 +1495,7 @@
         <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1507,7 +1507,7 @@
         <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q8" t="n">
         <v>1.7</v>
@@ -1516,7 +1516,7 @@
         <v>1.55</v>
       </c>
       <c r="S8" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T8" t="n">
         <v>1.62</v>
@@ -1552,7 +1552,7 @@
         <v>10.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF8" t="n">
         <v>28</v>
@@ -1564,7 +1564,7 @@
         <v>15.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
         <v>65</v>
@@ -1576,13 +1576,13 @@
         <v>40</v>
       </c>
       <c r="AM8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -1624,40 +1624,40 @@
         <v>6.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P9" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S9" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T9" t="n">
         <v>1.94</v>
       </c>
       <c r="U9" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>1.19</v>
@@ -1666,7 +1666,7 @@
         <v>2.4</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         <v>22</v>
       </c>
       <c r="AE9" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF9" t="n">
         <v>9.6</v>
@@ -1696,10 +1696,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AJ9" t="n">
         <v>16.5</v>
@@ -1711,13 +1711,13 @@
         <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.09</v>
+        <v>3.2</v>
       </c>
       <c r="G10" t="n">
-        <v>470</v>
+        <v>4.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="I10" t="n">
-        <v>970</v>
+        <v>2.32</v>
       </c>
       <c r="J10" t="n">
-        <v>1.09</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>1.08</v>
+        <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="R10" t="n">
-        <v>1.08</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>1.24</v>
+        <v>2.78</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="11">
@@ -1882,64 +1882,64 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.02</v>
+        <v>1.26</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>1.37</v>
       </c>
       <c r="H11" t="n">
-        <v>1.02</v>
+        <v>9.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.02</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>950</v>
+        <v>7.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P11" t="n">
-        <v>1.08</v>
+        <v>2.88</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.13</v>
+        <v>1.45</v>
       </c>
       <c r="R11" t="n">
-        <v>1.08</v>
+        <v>1.76</v>
       </c>
       <c r="S11" t="n">
-        <v>1.13</v>
+        <v>2.02</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1948,43 +1948,43 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,58 +2017,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.02</v>
+        <v>1.74</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>1.95</v>
       </c>
       <c r="H12" t="n">
-        <v>1.02</v>
+        <v>4.3</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="J12" t="n">
-        <v>1.02</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>950</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>1.08</v>
+        <v>1.79</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>1.02</v>
+        <v>3.65</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V12" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W12" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2083,10 +2083,10 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2155,7 +2155,7 @@
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H13" t="n">
         <v>3.95</v>
@@ -2188,7 +2188,7 @@
         <v>2.04</v>
       </c>
       <c r="R13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S13" t="n">
         <v>3.5</v>
@@ -2203,10 +2203,10 @@
         <v>1.3</v>
       </c>
       <c r="W13" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
         <v>18</v>
@@ -2227,7 +2227,7 @@
         <v>21</v>
       </c>
       <c r="AE13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF13" t="n">
         <v>15.5</v>
@@ -2239,7 +2239,7 @@
         <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="n">
         <v>30</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G14" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H14" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I14" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="J14" t="n">
         <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>1.27</v>
@@ -2314,85 +2314,85 @@
         <v>4.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
         <v>2.32</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S14" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T14" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U14" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="V14" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W14" t="n">
         <v>1.56</v>
       </c>
       <c r="X14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AB14" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AF14" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG14" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN14" t="n">
         <v>18.5</v>
       </c>
-      <c r="AI14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>21</v>
-      </c>
       <c r="AO14" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G15" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H15" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I15" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="J15" t="n">
         <v>4.3</v>
       </c>
       <c r="K15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
@@ -2452,40 +2452,40 @@
         <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R15" t="n">
         <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="T15" t="n">
         <v>1.71</v>
       </c>
       <c r="U15" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V15" t="n">
         <v>1.2</v>
       </c>
       <c r="W15" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="X15" t="n">
         <v>23</v>
       </c>
       <c r="Y15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z15" t="n">
         <v>60</v>
       </c>
       <c r="AA15" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AB15" t="n">
         <v>11.5</v>
@@ -2494,10 +2494,10 @@
         <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF15" t="n">
         <v>12.5</v>
@@ -2509,7 +2509,7 @@
         <v>19.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="n">
         <v>18.5</v>
@@ -2518,7 +2518,7 @@
         <v>17</v>
       </c>
       <c r="AL15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM15" t="n">
         <v>100</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>09:35:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Al-Zulfi SC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.52</v>
+        <v>1.89</v>
       </c>
       <c r="G2" t="n">
-        <v>1.68</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>6.8</v>
+        <v>3.55</v>
       </c>
       <c r="I2" t="n">
-        <v>9.800000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>3.35</v>
+        <v>2.58</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q2" t="n">
-        <v>2.02</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="S2" t="n">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="T2" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="W2" t="n">
-        <v>2.32</v>
+        <v>1.72</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
         <v>970</v>
       </c>
       <c r="Z2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AD2" t="n">
         <v>970</v>
       </c>
       <c r="AE2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH2" t="n">
         <v>970</v>
       </c>
       <c r="AI2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:25:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.88</v>
+        <v>1.52</v>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4</v>
+        <v>6.8</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="O3" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T3" t="n">
-        <v>1.73</v>
+        <v>2.04</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.59</v>
+        <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>1.44</v>
+        <v>2.52</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y3" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC3" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AD3" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AE3" t="n">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AI3" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="AJ3" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
         <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="AN3" t="n">
-        <v>38</v>
+        <v>12.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>28</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>HNK Gorica</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>NK Radomlje</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.84</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>4.4</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>5.6</v>
+        <v>1.09</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.54</v>
+        <v>1.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.61</v>
+        <v>1.19</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.08</v>
       </c>
       <c r="S4" t="n">
-        <v>2.54</v>
+        <v>1.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>2.54</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:25:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y5" t="n">
         <v>11</v>
       </c>
-      <c r="G5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X5" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>11.5</v>
-      </c>
       <c r="Z5" t="n">
-        <v>9.800000000000001</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="n">
-        <v>12.5</v>
+        <v>44</v>
       </c>
       <c r="AB5" t="n">
-        <v>44</v>
+        <v>14.5</v>
       </c>
       <c r="AC5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD5" t="n">
         <v>14.5</v>
       </c>
-      <c r="AD5" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="AF5" t="n">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="AG5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI5" t="n">
         <v>50</v>
       </c>
-      <c r="AH5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>44</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AK5" t="n">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="AO5" t="n">
-        <v>5.1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
         <v>2.52</v>
       </c>
       <c r="T6" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="U6" t="n">
-        <v>2.32</v>
+        <v>2.54</v>
       </c>
       <c r="V6" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="W6" t="n">
         <v>2.08</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.38</v>
+        <v>11.5</v>
       </c>
       <c r="G7" t="n">
-        <v>1.39</v>
+        <v>13.5</v>
       </c>
       <c r="H7" t="n">
-        <v>9.199999999999999</v>
+        <v>1.28</v>
       </c>
       <c r="I7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="X7" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z7" t="n">
         <v>9.6</v>
       </c>
-      <c r="J7" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="X7" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>90</v>
-      </c>
       <c r="AA7" t="n">
-        <v>290</v>
+        <v>11.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="AC7" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>140</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AH7" t="n">
         <v>34</v>
       </c>
-      <c r="AE7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>23</v>
-      </c>
       <c r="AI7" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12.5</v>
+        <v>500</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="AL7" t="n">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="AM7" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.4</v>
+        <v>280</v>
       </c>
       <c r="AO7" t="n">
-        <v>95</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.65</v>
+        <v>1.83</v>
       </c>
       <c r="G8" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.14</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.16</v>
+        <v>4.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
         <v>2.34</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
-        <v>2.74</v>
+        <v>2.52</v>
       </c>
       <c r="T8" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U8" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="V8" t="n">
-        <v>1.87</v>
+        <v>1.27</v>
       </c>
       <c r="W8" t="n">
-        <v>1.37</v>
+        <v>2.1</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>29</v>
+        <v>9.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1630,40 +1630,40 @@
         <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.31</v>
       </c>
       <c r="P9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R9" t="n">
         <v>1.4</v>
       </c>
       <c r="S9" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
         <v>1.19</v>
       </c>
       <c r="W9" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="G10" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I10" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="S10" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="T10" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="W10" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="AF10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI10" t="n">
         <v>29</v>
       </c>
-      <c r="AG10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>38</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK10" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AL10" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO10" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="G11" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="H11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I11" t="n">
         <v>9.4</v>
       </c>
-      <c r="I11" t="n">
-        <v>14.5</v>
-      </c>
       <c r="J11" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K11" t="n">
         <v>6</v>
       </c>
-      <c r="K11" t="n">
-        <v>7.4</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="R11" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="S11" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="T11" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>1.98</v>
+        <v>2.22</v>
       </c>
       <c r="V11" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="W11" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="X11" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK11" t="n">
         <v>13</v>
       </c>
-      <c r="AK11" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,72 +2003,72 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="G12" t="n">
-        <v>1.95</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>4.3</v>
+        <v>1.04</v>
       </c>
       <c r="I12" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P12" t="n">
         <v>1.08</v>
       </c>
-      <c r="N12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.79</v>
-      </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1.21</v>
       </c>
       <c r="R12" t="n">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="S12" t="n">
-        <v>3.65</v>
+        <v>1.21</v>
       </c>
       <c r="T12" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2083,10 +2083,10 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>3.15</v>
       </c>
       <c r="G13" t="n">
-        <v>2.12</v>
+        <v>3.65</v>
       </c>
       <c r="H13" t="n">
-        <v>3.95</v>
+        <v>2.14</v>
       </c>
       <c r="I13" t="n">
-        <v>4.4</v>
+        <v>2.38</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>1.74</v>
       </c>
       <c r="R13" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="S13" t="n">
-        <v>3.5</v>
+        <v>2.84</v>
       </c>
       <c r="T13" t="n">
-        <v>1.82</v>
+        <v>1.66</v>
       </c>
       <c r="U13" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="V13" t="n">
-        <v>1.3</v>
+        <v>1.73</v>
       </c>
       <c r="W13" t="n">
-        <v>1.89</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Z13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI13" t="n">
         <v>38</v>
       </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AL13" t="n">
         <v>46</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="AO13" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.64</v>
+        <v>1.27</v>
       </c>
       <c r="G14" t="n">
-        <v>2.76</v>
+        <v>1.37</v>
       </c>
       <c r="H14" t="n">
-        <v>2.62</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>2.74</v>
+        <v>14.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>7.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="P14" t="n">
-        <v>2.32</v>
+        <v>2.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.69</v>
+        <v>1.42</v>
       </c>
       <c r="R14" t="n">
-        <v>1.52</v>
+        <v>1.77</v>
       </c>
       <c r="S14" t="n">
-        <v>2.66</v>
+        <v>2.04</v>
       </c>
       <c r="T14" t="n">
-        <v>1.59</v>
+        <v>1.82</v>
       </c>
       <c r="U14" t="n">
-        <v>2.48</v>
+        <v>1.98</v>
       </c>
       <c r="V14" t="n">
-        <v>1.57</v>
+        <v>1.08</v>
       </c>
       <c r="W14" t="n">
-        <v>1.56</v>
+        <v>3.7</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.5</v>
+        <v>60</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AD14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>13</v>
       </c>
-      <c r="AE14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI14" t="n">
+      <c r="AK14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL14" t="n">
         <v>34</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>36</v>
-      </c>
       <c r="AM14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>18.5</v>
+        <v>3.95</v>
       </c>
       <c r="AO14" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,125 +2408,530 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>22:06:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Leon</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="H15" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.8</v>
+        <v>3.55</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>2.34</v>
+        <v>1.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.66</v>
+        <v>1.91</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
       <c r="S15" t="n">
-        <v>2.62</v>
+        <v>3.35</v>
       </c>
       <c r="T15" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="V15" t="n">
         <v>1.2</v>
       </c>
       <c r="W15" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Mazatlan FC</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X16" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Necaxa</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X17" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>22:06:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Pachuca</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Leon</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W18" t="n">
         <v>2.42</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X18" t="n">
         <v>23</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y18" t="n">
         <v>29</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z18" t="n">
         <v>60</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA18" t="n">
         <v>160</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB18" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC18" t="n">
         <v>11</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD18" t="n">
         <v>23</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE18" t="n">
         <v>70</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF18" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG18" t="n">
         <v>11</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH18" t="n">
         <v>19.5</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI18" t="n">
         <v>65</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ18" t="n">
         <v>18.5</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK18" t="n">
         <v>17</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL18" t="n">
         <v>30</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM18" t="n">
         <v>100</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN18" t="n">
         <v>8</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO18" t="n">
         <v>65</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:35:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Randers</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Zulfi SC</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>600</v>
       </c>
       <c r="H2" t="n">
-        <v>3.55</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>5.3</v>
+        <v>870</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>5.3</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,22 +691,22 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.58</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.09</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.19</v>
       </c>
       <c r="R2" t="n">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
       <c r="S2" t="n">
-        <v>2.62</v>
+        <v>1.19</v>
       </c>
       <c r="T2" t="n">
         <v>1.04</v>
@@ -715,16 +715,16 @@
         <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.24</v>
+        <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>1.72</v>
+        <v>1.02</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,13 +733,13 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,10 +748,10 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>09:35:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Al-Zulfi SC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.52</v>
+        <v>1.9</v>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>2.36</v>
       </c>
       <c r="H3" t="n">
-        <v>6.8</v>
+        <v>3.55</v>
       </c>
       <c r="I3" t="n">
-        <v>9.800000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.35</v>
+        <v>2.68</v>
       </c>
       <c r="O3" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>3.45</v>
+        <v>2.62</v>
       </c>
       <c r="T3" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>2.52</v>
+        <v>1.73</v>
       </c>
       <c r="X3" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
         <v>970</v>
       </c>
       <c r="Z3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AD3" t="n">
         <v>970</v>
       </c>
       <c r="AE3" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH3" t="n">
         <v>970</v>
       </c>
       <c r="AI3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HNK Gorica</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NK Radomlje</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>1.53</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>1.66</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>6.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.09</v>
+        <v>3.35</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.08</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.19</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:25:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>HNK Gorica</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>NK Radomlje</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.98</v>
+        <v>1.05</v>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>600</v>
       </c>
       <c r="H5" t="n">
-        <v>2.42</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>2.64</v>
+        <v>870</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>3.55</v>
+        <v>1.09</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>1.89</v>
+        <v>1.09</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.96</v>
+        <v>1.17</v>
       </c>
       <c r="R5" t="n">
-        <v>1.34</v>
+        <v>1.09</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>1.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.61</v>
+        <v>1.02</v>
       </c>
       <c r="W5" t="n">
-        <v>1.44</v>
+        <v>1.02</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:25:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.86</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>1.87</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>2.44</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>2.64</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>5.6</v>
+        <v>3.55</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>2.56</v>
+        <v>1.89</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.61</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.31</v>
-      </c>
       <c r="W6" t="n">
-        <v>2.08</v>
+        <v>1.44</v>
       </c>
       <c r="X6" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
         <v>9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AF6" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="n">
-        <v>16.5</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.199999999999999</v>
+        <v>38</v>
       </c>
       <c r="AO6" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>11.5</v>
+        <v>1.88</v>
       </c>
       <c r="G7" t="n">
-        <v>13.5</v>
+        <v>1.89</v>
       </c>
       <c r="H7" t="n">
-        <v>1.28</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1.32</v>
+        <v>4.3</v>
       </c>
       <c r="J7" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="S7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="U7" t="n">
-        <v>1.92</v>
+        <v>2.58</v>
       </c>
       <c r="V7" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="W7" t="n">
-        <v>1.08</v>
+        <v>2.12</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG7" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>48</v>
-      </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AJ7" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>230</v>
+        <v>17.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="AM7" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>280</v>
+        <v>8.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.83</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>1.28</v>
       </c>
       <c r="I8" t="n">
-        <v>4.7</v>
+        <v>1.33</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="T8" t="n">
-        <v>1.61</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>2.32</v>
+        <v>1.92</v>
       </c>
       <c r="V8" t="n">
-        <v>1.27</v>
+        <v>4</v>
       </c>
       <c r="W8" t="n">
-        <v>2.1</v>
+        <v>1.08</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN8" t="n">
-        <v>9.4</v>
+        <v>280</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FC Heidenheim</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="G9" t="n">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>2.34</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.91</v>
+        <v>1.61</v>
       </c>
       <c r="R9" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>3.3</v>
+        <v>2.54</v>
       </c>
       <c r="T9" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>2.34</v>
       </c>
       <c r="V9" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="W9" t="n">
-        <v>2.42</v>
+        <v>2.1</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.65</v>
+        <v>1.71</v>
       </c>
       <c r="G10" t="n">
-        <v>3.7</v>
+        <v>1.72</v>
       </c>
       <c r="H10" t="n">
-        <v>2.12</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.14</v>
+        <v>6.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>2.34</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="S10" t="n">
-        <v>2.74</v>
+        <v>3.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.63</v>
+        <v>1.91</v>
       </c>
       <c r="U10" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.87</v>
+        <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>1.37</v>
+        <v>2.4</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="AB10" t="n">
-        <v>18</v>
+        <v>8.6</v>
       </c>
       <c r="AC10" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>19.5</v>
+        <v>85</v>
       </c>
       <c r="AF10" t="n">
-        <v>28</v>
+        <v>9.6</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="AJ10" t="n">
-        <v>70</v>
+        <v>16.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>36</v>
+        <v>17.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>28</v>
+        <v>9.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>11.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.38</v>
+        <v>3.65</v>
       </c>
       <c r="G11" t="n">
-        <v>1.39</v>
+        <v>3.7</v>
       </c>
       <c r="H11" t="n">
-        <v>9.199999999999999</v>
+        <v>2.14</v>
       </c>
       <c r="I11" t="n">
-        <v>9.4</v>
+        <v>2.16</v>
       </c>
       <c r="J11" t="n">
-        <v>5.9</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.96</v>
+        <v>2.34</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.49</v>
+        <v>1.71</v>
       </c>
       <c r="R11" t="n">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="S11" t="n">
-        <v>2.22</v>
+        <v>2.76</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.11</v>
+        <v>1.86</v>
       </c>
       <c r="W11" t="n">
-        <v>3.55</v>
+        <v>1.37</v>
       </c>
       <c r="X11" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL11" t="n">
         <v>42</v>
       </c>
-      <c r="Z11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>26</v>
-      </c>
       <c r="AM11" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.4</v>
+        <v>28</v>
       </c>
       <c r="AO11" t="n">
-        <v>95</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="12">
@@ -2023,13 +2023,13 @@
         <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I12" t="n">
         <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K12" t="n">
         <v>1000</v>
@@ -2038,37 +2038,37 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
         <v>1.08</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="R12" t="n">
         <v>1.08</v>
       </c>
       <c r="S12" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W12" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.15</v>
+        <v>1.38</v>
       </c>
       <c r="G13" t="n">
-        <v>3.65</v>
+        <v>1.39</v>
       </c>
       <c r="H13" t="n">
-        <v>2.14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>2.38</v>
+        <v>9.4</v>
       </c>
       <c r="J13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W13" t="n">
         <v>3.55</v>
       </c>
-      <c r="K13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.4</v>
-      </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.5</v>
+        <v>90</v>
       </c>
       <c r="AA13" t="n">
+        <v>290</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD13" t="n">
         <v>34</v>
       </c>
-      <c r="AB13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC13" t="n">
+      <c r="AE13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF13" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="AG13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL13" t="n">
         <v>26</v>
       </c>
-      <c r="AF13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>46</v>
-      </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>36</v>
+        <v>4.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="G14" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="H14" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="K14" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>6.4</v>
+        <v>3.45</v>
       </c>
       <c r="O14" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>2.9</v>
+        <v>2.48</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R14" t="n">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="S14" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="T14" t="n">
-        <v>1.82</v>
+        <v>2.08</v>
       </c>
       <c r="U14" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="V14" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="W14" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="X14" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Y14" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>350</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG14" t="n">
         <v>15</v>
       </c>
-      <c r="AC14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD14" t="n">
+      <c r="AH14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>240</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL14" t="n">
         <v>50</v>
       </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>34</v>
-      </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.73</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>1.92</v>
+        <v>3.5</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>2.48</v>
       </c>
       <c r="J15" t="n">
         <v>3.55</v>
       </c>
       <c r="K15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
         <v>4.2</v>
       </c>
-      <c r="L15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.55</v>
-      </c>
       <c r="O15" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="R15" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>3.35</v>
+        <v>2.84</v>
       </c>
       <c r="T15" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="U15" t="n">
-        <v>1.96</v>
+        <v>2.3</v>
       </c>
       <c r="V15" t="n">
-        <v>1.2</v>
+        <v>1.68</v>
       </c>
       <c r="W15" t="n">
-        <v>2.08</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1.27</v>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>1.35</v>
       </c>
       <c r="H16" t="n">
-        <v>3.95</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>4.4</v>
+        <v>14.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>7.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S16" t="n">
         <v>2.04</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.5</v>
       </c>
       <c r="T16" t="n">
         <v>1.82</v>
       </c>
       <c r="U16" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="V16" t="n">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="W16" t="n">
-        <v>1.9</v>
+        <v>3.85</v>
       </c>
       <c r="X16" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
         <v>15</v>
       </c>
-      <c r="Y16" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>11</v>
-      </c>
       <c r="AC16" t="n">
-        <v>8.6</v>
+        <v>19</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AE16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>13</v>
       </c>
-      <c r="AH16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>30</v>
-      </c>
       <c r="AK16" t="n">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>3.95</v>
       </c>
       <c r="AO16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,260 +2678,800 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.64</v>
+        <v>1.73</v>
       </c>
       <c r="G17" t="n">
-        <v>2.76</v>
+        <v>2.16</v>
       </c>
       <c r="H17" t="n">
-        <v>2.62</v>
+        <v>3.35</v>
       </c>
       <c r="I17" t="n">
-        <v>2.74</v>
+        <v>5.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.04</v>
       </c>
-      <c r="N17" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.59</v>
-      </c>
       <c r="U17" t="n">
-        <v>2.48</v>
+        <v>1.98</v>
       </c>
       <c r="V17" t="n">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="W17" t="n">
-        <v>1.56</v>
+        <v>1.86</v>
       </c>
       <c r="X17" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>8</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Penybont FC</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>Mexican Liga MX</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>2026-01-13</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Mazatlan FC</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Necaxa</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X21" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>22:06:00</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Pachuca</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Leon</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="F22" t="n">
         <v>1.64</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G22" t="n">
         <v>1.7</v>
       </c>
-      <c r="H18" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H22" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I22" t="n">
         <v>5.9</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J22" t="n">
         <v>4.3</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K22" t="n">
         <v>4.7</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L22" t="n">
         <v>1.27</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M22" t="n">
         <v>1.04</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N22" t="n">
         <v>4.8</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O22" t="n">
         <v>1.22</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P22" t="n">
         <v>2.34</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q22" t="n">
         <v>1.66</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R22" t="n">
         <v>1.53</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S22" t="n">
         <v>2.62</v>
       </c>
-      <c r="T18" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U18" t="n">
+      <c r="T22" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U22" t="n">
         <v>2.2</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V22" t="n">
         <v>1.2</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W22" t="n">
         <v>2.42</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X22" t="n">
         <v>23</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y22" t="n">
         <v>29</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z22" t="n">
         <v>60</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA22" t="n">
         <v>160</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB22" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC22" t="n">
         <v>11</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD22" t="n">
         <v>23</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE22" t="n">
         <v>70</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF22" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG22" t="n">
         <v>11</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH22" t="n">
         <v>19.5</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI22" t="n">
         <v>65</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ22" t="n">
         <v>18.5</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK22" t="n">
         <v>17</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL22" t="n">
         <v>30</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM22" t="n">
         <v>100</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN22" t="n">
         <v>8</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO22" t="n">
         <v>65</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -721,10 +721,10 @@
         <v>1.02</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,13 +733,13 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,10 +748,10 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G3" t="n">
         <v>2.36</v>
@@ -826,16 +826,16 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
         <v>1.26</v>
@@ -850,7 +850,7 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
         <v>1.73</v>
@@ -940,19 +940,19 @@
         <v>1.53</v>
       </c>
       <c r="G4" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="H4" t="n">
         <v>6.8</v>
       </c>
       <c r="I4" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.35</v>
@@ -961,13 +961,13 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q4" t="n">
         <v>2.02</v>
@@ -979,19 +979,19 @@
         <v>3.6</v>
       </c>
       <c r="T4" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
         <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="X4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
         <v>970</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>970</v>
@@ -1018,19 +1018,19 @@
         <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
         <v>150</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>55</v>
@@ -1039,7 +1039,7 @@
         <v>210</v>
       </c>
       <c r="AN4" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AO4" t="n">
         <v>250</v>
@@ -1126,10 +1126,10 @@
         <v>1.02</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,13 +1138,13 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,10 +1153,10 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I6" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,34 +1231,34 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.89</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.96</v>
-      </c>
       <c r="R6" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="W6" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="X6" t="n">
         <v>17</v>
@@ -1267,52 +1267,52 @@
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC6" t="n">
         <v>9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ6" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
         <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1342,34 +1342,34 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="G7" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J7" t="n">
         <v>4.3</v>
       </c>
-      <c r="J7" t="n">
-        <v>4.2</v>
-      </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
         <v>2.58</v>
@@ -1378,64 +1378,64 @@
         <v>1.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="T7" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U7" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="V7" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="W7" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="X7" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y7" t="n">
         <v>23</v>
       </c>
-      <c r="Y7" t="n">
-        <v>22</v>
-      </c>
       <c r="Z7" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AE7" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AF7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
         <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AL7" t="n">
         <v>25</v>
@@ -1444,10 +1444,10 @@
         <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -1480,7 +1480,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="H8" t="n">
         <v>1.28</v>
@@ -1495,28 +1495,28 @@
         <v>6.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q8" t="n">
         <v>1.56</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1537,10 +1537,10 @@
         <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AB8" t="n">
         <v>44</v>
@@ -1573,7 +1573,7 @@
         <v>220</v>
       </c>
       <c r="AL8" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AM8" t="n">
         <v>200</v>
@@ -1624,10 +1624,10 @@
         <v>4.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.26</v>
@@ -1636,7 +1636,7 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O9" t="n">
         <v>1.21</v>
@@ -1678,7 +1678,7 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC9" t="n">
         <v>10.5</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G10" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="H10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I10" t="n">
         <v>6</v>
       </c>
-      <c r="I10" t="n">
-        <v>6.2</v>
-      </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
         <v>1.39</v>
@@ -1777,13 +1777,13 @@
         <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R10" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
         <v>3.3</v>
@@ -1792,49 +1792,49 @@
         <v>1.91</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z10" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA10" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC10" t="n">
         <v>8.6</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
         <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AG10" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="n">
         <v>16.5</v>
@@ -1849,10 +1849,10 @@
         <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AO10" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G11" t="n">
         <v>3.65</v>
       </c>
-      <c r="G11" t="n">
-        <v>3.7</v>
-      </c>
       <c r="H11" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I11" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J11" t="n">
         <v>3.8</v>
@@ -1912,10 +1912,10 @@
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
         <v>1.55</v>
@@ -1924,19 +1924,19 @@
         <v>2.76</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
         <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W11" t="n">
         <v>1.37</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y11" t="n">
         <v>12.5</v>
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB11" t="n">
         <v>18</v>
@@ -1981,7 +1981,7 @@
         <v>42</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN11" t="n">
         <v>28</v>
@@ -2047,7 +2047,7 @@
         <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="Q12" t="n">
         <v>1.22</v>
@@ -2071,10 +2071,10 @@
         <v>1.02</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,13 +2083,13 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2098,10 +2098,10 @@
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H13" t="n">
         <v>9.199999999999999</v>
@@ -2191,7 +2191,7 @@
         <v>1.78</v>
       </c>
       <c r="S13" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T13" t="n">
         <v>1.78</v>
@@ -2200,13 +2200,13 @@
         <v>2.22</v>
       </c>
       <c r="V13" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W13" t="n">
         <v>3.55</v>
       </c>
       <c r="X13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="n">
         <v>42</v>
@@ -2215,7 +2215,7 @@
         <v>90</v>
       </c>
       <c r="AA13" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AB13" t="n">
         <v>13</v>
@@ -2230,10 +2230,10 @@
         <v>110</v>
       </c>
       <c r="AF13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG13" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10</v>
       </c>
       <c r="AH13" t="n">
         <v>23</v>
@@ -2296,10 +2296,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="K14" t="n">
         <v>8.800000000000001</v>
@@ -2335,7 +2335,7 @@
         <v>1.7</v>
       </c>
       <c r="V14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W14" t="n">
         <v>4.4</v>
@@ -2344,7 +2344,7 @@
         <v>40</v>
       </c>
       <c r="Y14" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="Z14" t="n">
         <v>220</v>
@@ -2359,7 +2359,7 @@
         <v>22</v>
       </c>
       <c r="AD14" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AE14" t="n">
         <v>350</v>
@@ -2425,13 +2425,13 @@
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H15" t="n">
         <v>2.2</v>
       </c>
       <c r="I15" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J15" t="n">
         <v>3.55</v>
@@ -2452,7 +2452,7 @@
         <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="Q15" t="n">
         <v>1.74</v>
@@ -2560,7 +2560,7 @@
         <v>1.27</v>
       </c>
       <c r="G16" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H16" t="n">
         <v>9.199999999999999</v>
@@ -2590,7 +2590,7 @@
         <v>2.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R16" t="n">
         <v>1.77</v>
@@ -2695,19 +2695,19 @@
         <v>1.73</v>
       </c>
       <c r="G17" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="H17" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2716,22 +2716,22 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>3.15</v>
+        <v>1.1</v>
       </c>
       <c r="O17" t="n">
         <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="R17" t="n">
-        <v>1.38</v>
+        <v>1.08</v>
       </c>
       <c r="S17" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="T17" t="n">
         <v>1.04</v>
@@ -2743,13 +2743,13 @@
         <v>1.21</v>
       </c>
       <c r="W17" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
@@ -2758,13 +2758,13 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
@@ -2773,10 +2773,10 @@
         <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="G18" t="n">
         <v>2.16</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
         <v>6.4</v>
@@ -2842,7 +2842,7 @@
         <v>3.3</v>
       </c>
       <c r="K18" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2851,22 +2851,22 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>2.82</v>
+        <v>1.1</v>
       </c>
       <c r="O18" t="n">
         <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.6</v>
+        <v>1.24</v>
       </c>
       <c r="R18" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="S18" t="n">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="T18" t="n">
         <v>1.04</v>
@@ -2881,10 +2881,10 @@
         <v>1.86</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2893,13 +2893,13 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
@@ -2908,10 +2908,10 @@
         <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
@@ -3100,16 +3100,16 @@
         <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
         <v>4.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
         <v>3.8</v>
@@ -3142,13 +3142,13 @@
         <v>1.82</v>
       </c>
       <c r="U20" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V20" t="n">
         <v>1.3</v>
       </c>
       <c r="W20" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X20" t="n">
         <v>15</v>
@@ -3163,7 +3163,7 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AC20" t="n">
         <v>8.6</v>
@@ -3178,7 +3178,7 @@
         <v>15.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
         <v>23</v>
@@ -3232,61 +3232,61 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G21" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H21" t="n">
         <v>2.64</v>
       </c>
       <c r="I21" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O21" t="n">
         <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="S21" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="T21" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U21" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="V21" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W21" t="n">
         <v>1.56</v>
       </c>
       <c r="X21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y21" t="n">
         <v>15.5</v>
@@ -3301,7 +3301,7 @@
         <v>15.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD21" t="n">
         <v>13</v>
@@ -3382,10 +3382,10 @@
         <v>4.3</v>
       </c>
       <c r="K22" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
@@ -3400,10 +3400,10 @@
         <v>2.34</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R22" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S22" t="n">
         <v>2.62</v>
@@ -3412,7 +3412,7 @@
         <v>1.72</v>
       </c>
       <c r="U22" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V22" t="n">
         <v>1.2</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.04</v>
       </c>
-      <c r="G2" t="n">
-        <v>600</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I2" t="n">
-        <v>870</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K2" t="n">
-        <v>950</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>1.09</v>
+        <v>2.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.19</v>
+        <v>1.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.08</v>
+        <v>1.56</v>
       </c>
       <c r="S2" t="n">
-        <v>1.19</v>
+        <v>2.38</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="V2" t="n">
-        <v>1.02</v>
+        <v>1.47</v>
       </c>
       <c r="W2" t="n">
-        <v>1.02</v>
+        <v>1.53</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -844,7 +844,7 @@
         <v>2.62</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.59</v>
       </c>
       <c r="U3" t="n">
         <v>1.04</v>
@@ -862,25 +862,25 @@
         <v>970</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB3" t="n">
         <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
         <v>970</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG3" t="n">
         <v>970</v>
@@ -889,25 +889,25 @@
         <v>970</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4">
@@ -940,10 +940,10 @@
         <v>1.53</v>
       </c>
       <c r="G4" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>8.6</v>
@@ -952,10 +952,10 @@
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -967,7 +967,7 @@
         <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
         <v>2.02</v>
@@ -988,16 +988,16 @@
         <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="n">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1006,40 +1006,40 @@
         <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="n">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="AF4" t="n">
         <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>32</v>
       </c>
       <c r="AI4" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="AJ4" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AK4" t="n">
         <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="AM4" t="n">
         <v>210</v>
       </c>
       <c r="AN4" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
         <v>250</v>
@@ -1072,28 +1072,28 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="G5" t="n">
-        <v>600</v>
+        <v>44</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>870</v>
+        <v>44</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>8.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
         <v>1.09</v>
@@ -1108,7 +1108,7 @@
         <v>1.17</v>
       </c>
       <c r="R5" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="S5" t="n">
         <v>1.05</v>
@@ -1120,7 +1120,7 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="W5" t="n">
         <v>1.02</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H6" t="n">
         <v>2.42</v>
@@ -1219,10 +1219,10 @@
         <v>2.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1237,22 +1237,22 @@
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R6" t="n">
         <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
         <v>1.74</v>
       </c>
       <c r="U6" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="V6" t="n">
         <v>1.66</v>
@@ -1297,19 +1297,19 @@
         <v>46</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO6" t="n">
         <v>26</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K7" t="n">
         <v>4.3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.31</v>
@@ -1384,16 +1384,16 @@
         <v>2.46</v>
       </c>
       <c r="T7" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U7" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V7" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="X7" t="n">
         <v>24</v>
@@ -1405,19 +1405,19 @@
         <v>38</v>
       </c>
       <c r="AA7" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD7" t="n">
         <v>18</v>
       </c>
       <c r="AE7" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF7" t="n">
         <v>13.5</v>
@@ -1426,28 +1426,28 @@
         <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ7" t="n">
         <v>19.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AL7" t="n">
         <v>25</v>
       </c>
       <c r="AM7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AO7" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="G8" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="I8" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="K8" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
         <v>1.27</v>
@@ -1501,52 +1501,52 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="V8" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="X8" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AA8" t="n">
         <v>10.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AC8" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AD8" t="n">
         <v>11</v>
@@ -1555,25 +1555,25 @@
         <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AG8" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AH8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
-        <v>500</v>
+        <v>790</v>
       </c>
       <c r="AK8" t="n">
+        <v>290</v>
+      </c>
+      <c r="AL8" t="n">
         <v>220</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>170</v>
       </c>
       <c r="AM8" t="n">
         <v>200</v>
@@ -1582,7 +1582,7 @@
         <v>280</v>
       </c>
       <c r="AO8" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G9" t="n">
         <v>1.9</v>
@@ -1621,13 +1621,13 @@
         <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.26</v>
@@ -1648,28 +1648,28 @@
         <v>1.61</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S9" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T9" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U9" t="n">
         <v>2.34</v>
       </c>
       <c r="V9" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W9" t="n">
         <v>2.1</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,25 +1678,25 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="n">
         <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1705,16 +1705,16 @@
         <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
         <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="G10" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="H10" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="J10" t="n">
         <v>3.9</v>
@@ -1765,61 +1765,61 @@
         <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O10" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W10" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC10" t="n">
         <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
         <v>75</v>
@@ -1828,31 +1828,31 @@
         <v>10.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO10" t="n">
         <v>80</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -1897,7 +1897,7 @@
         <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L11" t="n">
         <v>1.33</v>
@@ -1912,10 +1912,10 @@
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R11" t="n">
         <v>1.55</v>
@@ -1924,7 +1924,7 @@
         <v>2.76</v>
       </c>
       <c r="T11" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U11" t="n">
         <v>2.5</v>
@@ -1936,7 +1936,7 @@
         <v>1.37</v>
       </c>
       <c r="X11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
         <v>12.5</v>
@@ -1945,13 +1945,13 @@
         <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AB11" t="n">
         <v>18</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
         <v>10.5</v>
@@ -1978,7 +1978,7 @@
         <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
         <v>65</v>
@@ -1987,7 +1987,7 @@
         <v>28</v>
       </c>
       <c r="AO11" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -2038,7 +2038,7 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
         <v>1.1</v>
@@ -2158,16 +2158,16 @@
         <v>1.4</v>
       </c>
       <c r="H13" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I13" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J13" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K13" t="n">
         <v>5.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.24</v>
@@ -2182,28 +2182,28 @@
         <v>1.16</v>
       </c>
       <c r="P13" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R13" t="n">
         <v>1.78</v>
       </c>
       <c r="S13" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.2</v>
       </c>
-      <c r="T13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.22</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W13" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="X13" t="n">
         <v>34</v>
@@ -2215,7 +2215,7 @@
         <v>90</v>
       </c>
       <c r="AA13" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AB13" t="n">
         <v>13</v>
@@ -2230,7 +2230,7 @@
         <v>110</v>
       </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG13" t="n">
         <v>10.5</v>
@@ -2242,7 +2242,7 @@
         <v>90</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK13" t="n">
         <v>13</v>
@@ -2257,7 +2257,7 @@
         <v>4.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -2296,10 +2296,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="K14" t="n">
         <v>8.800000000000001</v>
@@ -2338,7 +2338,7 @@
         <v>1.05</v>
       </c>
       <c r="W14" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="X14" t="n">
         <v>40</v>
@@ -2389,7 +2389,7 @@
         <v>240</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="AO14" t="n">
         <v>470</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G15" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H15" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I15" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
@@ -2470,10 +2470,10 @@
         <v>2.3</v>
       </c>
       <c r="V15" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W15" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X15" t="n">
         <v>21</v>
@@ -2506,16 +2506,16 @@
         <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ15" t="n">
         <v>65</v>
       </c>
       <c r="AK15" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="n">
         <v>46</v>
@@ -2524,10 +2524,10 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G16" t="n">
         <v>1.34</v>
@@ -2590,7 +2590,7 @@
         <v>2.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R16" t="n">
         <v>1.77</v>
@@ -2611,7 +2611,7 @@
         <v>3.85</v>
       </c>
       <c r="X16" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="n">
         <v>60</v>
@@ -2623,7 +2623,7 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
         <v>19</v>
@@ -2635,28 +2635,28 @@
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
         <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL16" t="n">
         <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AN16" t="n">
         <v>3.95</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G17" t="n">
-        <v>1.99</v>
+        <v>2.18</v>
       </c>
       <c r="H17" t="n">
         <v>3.7</v>
@@ -2707,7 +2707,7 @@
         <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2728,13 +2728,13 @@
         <v>1.39</v>
       </c>
       <c r="R17" t="n">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="S17" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U17" t="n">
         <v>1.98</v>
@@ -2743,7 +2743,7 @@
         <v>1.21</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X17" t="n">
         <v>970</v>
@@ -2752,25 +2752,25 @@
         <v>970</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB17" t="n">
         <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD17" t="n">
         <v>970</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG17" t="n">
         <v>970</v>
@@ -2779,25 +2779,25 @@
         <v>970</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G18" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H18" t="n">
         <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2851,34 +2851,34 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="O18" t="n">
         <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="R18" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="T18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U18" t="n">
         <v>1.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W18" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="X18" t="n">
         <v>970</v>
@@ -2887,25 +2887,25 @@
         <v>970</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB18" t="n">
         <v>970</v>
       </c>
       <c r="AC18" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD18" t="n">
         <v>970</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG18" t="n">
         <v>970</v>
@@ -2914,25 +2914,25 @@
         <v>970</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19">
@@ -2971,7 +2971,7 @@
         <v>4.8</v>
       </c>
       <c r="I19" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
         <v>3.75</v>
@@ -2983,7 +2983,7 @@
         <v>1.3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
         <v>3.95</v>
@@ -3001,7 +3001,7 @@
         <v>1.39</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T19" t="n">
         <v>1.79</v>
@@ -3016,10 +3016,10 @@
         <v>2.2</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3028,10 +3028,10 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AD19" t="n">
         <v>1000</v>
@@ -3040,22 +3040,22 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG19" t="n">
         <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
@@ -3100,7 +3100,7 @@
         <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
@@ -3115,7 +3115,7 @@
         <v>3.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
@@ -3130,7 +3130,7 @@
         <v>1.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
         <v>1.35</v>
@@ -3148,7 +3148,7 @@
         <v>1.3</v>
       </c>
       <c r="W20" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X20" t="n">
         <v>15</v>
@@ -3169,13 +3169,13 @@
         <v>8.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
         <v>60</v>
       </c>
       <c r="AF20" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG20" t="n">
         <v>11.5</v>
@@ -3184,31 +3184,31 @@
         <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AJ20" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL20" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,126 +3218,126 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.62</v>
+        <v>1.04</v>
       </c>
       <c r="G21" t="n">
-        <v>2.76</v>
+        <v>1000</v>
       </c>
       <c r="H21" t="n">
-        <v>2.64</v>
+        <v>1.04</v>
       </c>
       <c r="I21" t="n">
-        <v>2.78</v>
+        <v>1000</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>1.02</v>
       </c>
       <c r="K21" t="n">
-        <v>3.9</v>
+        <v>950</v>
       </c>
       <c r="L21" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>2.26</v>
+        <v>1.08</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.7</v>
+        <v>1.02</v>
       </c>
       <c r="R21" t="n">
-        <v>1.51</v>
+        <v>1.08</v>
       </c>
       <c r="S21" t="n">
-        <v>2.74</v>
+        <v>1.42</v>
       </c>
       <c r="T21" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="W21" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="X21" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3353,125 +3353,260 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>22:06:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Leon</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.64</v>
+        <v>2.68</v>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>2.76</v>
       </c>
       <c r="H22" t="n">
-        <v>5.3</v>
+        <v>2.64</v>
       </c>
       <c r="I22" t="n">
-        <v>5.9</v>
+        <v>2.78</v>
       </c>
       <c r="J22" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="K22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N22" t="n">
         <v>4.6</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.22</v>
       </c>
       <c r="P22" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X22" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>22:06:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Pachuca</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Leon</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P23" t="n">
         <v>2.34</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q23" t="n">
         <v>1.65</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R23" t="n">
         <v>1.55</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S23" t="n">
         <v>2.62</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T23" t="n">
         <v>1.72</v>
       </c>
-      <c r="U22" t="n">
+      <c r="U23" t="n">
         <v>2.22</v>
       </c>
-      <c r="V22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="X22" t="n">
+      <c r="V23" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="X23" t="n">
         <v>23</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Y23" t="n">
         <v>29</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="Z23" t="n">
         <v>60</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AA23" t="n">
         <v>160</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AB23" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AC23" t="n">
         <v>11</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AD23" t="n">
         <v>23</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AE23" t="n">
         <v>70</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AF23" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AG23" t="n">
         <v>11</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AH23" t="n">
         <v>19.5</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AI23" t="n">
         <v>65</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AJ23" t="n">
         <v>18.5</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AK23" t="n">
         <v>17</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AL23" t="n">
         <v>30</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AM23" t="n">
         <v>100</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AN23" t="n">
         <v>8</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AO23" t="n">
         <v>65</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="G2" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
         <v>1.3</v>
@@ -691,88 +691,88 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="Q2" t="n">
         <v>1.6</v>
       </c>
       <c r="R2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.56</v>
       </c>
-      <c r="S2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.54</v>
-      </c>
       <c r="U2" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="V2" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="W2" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="X2" t="n">
         <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="AB2" t="n">
         <v>15.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AG2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AK2" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="n">
         <v>360</v>
       </c>
       <c r="AN2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="G3" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="H3" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="R3" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="S3" t="n">
-        <v>2.62</v>
+        <v>3.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.59</v>
+        <v>1.77</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AA3" t="n">
         <v>900</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AJ3" t="n">
-        <v>900</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN3" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -946,7 +946,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -961,16 +961,16 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R4" t="n">
         <v>1.3</v>
@@ -982,7 +982,7 @@
         <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V4" t="n">
         <v>1.13</v>
@@ -1000,13 +1000,13 @@
         <v>270</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD4" t="n">
         <v>80</v>
@@ -1015,13 +1015,13 @@
         <v>480</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="n">
         <v>450</v>
@@ -1030,19 +1030,19 @@
         <v>44</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AL4" t="n">
         <v>290</v>
       </c>
       <c r="AM4" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN4" t="n">
         <v>29</v>
       </c>
       <c r="AO4" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5">
@@ -1108,7 +1108,7 @@
         <v>1.17</v>
       </c>
       <c r="R5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S5" t="n">
         <v>1.05</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG5" t="n">
         <v>970</v>
@@ -1162,19 +1162,19 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1240,10 +1240,10 @@
         <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S6" t="n">
         <v>3.35</v>
@@ -1261,58 +1261,58 @@
         <v>1.47</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
         <v>12</v>
       </c>
       <c r="AE6" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="AJ6" t="n">
-        <v>900</v>
+        <v>290</v>
       </c>
       <c r="AK6" t="n">
         <v>90</v>
       </c>
       <c r="AL6" t="n">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G7" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="H7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I7" t="n">
         <v>4.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.5</v>
       </c>
       <c r="J7" t="n">
         <v>4.2</v>
@@ -1369,10 +1369,10 @@
         <v>5.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="Q7" t="n">
         <v>1.6</v>
@@ -1384,16 +1384,16 @@
         <v>2.46</v>
       </c>
       <c r="T7" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U7" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="V7" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W7" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X7" t="n">
         <v>24</v>
@@ -1414,13 +1414,13 @@
         <v>9.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE7" t="n">
         <v>44</v>
       </c>
       <c r="AF7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="n">
         <v>10.5</v>
@@ -1432,19 +1432,19 @@
         <v>44</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM7" t="n">
         <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO7" t="n">
         <v>34</v>
@@ -1483,16 +1483,16 @@
         <v>16.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="I8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="J8" t="n">
         <v>6.6</v>
       </c>
       <c r="K8" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.27</v>
@@ -1501,13 +1501,13 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
         <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q8" t="n">
         <v>1.53</v>
@@ -1522,7 +1522,7 @@
         <v>2.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V8" t="n">
         <v>4.4</v>
@@ -1531,7 +1531,7 @@
         <v>1.06</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
@@ -1543,7 +1543,7 @@
         <v>10.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AC8" t="n">
         <v>17.5</v>
@@ -1552,19 +1552,19 @@
         <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AG8" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AH8" t="n">
         <v>38</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AJ8" t="n">
         <v>790</v>
@@ -1576,10 +1576,10 @@
         <v>220</v>
       </c>
       <c r="AM8" t="n">
-        <v>200</v>
+        <v>430</v>
       </c>
       <c r="AN8" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="AO8" t="n">
         <v>4.5</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1630,19 +1630,19 @@
         <v>4.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q9" t="n">
         <v>1.61</v>
@@ -1651,25 +1651,25 @@
         <v>1.54</v>
       </c>
       <c r="S9" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U9" t="n">
         <v>2.34</v>
       </c>
       <c r="V9" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W9" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="X9" t="n">
         <v>44</v>
       </c>
       <c r="Y9" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,7 +1678,7 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
         <v>10.5</v>
@@ -1690,10 +1690,10 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
         <v>27</v>
@@ -1702,7 +1702,7 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AK9" t="n">
         <v>34</v>
@@ -1714,10 +1714,10 @@
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="H10" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I10" t="n">
         <v>5.5</v>
       </c>
-      <c r="I10" t="n">
-        <v>5.6</v>
-      </c>
       <c r="J10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.95</v>
       </c>
       <c r="L10" t="n">
         <v>1.41</v>
@@ -1777,10 +1777,10 @@
         <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R10" t="n">
         <v>1.39</v>
@@ -1789,16 +1789,16 @@
         <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V10" t="n">
         <v>1.22</v>
       </c>
       <c r="W10" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="X10" t="n">
         <v>14.5</v>
@@ -1819,25 +1819,25 @@
         <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE10" t="n">
         <v>75</v>
       </c>
       <c r="AF10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
         <v>9.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK10" t="n">
         <v>18</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G11" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H11" t="n">
         <v>2.16</v>
@@ -1897,7 +1897,7 @@
         <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
         <v>1.33</v>
@@ -1915,7 +1915,7 @@
         <v>2.34</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
         <v>1.55</v>
@@ -1930,7 +1930,7 @@
         <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W11" t="n">
         <v>1.37</v>
@@ -1939,13 +1939,13 @@
         <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
         <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
         <v>18</v>
@@ -1960,7 +1960,7 @@
         <v>19.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG11" t="n">
         <v>15</v>
@@ -1969,7 +1969,7 @@
         <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ11" t="n">
         <v>65</v>
@@ -1978,16 +1978,16 @@
         <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
         <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="12">
@@ -2077,10 +2077,10 @@
         <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB12" t="n">
         <v>970</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="H13" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J13" t="n">
         <v>5.7</v>
@@ -2170,7 +2170,7 @@
         <v>5.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2185,10 +2185,10 @@
         <v>2.92</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R13" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="S13" t="n">
         <v>2.24</v>
@@ -2200,31 +2200,31 @@
         <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W13" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="X13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z13" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AB13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC13" t="n">
         <v>13</v>
       </c>
-      <c r="AC13" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AD13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE13" t="n">
         <v>110</v>
@@ -2236,13 +2236,13 @@
         <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK13" t="n">
         <v>13</v>
@@ -2251,13 +2251,13 @@
         <v>26</v>
       </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="G15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
         <v>2.24</v>
@@ -2464,7 +2464,7 @@
         <v>2.84</v>
       </c>
       <c r="T15" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="U15" t="n">
         <v>2.3</v>
@@ -2476,55 +2476,55 @@
         <v>1.42</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AB15" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH15" t="n">
         <v>16.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="n">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="AK15" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AL15" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
         <v>17</v>
@@ -2560,13 +2560,13 @@
         <v>1.28</v>
       </c>
       <c r="G16" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H16" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="I16" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="J16" t="n">
         <v>6</v>
@@ -2605,7 +2605,7 @@
         <v>1.98</v>
       </c>
       <c r="V16" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W16" t="n">
         <v>3.85</v>
@@ -2614,10 +2614,10 @@
         <v>38</v>
       </c>
       <c r="Y16" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
@@ -2626,10 +2626,10 @@
         <v>13.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
@@ -2638,7 +2638,7 @@
         <v>11</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
         <v>28</v>
@@ -2647,7 +2647,7 @@
         <v>470</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
         <v>14.5</v>
@@ -2656,10 +2656,10 @@
         <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>2.18</v>
+        <v>1.99</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="I17" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2722,16 +2722,16 @@
         <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q17" t="n">
         <v>1.39</v>
       </c>
       <c r="R17" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="S17" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="T17" t="n">
         <v>1.05</v>
@@ -2740,10 +2740,10 @@
         <v>1.98</v>
       </c>
       <c r="V17" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="W17" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
         <v>970</v>
@@ -2755,7 +2755,7 @@
         <v>500</v>
       </c>
       <c r="AA17" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB17" t="n">
         <v>970</v>
@@ -2773,28 +2773,28 @@
         <v>970</v>
       </c>
       <c r="AG17" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AH17" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI17" t="n">
         <v>500</v>
       </c>
       <c r="AJ17" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK17" t="n">
         <v>500</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>970</v>
       </c>
       <c r="AL17" t="n">
         <v>500</v>
       </c>
       <c r="AM17" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AO17" t="n">
         <v>500</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G18" t="n">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2851,34 +2851,34 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>2.2</v>
+        <v>3.15</v>
       </c>
       <c r="O18" t="n">
         <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R18" t="n">
         <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.05</v>
+        <v>1.71</v>
       </c>
       <c r="U18" t="n">
-        <v>1.04</v>
+        <v>2.14</v>
       </c>
       <c r="V18" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="W18" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="X18" t="n">
         <v>970</v>
@@ -2890,10 +2890,10 @@
         <v>500</v>
       </c>
       <c r="AA18" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB18" t="n">
         <v>500</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>970</v>
       </c>
       <c r="AC18" t="n">
         <v>42</v>
@@ -2905,13 +2905,13 @@
         <v>500</v>
       </c>
       <c r="AF18" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AG18" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AH18" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AI18" t="n">
         <v>500</v>
@@ -2920,16 +2920,16 @@
         <v>500</v>
       </c>
       <c r="AK18" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AL18" t="n">
         <v>500</v>
       </c>
       <c r="AM18" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AO18" t="n">
         <v>500</v>
@@ -2968,10 +2968,10 @@
         <v>1.82</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J19" t="n">
         <v>3.75</v>
@@ -3010,13 +3010,13 @@
         <v>2.02</v>
       </c>
       <c r="V19" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W19" t="n">
         <v>2.2</v>
       </c>
       <c r="X19" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
         <v>970</v>
@@ -3040,10 +3040,10 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
         <v>60</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>12.5</v>
+        <v>85</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G20" t="n">
         <v>2.08</v>
@@ -3106,10 +3106,10 @@
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
         <v>3.8</v>
@@ -3133,7 +3133,7 @@
         <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S20" t="n">
         <v>3.5</v>
@@ -3145,7 +3145,7 @@
         <v>2.06</v>
       </c>
       <c r="V20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W20" t="n">
         <v>1.92</v>
@@ -3154,13 +3154,13 @@
         <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB20" t="n">
         <v>9.6</v>
@@ -3181,10 +3181,10 @@
         <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -3196,7 +3196,7 @@
         <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN20" t="n">
         <v>16.5</v>
@@ -3256,7 +3256,7 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="O21" t="n">
         <v>1.01</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G22" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H22" t="n">
         <v>2.64</v>
       </c>
       <c r="I22" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J22" t="n">
         <v>3.7</v>
@@ -3394,25 +3394,25 @@
         <v>4.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P22" t="n">
         <v>2.26</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R22" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S22" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="T22" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U22" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="V22" t="n">
         <v>1.56</v>
@@ -3424,37 +3424,37 @@
         <v>24</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z22" t="n">
         <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC22" t="n">
         <v>9.4</v>
       </c>
       <c r="AD22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG22" t="n">
         <v>13</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>13.5</v>
       </c>
       <c r="AH22" t="n">
         <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ22" t="n">
         <v>42</v>
@@ -3466,13 +3466,13 @@
         <v>36</v>
       </c>
       <c r="AM22" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="G23" t="n">
         <v>1.69</v>
@@ -3511,7 +3511,7 @@
         <v>5.3</v>
       </c>
       <c r="I23" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J23" t="n">
         <v>4.3</v>
@@ -3526,22 +3526,22 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O23" t="n">
         <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R23" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S23" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T23" t="n">
         <v>1.72</v>
@@ -3550,19 +3550,19 @@
         <v>2.22</v>
       </c>
       <c r="V23" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W23" t="n">
         <v>2.44</v>
       </c>
       <c r="X23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y23" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Z23" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA23" t="n">
         <v>160</v>
@@ -3580,7 +3580,7 @@
         <v>70</v>
       </c>
       <c r="AF23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG23" t="n">
         <v>11</v>
@@ -3592,13 +3592,13 @@
         <v>65</v>
       </c>
       <c r="AJ23" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK23" t="n">
         <v>17</v>
       </c>
       <c r="AL23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
         <v>100</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -673,7 +673,7 @@
         <v>2.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I2" t="n">
         <v>3.05</v>
@@ -730,7 +730,7 @@
         <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="n">
         <v>15.5</v>
@@ -742,10 +742,10 @@
         <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AF2" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
@@ -754,19 +754,19 @@
         <v>16</v>
       </c>
       <c r="AI2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AL2" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="AN2" t="n">
         <v>17</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G3" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
         <v>4.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
@@ -832,28 +832,28 @@
         <v>1.31</v>
       </c>
       <c r="P3" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T3" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X3" t="n">
         <v>15.5</v>
@@ -865,7 +865,7 @@
         <v>32</v>
       </c>
       <c r="AA3" t="n">
-        <v>900</v>
+        <v>440</v>
       </c>
       <c r="AB3" t="n">
         <v>9.800000000000001</v>
@@ -883,7 +883,7 @@
         <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
         <v>19</v>
@@ -898,7 +898,7 @@
         <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="n">
         <v>200</v>
@@ -907,7 +907,7 @@
         <v>16.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="H4" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="I4" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q4" t="n">
         <v>2.04</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W4" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="Y4" t="n">
         <v>38</v>
@@ -1000,28 +1000,28 @@
         <v>270</v>
       </c>
       <c r="AA4" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AB4" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>17.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AE4" t="n">
         <v>480</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>9.4</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
         <v>450</v>
@@ -1036,13 +1036,13 @@
         <v>290</v>
       </c>
       <c r="AM4" t="n">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="G5" t="n">
-        <v>44</v>
+        <v>1.56</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="I5" t="n">
-        <v>44</v>
+        <v>9.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>1.09</v>
+        <v>2.44</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.09</v>
+        <v>1.61</v>
       </c>
       <c r="S5" t="n">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="U5" t="n">
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>1.02</v>
+        <v>2.78</v>
       </c>
       <c r="X5" t="n">
         <v>970</v>
@@ -1132,52 +1132,52 @@
         <v>970</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AC5" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
         <v>970</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF5" t="n">
         <v>500</v>
       </c>
       <c r="AG5" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AH5" t="n">
         <v>970</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ5" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AK5" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AL5" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AM5" t="n">
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>500</v>
+        <v>5.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="I6" t="n">
         <v>2.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1240,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
         <v>1.35</v>
@@ -1249,7 +1249,7 @@
         <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U6" t="n">
         <v>2.24</v>
@@ -1258,7 +1258,7 @@
         <v>1.66</v>
       </c>
       <c r="W6" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X6" t="n">
         <v>15.5</v>
@@ -1267,10 +1267,10 @@
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AB6" t="n">
         <v>12.5</v>
@@ -1297,13 +1297,13 @@
         <v>160</v>
       </c>
       <c r="AJ6" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="AK6" t="n">
         <v>90</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
@@ -1312,7 +1312,7 @@
         <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="G7" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="H7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
         <v>4.2</v>
@@ -1375,25 +1375,25 @@
         <v>2.62</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R7" t="n">
         <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T7" t="n">
         <v>1.59</v>
       </c>
       <c r="U7" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="V7" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X7" t="n">
         <v>24</v>
@@ -1444,7 +1444,7 @@
         <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO7" t="n">
         <v>34</v>
@@ -1486,7 +1486,7 @@
         <v>1.27</v>
       </c>
       <c r="I8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="J8" t="n">
         <v>6.6</v>
@@ -1495,7 +1495,7 @@
         <v>7.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1507,7 +1507,7 @@
         <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="Q8" t="n">
         <v>1.53</v>
@@ -1519,10 +1519,10 @@
         <v>2.34</v>
       </c>
       <c r="T8" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U8" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V8" t="n">
         <v>4.4</v>
@@ -1531,55 +1531,55 @@
         <v>1.06</v>
       </c>
       <c r="X8" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
         <v>8.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB8" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AC8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AD8" t="n">
         <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AG8" t="n">
         <v>130</v>
       </c>
       <c r="AH8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI8" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
-        <v>790</v>
+        <v>740</v>
       </c>
       <c r="AK8" t="n">
         <v>290</v>
       </c>
       <c r="AL8" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AM8" t="n">
         <v>430</v>
       </c>
       <c r="AN8" t="n">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="AO8" t="n">
         <v>4.5</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="G9" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
         <v>4.4</v>
@@ -1627,37 +1627,37 @@
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S9" t="n">
         <v>2.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U9" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V9" t="n">
         <v>1.24</v>
@@ -1717,7 +1717,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO9" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1765,7 +1765,7 @@
         <v>3.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -1780,7 +1780,7 @@
         <v>2.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R10" t="n">
         <v>1.39</v>
@@ -1792,7 +1792,7 @@
         <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
         <v>1.22</v>
@@ -1849,7 +1849,7 @@
         <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO10" t="n">
         <v>80</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="G11" t="n">
         <v>3.7</v>
@@ -1900,28 +1900,28 @@
         <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S11" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T11" t="n">
         <v>1.64</v>
@@ -1930,7 +1930,7 @@
         <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W11" t="n">
         <v>1.37</v>
@@ -1939,16 +1939,16 @@
         <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA11" t="n">
         <v>26</v>
       </c>
       <c r="AB11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
         <v>8.6</v>
@@ -1963,10 +1963,10 @@
         <v>27</v>
       </c>
       <c r="AG11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH11" t="n">
         <v>15</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
         <v>28</v>
@@ -1978,16 +1978,16 @@
         <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
         <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO11" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.4</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.41</v>
       </c>
       <c r="H13" t="n">
         <v>9</v>
@@ -2185,7 +2185,7 @@
         <v>2.92</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R13" t="n">
         <v>1.76</v>
@@ -2197,13 +2197,13 @@
         <v>1.79</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V13" t="n">
         <v>1.12</v>
       </c>
       <c r="W13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="X13" t="n">
         <v>32</v>
@@ -2215,7 +2215,7 @@
         <v>80</v>
       </c>
       <c r="AA13" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AB13" t="n">
         <v>12.5</v>
@@ -2251,13 +2251,13 @@
         <v>26</v>
       </c>
       <c r="AM13" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN13" t="n">
         <v>4.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
@@ -2347,7 +2347,7 @@
         <v>970</v>
       </c>
       <c r="Z14" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G15" t="n">
         <v>3.4</v>
@@ -2440,7 +2440,7 @@
         <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2497,7 +2497,7 @@
         <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AF15" t="n">
         <v>48</v>
@@ -2509,7 +2509,7 @@
         <v>16.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AJ15" t="n">
         <v>210</v>
@@ -2518,7 +2518,7 @@
         <v>95</v>
       </c>
       <c r="AL15" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AM15" t="n">
         <v>580</v>
@@ -2527,7 +2527,7 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="16">
@@ -2572,7 +2572,7 @@
         <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.19</v>
@@ -2590,7 +2590,7 @@
         <v>2.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R16" t="n">
         <v>1.77</v>
@@ -2599,10 +2599,10 @@
         <v>2.04</v>
       </c>
       <c r="T16" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U16" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V16" t="n">
         <v>1.09</v>
@@ -2653,13 +2653,13 @@
         <v>14.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G17" t="n">
         <v>1.99</v>
       </c>
       <c r="H17" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
         <v>4.7</v>
@@ -2716,7 +2716,7 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.1</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
         <v>1.21</v>
@@ -2725,7 +2725,7 @@
         <v>2.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="R17" t="n">
         <v>1.49</v>
@@ -2851,16 +2851,16 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>3.15</v>
+        <v>1.1</v>
       </c>
       <c r="O18" t="n">
         <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="R18" t="n">
         <v>1.32</v>
@@ -2980,7 +2980,7 @@
         <v>4.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -3016,10 +3016,10 @@
         <v>2.2</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y19" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3100,16 +3100,16 @@
         <v>1.99</v>
       </c>
       <c r="G20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
         <v>3.8</v>
@@ -3139,16 +3139,16 @@
         <v>3.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U20" t="n">
         <v>2.06</v>
       </c>
       <c r="V20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W20" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X20" t="n">
         <v>15</v>
@@ -3160,7 +3160,7 @@
         <v>32</v>
       </c>
       <c r="AA20" t="n">
-        <v>290</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
         <v>9.6</v>
@@ -3172,7 +3172,7 @@
         <v>18</v>
       </c>
       <c r="AE20" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AF20" t="n">
         <v>13.5</v>
@@ -3235,13 +3235,13 @@
         <v>1.04</v>
       </c>
       <c r="G21" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="H21" t="n">
         <v>1.04</v>
       </c>
       <c r="I21" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J21" t="n">
         <v>1.02</v>
@@ -3256,7 +3256,7 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="O21" t="n">
         <v>1.01</v>
@@ -3274,10 +3274,10 @@
         <v>1.42</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V21" t="n">
         <v>1.01</v>
@@ -3286,10 +3286,10 @@
         <v>1.01</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z21" t="n">
         <v>1000</v>
@@ -3298,13 +3298,13 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
@@ -3313,10 +3313,10 @@
         <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -3379,7 +3379,7 @@
         <v>2.76</v>
       </c>
       <c r="J22" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
         <v>3.9</v>
@@ -3397,10 +3397,10 @@
         <v>1.23</v>
       </c>
       <c r="P22" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R22" t="n">
         <v>1.5</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="G23" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="H23" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I23" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J23" t="n">
         <v>4.3</v>
@@ -3532,13 +3532,13 @@
         <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R23" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="S23" t="n">
         <v>2.64</v>
@@ -3550,10 +3550,10 @@
         <v>2.22</v>
       </c>
       <c r="V23" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W23" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="X23" t="n">
         <v>24</v>
@@ -3562,10 +3562,10 @@
         <v>25</v>
       </c>
       <c r="Z23" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA23" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB23" t="n">
         <v>11.5</v>
@@ -3577,7 +3577,7 @@
         <v>23</v>
       </c>
       <c r="AE23" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF23" t="n">
         <v>12</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="H2" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="I2" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S2" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="T2" t="n">
         <v>1.56</v>
       </c>
       <c r="U2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V2" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="W2" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z2" t="n">
         <v>22</v>
@@ -733,46 +733,46 @@
         <v>120</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="n">
         <v>32</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AK2" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AM2" t="n">
         <v>200</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -808,10 +808,10 @@
         <v>2.16</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
         <v>3.45</v>
@@ -820,28 +820,28 @@
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O3" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R3" t="n">
         <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T3" t="n">
         <v>1.75</v>
@@ -883,13 +883,13 @@
         <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AH3" t="n">
         <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AJ3" t="n">
         <v>26</v>
@@ -901,10 +901,10 @@
         <v>38</v>
       </c>
       <c r="AM3" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AN3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
         <v>55</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="G4" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H4" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J4" t="n">
         <v>3.75</v>
@@ -955,7 +955,7 @@
         <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -970,19 +970,19 @@
         <v>1.79</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R4" t="n">
         <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T4" t="n">
         <v>2.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V4" t="n">
         <v>1.12</v>
@@ -991,13 +991,13 @@
         <v>2.56</v>
       </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
         <v>38</v>
       </c>
       <c r="Z4" t="n">
-        <v>270</v>
+        <v>970</v>
       </c>
       <c r="AA4" t="n">
         <v>310</v>
@@ -1009,7 +1009,7 @@
         <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AE4" t="n">
         <v>480</v>
@@ -1039,7 +1039,7 @@
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
         <v>240</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="G5" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
         <v>5.7</v>
       </c>
       <c r="I5" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.25</v>
@@ -1096,34 +1096,34 @@
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>1.02</v>
+        <v>3.45</v>
       </c>
       <c r="O5" t="n">
         <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R5" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T5" t="n">
         <v>1.64</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V5" t="n">
         <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="X5" t="n">
         <v>970</v>
@@ -1162,10 +1162,10 @@
         <v>190</v>
       </c>
       <c r="AJ5" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AK5" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AL5" t="n">
         <v>970</v>
@@ -1174,10 +1174,10 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G6" t="n">
         <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I6" t="n">
         <v>2.5</v>
@@ -1222,37 +1222,37 @@
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="T6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="V6" t="n">
         <v>1.66</v>
@@ -1261,22 +1261,22 @@
         <v>1.45</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="AA6" t="n">
         <v>130</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
         <v>12</v>
@@ -1285,13 +1285,13 @@
         <v>80</v>
       </c>
       <c r="AF6" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AG6" t="n">
         <v>14</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
         <v>160</v>
@@ -1303,7 +1303,7 @@
         <v>90</v>
       </c>
       <c r="AL6" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
@@ -1312,7 +1312,7 @@
         <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -1342,64 +1342,64 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="G7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K7" t="n">
         <v>4.4</v>
       </c>
-      <c r="I7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L7" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="R7" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="S7" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="T7" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="U7" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="V7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z7" t="n">
         <v>38</v>
@@ -1408,19 +1408,19 @@
         <v>90</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG7" t="n">
         <v>10.5</v>
@@ -1432,22 +1432,22 @@
         <v>44</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL7" t="n">
         <v>24</v>
       </c>
       <c r="AM7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1480,22 +1480,22 @@
         <v>13.5</v>
       </c>
       <c r="G8" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="I8" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="J8" t="n">
         <v>6.6</v>
       </c>
       <c r="K8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1507,22 +1507,22 @@
         <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R8" t="n">
         <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
         <v>2.06</v>
       </c>
       <c r="U8" t="n">
-        <v>1.78</v>
+        <v>1.42</v>
       </c>
       <c r="V8" t="n">
         <v>4.4</v>
@@ -1531,19 +1531,19 @@
         <v>1.06</v>
       </c>
       <c r="X8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA8" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AC8" t="n">
         <v>17</v>
@@ -1555,19 +1555,19 @@
         <v>13.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AG8" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AH8" t="n">
         <v>36</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="n">
-        <v>740</v>
+        <v>690</v>
       </c>
       <c r="AK8" t="n">
         <v>290</v>
@@ -1576,13 +1576,13 @@
         <v>210</v>
       </c>
       <c r="AM8" t="n">
-        <v>430</v>
+        <v>180</v>
       </c>
       <c r="AN8" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AO8" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="9">
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -1642,28 +1642,28 @@
         <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S9" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="T9" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U9" t="n">
         <v>2.36</v>
       </c>
       <c r="V9" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X9" t="n">
         <v>44</v>
@@ -1678,7 +1678,7 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="n">
         <v>10.5</v>
@@ -1693,7 +1693,7 @@
         <v>29</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
         <v>27</v>
@@ -1714,7 +1714,7 @@
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G10" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H10" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.94</v>
+        <v>1.77</v>
       </c>
       <c r="R10" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>2.94</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="V10" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W10" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Z10" t="n">
         <v>40</v>
       </c>
       <c r="AA10" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG10" t="n">
         <v>9.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
         <v>18.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H11" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="I11" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="J11" t="n">
         <v>3.8</v>
@@ -1900,46 +1900,46 @@
         <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="R11" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="T11" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U11" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="V11" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="W11" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
         <v>14.5</v>
@@ -1957,7 +1957,7 @@
         <v>10.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF11" t="n">
         <v>27</v>
@@ -1966,28 +1966,28 @@
         <v>14.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ11" t="n">
         <v>65</v>
       </c>
       <c r="AK11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="12">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="I13" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J13" t="n">
         <v>5.7</v>
@@ -2170,13 +2170,13 @@
         <v>5.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.16</v>
@@ -2185,25 +2185,25 @@
         <v>2.92</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R13" t="n">
         <v>1.76</v>
       </c>
       <c r="S13" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T13" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
         <v>2.24</v>
       </c>
       <c r="V13" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W13" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="X13" t="n">
         <v>32</v>
@@ -2227,13 +2227,13 @@
         <v>32</v>
       </c>
       <c r="AE13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF13" t="n">
         <v>10.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
         <v>22</v>
@@ -2242,7 +2242,7 @@
         <v>85</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
         <v>13</v>
@@ -2251,13 +2251,13 @@
         <v>26</v>
       </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
@@ -2287,58 +2287,58 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="G14" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H14" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="I14" t="n">
         <v>20</v>
       </c>
       <c r="J14" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="K14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>2.48</v>
+        <v>2.78</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="R14" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="S14" t="n">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="T14" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="U14" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V14" t="n">
         <v>1.05</v>
       </c>
       <c r="W14" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="X14" t="n">
         <v>40</v>
@@ -2389,10 +2389,10 @@
         <v>240</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="AO14" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H15" t="n">
         <v>2.24</v>
       </c>
       <c r="I15" t="n">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
@@ -2455,34 +2455,34 @@
         <v>2.16</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
         <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T15" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V15" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="W15" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA15" t="n">
         <v>95</v>
@@ -2497,7 +2497,7 @@
         <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AF15" t="n">
         <v>48</v>
@@ -2524,7 +2524,7 @@
         <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO15" t="n">
         <v>16.5</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="G16" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="H16" t="n">
         <v>10</v>
@@ -2569,97 +2569,97 @@
         <v>12.5</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K16" t="n">
         <v>7.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P16" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R16" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S16" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="T16" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U16" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>1.09</v>
       </c>
       <c r="W16" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="X16" t="n">
         <v>38</v>
       </c>
       <c r="Y16" t="n">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="Z16" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
         <v>16.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG16" t="n">
         <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI16" t="n">
         <v>470</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK16" t="n">
         <v>14.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,58 +2692,58 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="G17" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I17" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J17" t="n">
         <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="R17" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S17" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="T17" t="n">
-        <v>1.05</v>
+        <v>1.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.98</v>
+        <v>2.26</v>
       </c>
       <c r="V17" t="n">
         <v>1.27</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X17" t="n">
         <v>970</v>
@@ -2827,46 +2827,46 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="G18" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H18" t="n">
         <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="J18" t="n">
         <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="R18" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="S18" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="T18" t="n">
         <v>1.71</v>
@@ -2875,7 +2875,7 @@
         <v>2.14</v>
       </c>
       <c r="V18" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W18" t="n">
         <v>2.08</v>
@@ -2911,7 +2911,7 @@
         <v>500</v>
       </c>
       <c r="AH18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI18" t="n">
         <v>500</v>
@@ -2962,64 +2962,64 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="G19" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I19" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="R19" t="n">
         <v>1.39</v>
       </c>
       <c r="S19" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U19" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V19" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="W19" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X19" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y19" t="n">
         <v>970</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>44</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3031,7 +3031,7 @@
         <v>20</v>
       </c>
       <c r="AC19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD19" t="n">
         <v>1000</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,43 +3097,43 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="H20" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
         <v>3.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.16</v>
+        <v>1.41</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P20" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="Q20" t="n">
         <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="S20" t="n">
         <v>3.5</v>
@@ -3142,43 +3142,43 @@
         <v>1.81</v>
       </c>
       <c r="U20" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V20" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="W20" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="X20" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB20" t="n">
         <v>9.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AF20" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
         <v>19.5</v>
@@ -3187,22 +3187,22 @@
         <v>65</v>
       </c>
       <c r="AJ20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
@@ -3265,13 +3265,13 @@
         <v>1.08</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="R21" t="n">
         <v>1.08</v>
       </c>
       <c r="S21" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="T21" t="n">
         <v>1.04</v>
@@ -3373,55 +3373,55 @@
         <v>2.78</v>
       </c>
       <c r="H22" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I22" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K22" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L22" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P22" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="R22" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S22" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="T22" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U22" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V22" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W22" t="n">
         <v>1.56</v>
       </c>
       <c r="X22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y22" t="n">
         <v>15</v>
@@ -3472,7 +3472,7 @@
         <v>19</v>
       </c>
       <c r="AO22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G23" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H23" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I23" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J23" t="n">
         <v>4.3</v>
@@ -3520,43 +3520,43 @@
         <v>4.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R23" t="n">
         <v>1.52</v>
       </c>
       <c r="S23" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="T23" t="n">
         <v>1.72</v>
       </c>
       <c r="U23" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="V23" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W23" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="X23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y23" t="n">
         <v>25</v>
@@ -3604,7 +3604,7 @@
         <v>100</v>
       </c>
       <c r="AN23" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AO23" t="n">
         <v>65</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,16 +673,16 @@
         <v>2.74</v>
       </c>
       <c r="H2" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
@@ -703,25 +703,25 @@
         <v>1.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T2" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U2" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="V2" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W2" t="n">
         <v>1.58</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
         <v>16</v>
@@ -730,55 +730,55 @@
         <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="n">
         <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
         <v>14</v>
       </c>
       <c r="AI2" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AL2" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="AN2" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:35:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Zulfi SC</t>
+          <t>Diosgyori</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>2.16</v>
+        <v>110</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.45</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>1.92</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.92</v>
+        <v>1.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>3.3</v>
+        <v>1.15</v>
       </c>
       <c r="T3" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>09:35:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Al-Zulfi SC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.58</v>
+        <v>1.98</v>
       </c>
       <c r="G4" t="n">
-        <v>1.64</v>
+        <v>2.12</v>
       </c>
       <c r="H4" t="n">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>9.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="O4" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.29</v>
       </c>
-      <c r="S4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.12</v>
-      </c>
       <c r="W4" t="n">
-        <v>2.56</v>
+        <v>1.89</v>
       </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>38</v>
+        <v>16.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="n">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL4" t="n">
         <v>36</v>
       </c>
-      <c r="AE4" t="n">
-        <v>480</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>450</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>290</v>
-      </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="AN4" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>240</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HNK Gorica</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NK Radomlje</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="G5" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="H5" t="n">
-        <v>5.7</v>
+        <v>7.6</v>
       </c>
       <c r="I5" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.15</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>2.46</v>
+        <v>1.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.41</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
-        <v>1.63</v>
+        <v>1.3</v>
       </c>
       <c r="S5" t="n">
-        <v>2.02</v>
+        <v>3.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.64</v>
+        <v>2.08</v>
       </c>
       <c r="U5" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="V5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W5" t="n">
-        <v>2.74</v>
+        <v>2.56</v>
       </c>
       <c r="X5" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AB5" t="n">
-        <v>500</v>
+        <v>7</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AE5" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="AF5" t="n">
-        <v>500</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AI5" t="n">
-        <v>190</v>
+        <v>450</v>
       </c>
       <c r="AJ5" t="n">
-        <v>500</v>
+        <v>28</v>
       </c>
       <c r="AK5" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="n">
-        <v>970</v>
+        <v>140</v>
       </c>
       <c r="AM5" t="n">
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.6</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:25:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>HNK Gorica</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>NK Radomlje</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.94</v>
+        <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>1.57</v>
       </c>
       <c r="H6" t="n">
-        <v>2.42</v>
+        <v>5.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5</v>
+        <v>8.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>6.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>1.9</v>
+        <v>2.46</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.04</v>
+        <v>1.41</v>
       </c>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="S6" t="n">
-        <v>3.75</v>
+        <v>2.02</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="U6" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.66</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>1.45</v>
+        <v>2.74</v>
       </c>
       <c r="X6" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="AA6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AE6" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AF6" t="n">
-        <v>44</v>
+        <v>500</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AI6" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AJ6" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AK6" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AL6" t="n">
-        <v>160</v>
+        <v>970</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>980</v>
+        <v>5.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:25:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.81</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.78</v>
-      </c>
       <c r="Q7" t="n">
-        <v>1.55</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
-        <v>2.34</v>
+        <v>3.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.57</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
-        <v>2.66</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.27</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>2.2</v>
+        <v>1.43</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>26</v>
+        <v>9.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AB7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG7" t="n">
         <v>14</v>
       </c>
-      <c r="AC7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH7" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI7" t="n">
         <v>44</v>
       </c>
       <c r="AJ7" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>13.5</v>
+        <v>1.81</v>
       </c>
       <c r="G8" t="n">
-        <v>19.5</v>
+        <v>1.82</v>
       </c>
       <c r="H8" t="n">
-        <v>1.24</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.28</v>
+        <v>4.7</v>
       </c>
       <c r="J8" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="K8" t="n">
-        <v>7.6</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>2.58</v>
+        <v>2.84</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="S8" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="T8" t="n">
-        <v>2.06</v>
+        <v>1.55</v>
       </c>
       <c r="U8" t="n">
-        <v>1.42</v>
+        <v>2.72</v>
       </c>
       <c r="V8" t="n">
-        <v>4.4</v>
+        <v>1.27</v>
       </c>
       <c r="W8" t="n">
-        <v>1.06</v>
+        <v>2.22</v>
       </c>
       <c r="X8" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.199999999999999</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="AB8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM8" t="n">
         <v>55</v>
       </c>
-      <c r="AC8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>690</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>290</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>210</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>180</v>
-      </c>
       <c r="AN8" t="n">
-        <v>270</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>5.4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.77</v>
+        <v>13.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.84</v>
+        <v>16.5</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="I9" t="n">
-        <v>5.1</v>
+        <v>1.28</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="K9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V9" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="X9" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>630</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>290</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>520</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AO9" t="n">
         <v>4.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="X9" t="n">
-        <v>44</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FC Heidenheim</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="G10" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
         <v>5.1</v>
       </c>
-      <c r="I10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.6</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="S10" t="n">
-        <v>2.94</v>
+        <v>2.56</v>
       </c>
       <c r="T10" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="V10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="X10" t="n">
-        <v>17.5</v>
+        <v>44</v>
       </c>
       <c r="Y10" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
         <v>20</v>
       </c>
-      <c r="Z10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>10</v>
-      </c>
       <c r="AC10" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AE10" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AF10" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>16.5</v>
+        <v>27</v>
       </c>
       <c r="AI10" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AJ10" t="n">
-        <v>18.5</v>
+        <v>70</v>
       </c>
       <c r="AK10" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.7</v>
+        <v>1.82</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75</v>
+        <v>1.83</v>
       </c>
       <c r="H11" t="n">
-        <v>2.12</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.14</v>
+        <v>5.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S11" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="U11" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>1.87</v>
+        <v>1.24</v>
       </c>
       <c r="W11" t="n">
-        <v>1.36</v>
+        <v>2.2</v>
       </c>
       <c r="X11" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF11" t="n">
         <v>12</v>
       </c>
-      <c r="Z11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>27</v>
-      </c>
       <c r="AG11" t="n">
-        <v>14.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
-        <v>38</v>
+        <v>17.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AN11" t="n">
-        <v>32</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO11" t="n">
-        <v>12.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Finn Harps</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.04</v>
+        <v>3.75</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="H12" t="n">
-        <v>1.05</v>
+        <v>2.12</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>2.14</v>
       </c>
       <c r="J12" t="n">
-        <v>1.05</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>1.09</v>
+        <v>2.14</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.22</v>
+        <v>1.84</v>
       </c>
       <c r="R12" t="n">
-        <v>1.08</v>
+        <v>1.46</v>
       </c>
       <c r="S12" t="n">
-        <v>1.22</v>
+        <v>3.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="V12" t="n">
-        <v>1.02</v>
+        <v>1.88</v>
       </c>
       <c r="W12" t="n">
-        <v>1.02</v>
+        <v>1.36</v>
       </c>
       <c r="X12" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AA12" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AB12" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AC12" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG12" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.41</v>
+        <v>4.4</v>
       </c>
       <c r="G13" t="n">
-        <v>1.42</v>
+        <v>32</v>
       </c>
       <c r="H13" t="n">
-        <v>8.4</v>
+        <v>1.31</v>
       </c>
       <c r="I13" t="n">
-        <v>8.6</v>
+        <v>1.51</v>
       </c>
       <c r="J13" t="n">
-        <v>5.7</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
-        <v>5.8</v>
+        <v>11</v>
       </c>
       <c r="L13" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>6.8</v>
+        <v>2.88</v>
       </c>
       <c r="O13" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.92</v>
+        <v>1.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.76</v>
+        <v>1.39</v>
       </c>
       <c r="S13" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="T13" t="n">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="V13" t="n">
-        <v>1.13</v>
+        <v>2.6</v>
       </c>
       <c r="W13" t="n">
-        <v>3.35</v>
+        <v>1.09</v>
       </c>
       <c r="X13" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>80</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA13" t="n">
-        <v>250</v>
+        <v>13.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
         <v>13</v>
       </c>
       <c r="AD13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AH13" t="n">
         <v>32</v>
       </c>
-      <c r="AE13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>22</v>
-      </c>
       <c r="AI13" t="n">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="AM13" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.6</v>
+        <v>210</v>
       </c>
       <c r="AO13" t="n">
-        <v>90</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Barry Town Utd</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="G14" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="H14" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="I14" t="n">
-        <v>20</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
         <v>6.6</v>
       </c>
-      <c r="K14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6.2</v>
-      </c>
       <c r="O14" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="S14" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="T14" t="n">
-        <v>2.14</v>
+        <v>1.75</v>
       </c>
       <c r="U14" t="n">
-        <v>1.72</v>
+        <v>2.24</v>
       </c>
       <c r="V14" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="W14" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="X14" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y14" t="n">
         <v>40</v>
       </c>
-      <c r="Y14" t="n">
-        <v>970</v>
-      </c>
       <c r="Z14" t="n">
-        <v>210</v>
+        <v>85</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AB14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC14" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC14" t="n">
-        <v>22</v>
-      </c>
       <c r="AD14" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AE14" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="n">
         <v>10.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AL14" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>460</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.05</v>
+        <v>1.18</v>
       </c>
       <c r="G15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>32</v>
+      </c>
+      <c r="J15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>540</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN15" t="n">
         <v>3.35</v>
       </c>
-      <c r="H15" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>210</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>160</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>29</v>
-      </c>
       <c r="AO15" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.27</v>
+        <v>3.05</v>
       </c>
       <c r="G16" t="n">
-        <v>1.29</v>
+        <v>3.35</v>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>2.24</v>
       </c>
       <c r="I16" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y16" t="n">
         <v>12.5</v>
       </c>
-      <c r="J16" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="X16" t="n">
-        <v>38</v>
-      </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF16" t="n">
         <v>48</v>
       </c>
-      <c r="Z16" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC16" t="n">
+      <c r="AG16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH16" t="n">
         <v>16.5</v>
       </c>
-      <c r="AD16" t="n">
-        <v>120</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH16" t="n">
+      <c r="AI16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>210</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN16" t="n">
         <v>29</v>
       </c>
-      <c r="AI16" t="n">
-        <v>470</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.9</v>
-      </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.85</v>
+        <v>1.26</v>
       </c>
       <c r="G17" t="n">
-        <v>1.95</v>
+        <v>1.29</v>
       </c>
       <c r="H17" t="n">
-        <v>3.95</v>
+        <v>11.5</v>
       </c>
       <c r="I17" t="n">
-        <v>4.6</v>
+        <v>14.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>4.7</v>
+        <v>6.8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="P17" t="n">
-        <v>2.28</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="R17" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="S17" t="n">
-        <v>2.68</v>
+        <v>2.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.63</v>
+        <v>1.89</v>
       </c>
       <c r="U17" t="n">
-        <v>2.26</v>
+        <v>1.98</v>
       </c>
       <c r="V17" t="n">
-        <v>1.27</v>
+        <v>1.07</v>
       </c>
       <c r="W17" t="n">
-        <v>2.04</v>
+        <v>4.3</v>
       </c>
       <c r="X17" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="Z17" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="AA17" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AC17" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AD17" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AE17" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>500</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AI17" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>900</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>500</v>
+        <v>14.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>60</v>
+        <v>3.7</v>
       </c>
       <c r="AO17" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="G18" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
         <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="O18" t="n">
         <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="R18" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="S18" t="n">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="T18" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="U18" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W18" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X18" t="n">
         <v>970</v>
       </c>
       <c r="Y18" t="n">
+        <v>110</v>
+      </c>
+      <c r="Z18" t="n">
         <v>970</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>500</v>
       </c>
       <c r="AA18" t="n">
         <v>900</v>
       </c>
       <c r="AB18" t="n">
-        <v>500</v>
+        <v>36</v>
       </c>
       <c r="AC18" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE18" t="n">
         <v>970</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>500</v>
       </c>
       <c r="AF18" t="n">
         <v>500</v>
       </c>
       <c r="AG18" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AJ18" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AK18" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AL18" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO18" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="G19" t="n">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="H19" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="J19" t="n">
         <v>3.8</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.28</v>
       </c>
-      <c r="P19" t="n">
+      <c r="W19" t="n">
         <v>2.02</v>
       </c>
-      <c r="Q19" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2.22</v>
-      </c>
       <c r="X19" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="Y19" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB19" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>13.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ19" t="n">
-        <v>900</v>
+        <v>22</v>
       </c>
       <c r="AK19" t="n">
-        <v>65</v>
+        <v>19.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>28</v>
+        <v>11.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.96</v>
+        <v>1.76</v>
       </c>
       <c r="G20" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="I20" t="n">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="L20" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="P20" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="R20" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="S20" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="U20" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="V20" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="W20" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="X20" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AD20" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH20" t="n">
         <v>60</v>
       </c>
-      <c r="AF20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK20" t="n">
         <v>65</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>22</v>
-      </c>
       <c r="AL20" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="AO20" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="G21" t="n">
-        <v>610</v>
+        <v>1.99</v>
       </c>
       <c r="H21" t="n">
-        <v>1.04</v>
+        <v>4.3</v>
       </c>
       <c r="I21" t="n">
-        <v>870</v>
+        <v>4.6</v>
       </c>
       <c r="J21" t="n">
-        <v>1.02</v>
+        <v>3.65</v>
       </c>
       <c r="K21" t="n">
-        <v>950</v>
+        <v>3.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>1.1</v>
+        <v>3.95</v>
       </c>
       <c r="O21" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P21" t="n">
-        <v>1.08</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="R21" t="n">
-        <v>1.08</v>
+        <v>1.38</v>
       </c>
       <c r="S21" t="n">
-        <v>1.41</v>
+        <v>3.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="U21" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V21" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="W21" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB21" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,126 +3353,126 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.7</v>
+        <v>1.04</v>
       </c>
       <c r="G22" t="n">
-        <v>2.78</v>
+        <v>610</v>
       </c>
       <c r="H22" t="n">
-        <v>2.66</v>
+        <v>1.04</v>
       </c>
       <c r="I22" t="n">
-        <v>2.74</v>
+        <v>870</v>
       </c>
       <c r="J22" t="n">
-        <v>3.7</v>
+        <v>1.02</v>
       </c>
       <c r="K22" t="n">
-        <v>3.85</v>
+        <v>950</v>
       </c>
       <c r="L22" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>2.26</v>
+        <v>1.08</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.74</v>
+        <v>1.02</v>
       </c>
       <c r="R22" t="n">
-        <v>1.49</v>
+        <v>1.08</v>
       </c>
       <c r="S22" t="n">
-        <v>2.86</v>
+        <v>1.41</v>
       </c>
       <c r="T22" t="n">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="U22" t="n">
-        <v>2.44</v>
+        <v>1.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="W22" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Y22" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AD22" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE22" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AI22" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3488,126 +3488,261 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22:06:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Leon</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.68</v>
+        <v>2.68</v>
       </c>
       <c r="G23" t="n">
-        <v>1.72</v>
+        <v>2.78</v>
       </c>
       <c r="H23" t="n">
-        <v>5.2</v>
+        <v>2.72</v>
       </c>
       <c r="I23" t="n">
-        <v>5.5</v>
+        <v>2.74</v>
       </c>
       <c r="J23" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="K23" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="T23" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="U23" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="V23" t="n">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="W23" t="n">
-        <v>2.38</v>
+        <v>1.56</v>
       </c>
       <c r="X23" t="n">
         <v>23</v>
       </c>
       <c r="Y23" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Z23" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="AA23" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="AB23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>22:06:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Pachuca</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Leon</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="X24" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF24" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE23" t="n">
+      <c r="AG24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI24" t="n">
         <v>65</v>
       </c>
-      <c r="AF23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ23" t="n">
+      <c r="AJ24" t="n">
         <v>17.5</v>
       </c>
-      <c r="AK23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>65</v>
+      <c r="AK24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="G2" t="n">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P2" t="n">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="T2" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="U2" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="V2" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="W2" t="n">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Y2" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
         <v>14</v>
       </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK2" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AM2" t="n">
-        <v>360</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.32</v>
       </c>
       <c r="G3" t="n">
-        <v>110</v>
+        <v>1.36</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>9.4</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.15</v>
+        <v>1.41</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.87</v>
       </c>
       <c r="S3" t="n">
-        <v>1.15</v>
+        <v>2.02</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -943,13 +943,13 @@
         <v>2.12</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I4" t="n">
         <v>4.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
         <v>3.8</v>
@@ -958,31 +958,31 @@
         <v>1.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
         <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
         <v>1.37</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V4" t="n">
         <v>1.29</v>
@@ -991,10 +991,10 @@
         <v>1.89</v>
       </c>
       <c r="X4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="n">
         <v>32</v>
@@ -1015,7 +1015,7 @@
         <v>50</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
         <v>9</v>
@@ -1027,7 +1027,7 @@
         <v>100</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
         <v>22</v>
@@ -1075,109 +1075,109 @@
         <v>1.59</v>
       </c>
       <c r="G5" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="H5" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="I5" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="S5" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="V5" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="X5" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AA5" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AE5" t="n">
         <v>480</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AG5" t="n">
         <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="n">
         <v>450</v>
       </c>
       <c r="AJ5" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AK5" t="n">
-        <v>38</v>
+        <v>18.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AM5" t="n">
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="G6" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I6" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="J6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>3.45</v>
+        <v>5.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>2.02</v>
+        <v>2.34</v>
       </c>
       <c r="T6" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="U6" t="n">
         <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W6" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="X6" t="n">
         <v>970</v>
@@ -1270,10 +1270,10 @@
         <v>170</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB6" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
         <v>42</v>
@@ -1285,10 +1285,10 @@
         <v>200</v>
       </c>
       <c r="AF6" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG6" t="n">
         <v>500</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>23</v>
       </c>
       <c r="AH6" t="n">
         <v>970</v>
@@ -1297,10 +1297,10 @@
         <v>190</v>
       </c>
       <c r="AJ6" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AK6" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AL6" t="n">
         <v>970</v>
@@ -1309,7 +1309,7 @@
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="AO6" t="n">
         <v>90</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I7" t="n">
         <v>2.48</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>1.46</v>
@@ -1366,16 +1366,16 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
         <v>1.3</v>
@@ -1384,7 +1384,7 @@
         <v>3.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="n">
         <v>2.02</v>
@@ -1396,10 +1396,10 @@
         <v>1.43</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z7" t="n">
         <v>15</v>
@@ -1414,10 +1414,10 @@
         <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF7" t="n">
         <v>22</v>
@@ -1426,16 +1426,16 @@
         <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ7" t="n">
         <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AL7" t="n">
         <v>55</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.81</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.82</v>
       </c>
       <c r="H8" t="n">
         <v>4.6</v>
@@ -1495,13 +1495,13 @@
         <v>4.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.17</v>
@@ -1513,25 +1513,25 @@
         <v>1.52</v>
       </c>
       <c r="R8" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="S8" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U8" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="V8" t="n">
         <v>1.27</v>
       </c>
       <c r="W8" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y8" t="n">
         <v>26</v>
@@ -1543,19 +1543,19 @@
         <v>90</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="n">
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
         <v>44</v>
       </c>
       <c r="AF8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="n">
         <v>10.5</v>
@@ -1567,19 +1567,19 @@
         <v>42</v>
       </c>
       <c r="AJ8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM8" t="n">
         <v>55</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO8" t="n">
         <v>32</v>
@@ -1618,16 +1618,16 @@
         <v>16.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="I9" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="J9" t="n">
         <v>6.6</v>
       </c>
       <c r="K9" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.29</v>
@@ -1639,85 +1639,85 @@
         <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S9" t="n">
         <v>2.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="U9" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="W9" t="n">
         <v>1.07</v>
       </c>
       <c r="X9" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.4</v>
+        <v>15.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>9.800000000000001</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
         <v>55</v>
       </c>
       <c r="AC9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD9" t="n">
         <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AH9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
         <v>38</v>
       </c>
       <c r="AJ9" t="n">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="AK9" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="AL9" t="n">
         <v>520</v>
       </c>
       <c r="AM9" t="n">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="AN9" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I10" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.32</v>
@@ -1774,7 +1774,7 @@
         <v>5.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
         <v>2.44</v>
@@ -1795,64 +1795,64 @@
         <v>2.36</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W10" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="X10" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="Y10" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
         <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AE10" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="AG10" t="n">
         <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
@@ -1888,16 +1888,16 @@
         <v>1.83</v>
       </c>
       <c r="H11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I11" t="n">
         <v>5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5.1</v>
       </c>
       <c r="J11" t="n">
         <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>1.37</v>
@@ -1906,40 +1906,40 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q11" t="n">
         <v>1.79</v>
       </c>
       <c r="R11" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S11" t="n">
         <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
         <v>2.2</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z11" t="n">
         <v>40</v>
@@ -1948,13 +1948,13 @@
         <v>110</v>
       </c>
       <c r="AB11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
         <v>60</v>
@@ -2035,34 +2035,34 @@
         <v>3.85</v>
       </c>
       <c r="L12" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="S12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="U12" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
         <v>1.88</v>
@@ -2071,28 +2071,28 @@
         <v>1.36</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
         <v>14</v>
       </c>
       <c r="AA12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB12" t="n">
         <v>16</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
         <v>10.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF12" t="n">
         <v>27</v>
@@ -2101,7 +2101,7 @@
         <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
         <v>32</v>
@@ -2110,19 +2110,19 @@
         <v>70</v>
       </c>
       <c r="AK12" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -2152,94 +2152,94 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="G13" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="I13" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>4.6</v>
       </c>
       <c r="K13" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>2.88</v>
+        <v>4.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>1.58</v>
+        <v>2.26</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.4</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="S13" t="n">
-        <v>2.06</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
-        <v>1.64</v>
+        <v>1.04</v>
       </c>
       <c r="U13" t="n">
         <v>1.04</v>
       </c>
       <c r="V13" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="W13" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.800000000000001</v>
+        <v>40</v>
       </c>
       <c r="AA13" t="n">
-        <v>13.5</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AE13" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AF13" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="AG13" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AH13" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
@@ -2248,16 +2248,16 @@
         <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2299,10 +2299,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J14" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K14" t="n">
         <v>5.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5.9</v>
       </c>
       <c r="L14" t="n">
         <v>1.26</v>
@@ -2317,7 +2317,7 @@
         <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="Q14" t="n">
         <v>1.5</v>
@@ -2332,16 +2332,16 @@
         <v>1.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="V14" t="n">
         <v>1.12</v>
       </c>
       <c r="W14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="X14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="n">
         <v>40</v>
@@ -2356,19 +2356,19 @@
         <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE14" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF14" t="n">
         <v>10.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
         <v>22</v>
@@ -2377,7 +2377,7 @@
         <v>85</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK14" t="n">
         <v>13</v>
@@ -2392,7 +2392,7 @@
         <v>4.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -2422,85 +2422,85 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="G15" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="H15" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="I15" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J15" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="K15" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="Q15" t="n">
         <v>1.46</v>
       </c>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="S15" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T15" t="n">
-        <v>2.28</v>
+        <v>1.99</v>
       </c>
       <c r="U15" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="W15" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="X15" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="Y15" t="n">
         <v>970</v>
       </c>
       <c r="Z15" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AE15" t="n">
-        <v>540</v>
+        <v>250</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG15" t="n">
         <v>14</v>
@@ -2509,25 +2509,25 @@
         <v>970</v>
       </c>
       <c r="AI15" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AM15" t="n">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16">
@@ -2557,25 +2557,25 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H16" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I16" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
         <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2590,28 +2590,28 @@
         <v>2.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S16" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="T16" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U16" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="V16" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="W16" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X16" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
         <v>12.5</v>
@@ -2623,7 +2623,7 @@
         <v>95</v>
       </c>
       <c r="AB16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC16" t="n">
         <v>9</v>
@@ -2659,10 +2659,10 @@
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>29</v>
+        <v>600</v>
       </c>
       <c r="AO16" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.26</v>
       </c>
-      <c r="G17" t="n">
-        <v>1.29</v>
-      </c>
       <c r="H17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I17" t="n">
         <v>14.5</v>
       </c>
       <c r="J17" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="K17" t="n">
         <v>8</v>
@@ -2731,7 +2731,7 @@
         <v>1.83</v>
       </c>
       <c r="S17" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T17" t="n">
         <v>1.89</v>
@@ -2743,7 +2743,7 @@
         <v>1.07</v>
       </c>
       <c r="W17" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="X17" t="n">
         <v>38</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="G18" t="n">
         <v>1.9</v>
@@ -2836,13 +2836,13 @@
         <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="K18" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.34</v>
@@ -2851,40 +2851,40 @@
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q18" t="n">
         <v>1.71</v>
       </c>
       <c r="R18" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S18" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="T18" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U18" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="V18" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="W18" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="X18" t="n">
         <v>970</v>
       </c>
       <c r="Y18" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="Z18" t="n">
         <v>970</v>
@@ -2893,34 +2893,34 @@
         <v>900</v>
       </c>
       <c r="AB18" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AC18" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD18" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AE18" t="n">
         <v>970</v>
       </c>
       <c r="AF18" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH18" t="n">
         <v>500</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>48</v>
       </c>
       <c r="AI18" t="n">
         <v>970</v>
       </c>
       <c r="AJ18" t="n">
-        <v>170</v>
+        <v>900</v>
       </c>
       <c r="AK18" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="AL18" t="n">
         <v>970</v>
@@ -2929,7 +2929,7 @@
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AO18" t="n">
         <v>970</v>
@@ -2965,16 +2965,16 @@
         <v>1.88</v>
       </c>
       <c r="G19" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
         <v>4.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
         <v>4.1</v>
@@ -2995,13 +2995,13 @@
         <v>2.14</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R19" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S19" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="T19" t="n">
         <v>1.69</v>
@@ -3013,16 +3013,16 @@
         <v>1.28</v>
       </c>
       <c r="W19" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X19" t="n">
         <v>22</v>
       </c>
       <c r="Y19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="n">
         <v>900</v>
@@ -3034,7 +3034,7 @@
         <v>9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>55</v>
@@ -3055,16 +3055,16 @@
         <v>22</v>
       </c>
       <c r="AK19" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
         <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
         <v>290</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G20" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H20" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I20" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.4</v>
@@ -3121,7 +3121,7 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.27</v>
@@ -3130,7 +3130,7 @@
         <v>2.06</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R20" t="n">
         <v>1.42</v>
@@ -3151,7 +3151,7 @@
         <v>2.16</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y20" t="n">
         <v>1000</v>
@@ -3163,7 +3163,7 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AC20" t="n">
         <v>14</v>
@@ -3181,7 +3181,7 @@
         <v>16</v>
       </c>
       <c r="AH20" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
@@ -3190,7 +3190,7 @@
         <v>50</v>
       </c>
       <c r="AK20" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="n">
         <v>1000</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>28</v>
+        <v>10.5</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="G21" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="H21" t="n">
         <v>4.3</v>
       </c>
       <c r="I21" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L21" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
@@ -3265,16 +3265,16 @@
         <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R21" t="n">
         <v>1.38</v>
       </c>
       <c r="S21" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T21" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U21" t="n">
         <v>2.12</v>
@@ -3283,16 +3283,16 @@
         <v>1.28</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z21" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA21" t="n">
         <v>500</v>
@@ -3301,19 +3301,19 @@
         <v>9.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>60</v>
       </c>
       <c r="AF21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
         <v>19.5</v>
@@ -3322,7 +3322,7 @@
         <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK21" t="n">
         <v>22</v>
@@ -3334,7 +3334,7 @@
         <v>200</v>
       </c>
       <c r="AN21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO21" t="n">
         <v>65</v>
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="G22" t="n">
-        <v>610</v>
+        <v>2.12</v>
       </c>
       <c r="H22" t="n">
-        <v>1.04</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>870</v>
+        <v>5.4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.02</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
-        <v>950</v>
+        <v>3.75</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>1.1</v>
+        <v>3.05</v>
       </c>
       <c r="O22" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>1.08</v>
+        <v>1.68</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.02</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="S22" t="n">
-        <v>1.41</v>
+        <v>4.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="U22" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W22" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="X22" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB22" t="n">
-        <v>970</v>
+        <v>8</v>
       </c>
       <c r="AC22" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
@@ -3508,10 +3508,10 @@
         <v>2.78</v>
       </c>
       <c r="H23" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="I23" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J23" t="n">
         <v>3.7</v>
@@ -3520,7 +3520,7 @@
         <v>3.85</v>
       </c>
       <c r="L23" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -3544,7 +3544,7 @@
         <v>2.88</v>
       </c>
       <c r="T23" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U23" t="n">
         <v>2.44</v>
@@ -3556,58 +3556,58 @@
         <v>1.56</v>
       </c>
       <c r="X23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z23" t="n">
         <v>21</v>
       </c>
       <c r="AA23" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB23" t="n">
         <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AJ23" t="n">
         <v>42</v>
       </c>
       <c r="AK23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL23" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM23" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN23" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AO23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -3643,10 +3643,10 @@
         <v>1.74</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I24" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J24" t="n">
         <v>4.3</v>
@@ -3655,22 +3655,22 @@
         <v>4.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
         <v>5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P24" t="n">
         <v>2.32</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R24" t="n">
         <v>1.52</v>
@@ -3679,7 +3679,7 @@
         <v>2.78</v>
       </c>
       <c r="T24" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U24" t="n">
         <v>2.2</v>
@@ -3736,7 +3736,7 @@
         <v>30</v>
       </c>
       <c r="AM24" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN24" t="n">
         <v>8.4</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.26</v>
+        <v>1.34</v>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>1.36</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>19</v>
       </c>
       <c r="I2" t="n">
-        <v>3.15</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>2.32</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.7</v>
       </c>
       <c r="P2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="S2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
         <v>2.56</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="X2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>5.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="AF2" t="n">
-        <v>19.5</v>
+        <v>5.7</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>14</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AL2" t="n">
-        <v>30</v>
+        <v>450</v>
       </c>
       <c r="AM2" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,94 +802,94 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="G3" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="H3" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="I3" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>7.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="R3" t="n">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>2.02</v>
+        <v>1.77</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="U3" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="V3" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="W3" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="X3" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="n">
         <v>980</v>
       </c>
-      <c r="Y3" t="n">
-        <v>150</v>
-      </c>
       <c r="Z3" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>470</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI3" t="n">
         <v>100</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>340</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>85</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>290</v>
       </c>
       <c r="AJ3" t="n">
         <v>12.5</v>
@@ -898,16 +898,16 @@
         <v>14</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.85</v>
+        <v>2.92</v>
       </c>
       <c r="AO3" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4">
@@ -937,97 +937,97 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="G4" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="H4" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
         <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
         <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U4" t="n">
         <v>2.12</v>
       </c>
       <c r="V4" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
-        <v>440</v>
+        <v>140</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC4" t="n">
         <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
         <v>22</v>
@@ -1036,13 +1036,13 @@
         <v>36</v>
       </c>
       <c r="AM4" t="n">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G5" t="n">
         <v>1.66</v>
@@ -1081,7 +1081,7 @@
         <v>7.2</v>
       </c>
       <c r="I5" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="J5" t="n">
         <v>3.85</v>
@@ -1102,22 +1102,22 @@
         <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q5" t="n">
         <v>2.06</v>
       </c>
       <c r="R5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
         <v>3.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U5" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V5" t="n">
         <v>1.15</v>
@@ -1126,22 +1126,22 @@
         <v>2.52</v>
       </c>
       <c r="X5" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Z5" t="n">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="AA5" t="n">
         <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
         <v>48</v>
@@ -1150,10 +1150,10 @@
         <v>480</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH5" t="n">
         <v>44</v>
@@ -1162,7 +1162,7 @@
         <v>450</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK5" t="n">
         <v>18.5</v>
@@ -1174,7 +1174,7 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
         <v>600</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.49</v>
+        <v>1.68</v>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="H6" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>7.6</v>
+        <v>5.6</v>
       </c>
       <c r="J6" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
         <v>1.28</v>
@@ -1231,34 +1231,34 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="Q6" t="n">
         <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="S6" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T6" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="V6" t="n">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="W6" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="X6" t="n">
         <v>970</v>
@@ -1270,7 +1270,7 @@
         <v>170</v>
       </c>
       <c r="AA6" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="AB6" t="n">
         <v>970</v>
@@ -1279,7 +1279,7 @@
         <v>42</v>
       </c>
       <c r="AD6" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AE6" t="n">
         <v>200</v>
@@ -1288,10 +1288,10 @@
         <v>970</v>
       </c>
       <c r="AG6" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>190</v>
@@ -1300,19 +1300,19 @@
         <v>970</v>
       </c>
       <c r="AK6" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AL6" t="n">
         <v>970</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.6</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>90</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -1342,73 +1342,73 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G7" t="n">
         <v>3.1</v>
       </c>
-      <c r="G7" t="n">
-        <v>3.3</v>
-      </c>
       <c r="H7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="T7" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="W7" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
         <v>7.8</v>
@@ -1420,34 +1420,34 @@
         <v>28</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
         <v>46</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>55</v>
-      </c>
       <c r="AM7" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AN7" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.8</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.81</v>
       </c>
       <c r="H8" t="n">
         <v>4.6</v>
@@ -1495,34 +1495,34 @@
         <v>4.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="S8" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="T8" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="U8" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="V8" t="n">
         <v>1.27</v>
@@ -1531,46 +1531,46 @@
         <v>2.24</v>
       </c>
       <c r="X8" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Y8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI8" t="n">
         <v>42</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
         <v>22</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="I9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="J9" t="n">
         <v>6.6</v>
@@ -1630,7 +1630,7 @@
         <v>7.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -1639,85 +1639,85 @@
         <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="Q9" t="n">
         <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="S9" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T9" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y9" t="n">
         <v>10.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>15.5</v>
+        <v>8.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC9" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="AF9" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AG9" t="n">
+        <v>46</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI9" t="n">
         <v>50</v>
       </c>
-      <c r="AH9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>38</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="AK9" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AL9" t="n">
         <v>520</v>
       </c>
       <c r="AM9" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="AN9" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AO9" t="n">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="H10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.32</v>
@@ -1771,58 +1771,58 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R10" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="T10" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="V10" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W10" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X10" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB10" t="n">
         <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF10" t="n">
         <v>13.5</v>
@@ -1831,19 +1831,19 @@
         <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
         <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
         <v>330</v>
@@ -1852,7 +1852,7 @@
         <v>9</v>
       </c>
       <c r="AO10" t="n">
-        <v>600</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="G11" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="H11" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J11" t="n">
         <v>3.9</v>
@@ -1900,64 +1900,64 @@
         <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.26</v>
       </c>
-      <c r="P11" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.25</v>
-      </c>
       <c r="W11" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
         <v>18</v>
       </c>
       <c r="AE11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
         <v>12</v>
@@ -1969,13 +1969,13 @@
         <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL11" t="n">
         <v>29</v>
@@ -1984,10 +1984,10 @@
         <v>85</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G12" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H12" t="n">
         <v>2.12</v>
@@ -2029,10 +2029,10 @@
         <v>2.14</v>
       </c>
       <c r="J12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.85</v>
       </c>
       <c r="L12" t="n">
         <v>1.37</v>
@@ -2041,7 +2041,7 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O12" t="n">
         <v>1.26</v>
@@ -2056,28 +2056,28 @@
         <v>1.49</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T12" t="n">
         <v>1.69</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V12" t="n">
         <v>1.88</v>
       </c>
       <c r="W12" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
         <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA12" t="n">
         <v>25</v>
@@ -2104,19 +2104,19 @@
         <v>16</v>
       </c>
       <c r="AI12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ12" t="n">
         <v>70</v>
       </c>
       <c r="AK12" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="n">
         <v>44</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN12" t="n">
         <v>34</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H13" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="I13" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="J13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>8.6</v>
+        <v>5.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -2185,79 +2185,79 @@
         <v>2.26</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="V13" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="W13" t="n">
         <v>1.14</v>
       </c>
       <c r="X13" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>46</v>
+        <v>10.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>900</v>
+        <v>14.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AC13" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AF13" t="n">
         <v>190</v>
       </c>
       <c r="AG13" t="n">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="AH13" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AL13" t="n">
         <v>290</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="G14" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="H14" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="I14" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="K14" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.26</v>
@@ -2314,13 +2314,13 @@
         <v>6.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R14" t="n">
         <v>1.76</v>
@@ -2329,19 +2329,19 @@
         <v>2.28</v>
       </c>
       <c r="T14" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V14" t="n">
         <v>1.12</v>
       </c>
       <c r="W14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="X14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="n">
         <v>40</v>
@@ -2350,7 +2350,7 @@
         <v>85</v>
       </c>
       <c r="AA14" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AB14" t="n">
         <v>12.5</v>
@@ -2368,31 +2368,31 @@
         <v>10.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>85</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
         <v>13</v>
       </c>
       <c r="AL14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM14" t="n">
         <v>90</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AO14" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="G15" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H15" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="I15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J15" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="K15" t="n">
         <v>9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2449,85 +2449,85 @@
         <v>6.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P15" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="Q15" t="n">
         <v>1.46</v>
       </c>
       <c r="R15" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="T15" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W15" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="X15" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="Y15" t="n">
         <v>970</v>
       </c>
       <c r="Z15" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>340</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG15" t="n">
         <v>13</v>
       </c>
-      <c r="AC15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>250</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>14</v>
-      </c>
       <c r="AH15" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AM15" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="AO15" t="n">
-        <v>290</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G16" t="n">
         <v>3.45</v>
@@ -2566,13 +2566,13 @@
         <v>2.26</v>
       </c>
       <c r="I16" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
         <v>1.37</v>
@@ -2599,7 +2599,7 @@
         <v>2.86</v>
       </c>
       <c r="T16" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U16" t="n">
         <v>2.42</v>
@@ -2650,7 +2650,7 @@
         <v>210</v>
       </c>
       <c r="AK16" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AL16" t="n">
         <v>160</v>
@@ -2704,7 +2704,7 @@
         <v>14.5</v>
       </c>
       <c r="J17" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="K17" t="n">
         <v>8</v>
@@ -2722,7 +2722,7 @@
         <v>1.14</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q17" t="n">
         <v>1.44</v>
@@ -2743,7 +2743,7 @@
         <v>1.07</v>
       </c>
       <c r="W17" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="X17" t="n">
         <v>38</v>
@@ -2776,7 +2776,7 @@
         <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="H18" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="J18" t="n">
         <v>3.7</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
         <v>1.34</v>
@@ -2851,10 +2851,10 @@
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P18" t="n">
         <v>2.26</v>
@@ -2866,25 +2866,25 @@
         <v>1.5</v>
       </c>
       <c r="S18" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="T18" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="U18" t="n">
-        <v>1.98</v>
+        <v>2.32</v>
       </c>
       <c r="V18" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="W18" t="n">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="X18" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Y18" t="n">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="Z18" t="n">
         <v>970</v>
@@ -2893,43 +2893,43 @@
         <v>900</v>
       </c>
       <c r="AB18" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>42</v>
+        <v>9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="n">
         <v>970</v>
       </c>
       <c r="AF18" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AG18" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
         <v>970</v>
       </c>
       <c r="AJ18" t="n">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="AK18" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="n">
-        <v>970</v>
+        <v>170</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="AO18" t="n">
         <v>970</v>
@@ -2962,25 +2962,25 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G19" t="n">
         <v>1.88</v>
       </c>
-      <c r="G19" t="n">
-        <v>1.96</v>
-      </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -2992,10 +2992,10 @@
         <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R19" t="n">
         <v>1.45</v>
@@ -3004,16 +3004,16 @@
         <v>2.94</v>
       </c>
       <c r="T19" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="U19" t="n">
         <v>2.18</v>
       </c>
       <c r="V19" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W19" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="X19" t="n">
         <v>22</v>
@@ -3022,7 +3022,7 @@
         <v>19</v>
       </c>
       <c r="Z19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="n">
         <v>900</v>
@@ -3040,7 +3040,7 @@
         <v>55</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
@@ -3049,10 +3049,10 @@
         <v>18</v>
       </c>
       <c r="AI19" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AJ19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK19" t="n">
         <v>19</v>
@@ -3064,10 +3064,10 @@
         <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>290</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="G20" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I20" t="n">
         <v>5.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
         <v>1.4</v>
@@ -3121,7 +3121,7 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O20" t="n">
         <v>1.27</v>
@@ -3136,22 +3136,22 @@
         <v>1.42</v>
       </c>
       <c r="S20" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T20" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U20" t="n">
         <v>2.06</v>
       </c>
       <c r="V20" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W20" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="X20" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
         <v>1000</v>
@@ -3163,7 +3163,7 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
         <v>14</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G21" t="n">
         <v>1.96</v>
@@ -3241,10 +3241,10 @@
         <v>4.3</v>
       </c>
       <c r="I21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
         <v>3.95</v>
@@ -3256,28 +3256,28 @@
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P21" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q21" t="n">
         <v>2</v>
       </c>
-      <c r="Q21" t="n">
-        <v>1.95</v>
-      </c>
       <c r="R21" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S21" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.81</v>
+        <v>1.04</v>
       </c>
       <c r="U21" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V21" t="n">
         <v>1.28</v>
@@ -3286,58 +3286,58 @@
         <v>2.04</v>
       </c>
       <c r="X21" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Y21" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>330</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM21" t="n">
         <v>500</v>
       </c>
-      <c r="AB21" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>200</v>
-      </c>
       <c r="AN21" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AO21" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3376,7 +3376,7 @@
         <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
         <v>3.2</v>
@@ -3409,13 +3409,13 @@
         <v>4.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U22" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V22" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W22" t="n">
         <v>1.89</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H23" t="n">
         <v>2.68</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>2.78</v>
       </c>
-      <c r="H23" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.76</v>
-      </c>
       <c r="J23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L23" t="n">
         <v>1.35</v>
@@ -3547,67 +3547,67 @@
         <v>1.63</v>
       </c>
       <c r="U23" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V23" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W23" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X23" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="n">
         <v>42</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF23" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>40</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>42</v>
-      </c>
       <c r="AK23" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL23" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN23" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -3640,19 +3640,19 @@
         <v>1.7</v>
       </c>
       <c r="G24" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H24" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K24" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L24" t="n">
         <v>1.34</v>
@@ -3664,7 +3664,7 @@
         <v>5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P24" t="n">
         <v>2.32</v>
@@ -3688,13 +3688,13 @@
         <v>1.23</v>
       </c>
       <c r="W24" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X24" t="n">
         <v>22</v>
       </c>
       <c r="Y24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z24" t="n">
         <v>44</v>
@@ -3727,7 +3727,7 @@
         <v>65</v>
       </c>
       <c r="AJ24" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AK24" t="n">
         <v>16.5</v>
@@ -3739,7 +3739,7 @@
         <v>90</v>
       </c>
       <c r="AN24" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AO24" t="n">
         <v>60</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>09:35:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Randers</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Al-Zulfi SC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.34</v>
+        <v>17.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.36</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
-        <v>19</v>
+        <v>1.22</v>
       </c>
       <c r="I2" t="n">
-        <v>22</v>
+        <v>1.25</v>
       </c>
       <c r="J2" t="n">
-        <v>4.6</v>
+        <v>6.8</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>7.6</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,94 +691,94 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>3.95</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
         <v>4.6</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="S2" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.56</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>4.9</v>
       </c>
       <c r="AE2" t="n">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>9.6</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Diosgyori</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.23</v>
+        <v>4.7</v>
       </c>
       <c r="G3" t="n">
-        <v>1.26</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Z3" t="n">
         <v>11.5</v>
       </c>
-      <c r="I3" t="n">
-        <v>14</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="AA3" t="n">
         <v>65</v>
       </c>
-      <c r="Y3" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>170</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>470</v>
-      </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>30</v>
+        <v>4.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>340</v>
+      </c>
+      <c r="AN3" t="n">
         <v>100</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2.92</v>
-      </c>
       <c r="AO3" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:35:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>HNK Gorica</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Zulfi SC</t>
+          <t>NK Radomlje</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="G4" t="n">
-        <v>2.04</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.63</v>
       </c>
       <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1.06</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.91</v>
       </c>
       <c r="R4" t="n">
         <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T4" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W4" t="n">
         <v>1.96</v>
       </c>
       <c r="X4" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>990</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>990</v>
       </c>
       <c r="AE4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>12:25:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.6</v>
+        <v>3.05</v>
       </c>
       <c r="G5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.66</v>
       </c>
-      <c r="H5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.15</v>
-      </c>
       <c r="W5" t="n">
-        <v>2.52</v>
+        <v>1.46</v>
       </c>
       <c r="X5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG5" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>170</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD5" t="n">
+      <c r="AH5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI5" t="n">
         <v>48</v>
       </c>
-      <c r="AE5" t="n">
-        <v>480</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AH5" t="n">
+      <c r="AJ5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN5" t="n">
         <v>44</v>
       </c>
-      <c r="AI5" t="n">
-        <v>450</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>11</v>
-      </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HNK Gorica</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NK Radomlje</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="G6" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>2.58</v>
+        <v>2.98</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.53</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.58</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.3</v>
+        <v>2.78</v>
       </c>
       <c r="V6" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="W6" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="X6" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="AA6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AC6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
         <v>42</v>
       </c>
-      <c r="AD6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>190</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>6.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:25:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.98</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>13.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.5</v>
+        <v>1.28</v>
       </c>
       <c r="I7" t="n">
-        <v>2.54</v>
+        <v>1.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>6.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>7.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.08</v>
       </c>
-      <c r="N7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.47</v>
-      </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AA7" t="n">
         <v>11</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AB7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC7" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AD7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>28</v>
+        <v>13.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>60</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>90</v>
+        <v>570</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="AL7" t="n">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="AM7" t="n">
-        <v>330</v>
+        <v>430</v>
       </c>
       <c r="AN7" t="n">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I8" t="n">
         <v>4.6</v>
       </c>
-      <c r="I8" t="n">
-        <v>4.7</v>
-      </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>6.8</v>
+        <v>4.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.96</v>
+        <v>2.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>1.78</v>
+        <v>1.51</v>
       </c>
       <c r="S8" t="n">
-        <v>2.24</v>
+        <v>2.82</v>
       </c>
       <c r="T8" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="U8" t="n">
-        <v>2.78</v>
+        <v>2.38</v>
       </c>
       <c r="V8" t="n">
         <v>1.27</v>
       </c>
       <c r="W8" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="X8" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Z8" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD8" t="n">
         <v>17.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AF8" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AM8" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.8</v>
+        <v>10.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="G9" t="n">
-        <v>14.5</v>
+        <v>3.85</v>
       </c>
       <c r="H9" t="n">
-        <v>1.28</v>
+        <v>2.1</v>
       </c>
       <c r="I9" t="n">
-        <v>1.3</v>
+        <v>2.12</v>
       </c>
       <c r="J9" t="n">
-        <v>6.6</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>7.4</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
-        <v>2.66</v>
+        <v>2.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>2.42</v>
+        <v>2.94</v>
       </c>
       <c r="T9" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="V9" t="n">
-        <v>4.3</v>
+        <v>1.89</v>
       </c>
       <c r="W9" t="n">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="X9" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD9" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="AE9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN9" t="n">
         <v>32</v>
       </c>
-      <c r="AD9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>130</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>46</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>640</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>190</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>520</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>220</v>
-      </c>
       <c r="AO9" t="n">
-        <v>4.2</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="G10" t="n">
         <v>1.87</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I10" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="S10" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="U10" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="V10" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W10" t="n">
         <v>2.14</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
         <v>17.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN10" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>9</v>
-      </c>
       <c r="AO10" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FC Heidenheim</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.86</v>
+        <v>6.4</v>
       </c>
       <c r="G11" t="n">
-        <v>1.87</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>4.7</v>
+        <v>1.48</v>
       </c>
       <c r="I11" t="n">
-        <v>4.8</v>
+        <v>1.56</v>
       </c>
       <c r="J11" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="T11" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="U11" t="n">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.26</v>
+        <v>2.74</v>
       </c>
       <c r="W11" t="n">
-        <v>2.14</v>
+        <v>1.14</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>36</v>
+        <v>10.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>95</v>
+        <v>14.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>470</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.6</v>
+        <v>42</v>
       </c>
       <c r="AH11" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="AK11" t="n">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>450</v>
       </c>
       <c r="AM11" t="n">
-        <v>85</v>
+        <v>430</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.6</v>
+        <v>130</v>
       </c>
       <c r="AO11" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.8</v>
+        <v>1.41</v>
       </c>
       <c r="G12" t="n">
-        <v>3.85</v>
+        <v>1.42</v>
       </c>
       <c r="H12" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="I12" t="n">
-        <v>2.14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>2.22</v>
+        <v>2.78</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="R12" t="n">
-        <v>1.49</v>
+        <v>1.72</v>
       </c>
       <c r="S12" t="n">
-        <v>2.98</v>
+        <v>2.36</v>
       </c>
       <c r="T12" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="U12" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>1.88</v>
+        <v>1.12</v>
       </c>
       <c r="W12" t="n">
-        <v>1.35</v>
+        <v>3.4</v>
       </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Y12" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB12" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>16</v>
-      </c>
       <c r="AC12" t="n">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.5</v>
+        <v>30</v>
       </c>
       <c r="AE12" t="n">
-        <v>19.5</v>
+        <v>110</v>
       </c>
       <c r="AF12" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>9.6</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="AJ12" t="n">
-        <v>70</v>
+        <v>12.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AL12" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="AM12" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>4.8</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Finn Harps</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N13" t="n">
         <v>6.4</v>
       </c>
-      <c r="G13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="O13" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W13" t="n">
         <v>4.5</v>
       </c>
-      <c r="K13" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.14</v>
-      </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Y13" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>250</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA13" t="n">
+      <c r="AK13" t="n">
         <v>14.5</v>
       </c>
-      <c r="AB13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AL13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM13" t="n">
         <v>190</v>
       </c>
-      <c r="AG13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>250</v>
-      </c>
-      <c r="AK13" t="n">
+      <c r="AN13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO13" t="n">
         <v>290</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>290</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>6.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.42</v>
+        <v>3.3</v>
       </c>
       <c r="G14" t="n">
-        <v>1.43</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
-        <v>8.4</v>
+        <v>2.2</v>
       </c>
       <c r="I14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC14" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="J14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="X14" t="n">
+      <c r="AD14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>210</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>160</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN14" t="n">
         <v>32</v>
       </c>
-      <c r="Y14" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.7</v>
-      </c>
       <c r="AO14" t="n">
-        <v>95</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Barry Town Utd</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="G15" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="H15" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="I15" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="J15" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="T15" t="n">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="U15" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="V15" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="W15" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="X15" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="Z15" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD15" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AE15" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
         <v>10.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AI15" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="AJ15" t="n">
         <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="AO15" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.05</v>
+        <v>1.98</v>
       </c>
       <c r="G16" t="n">
-        <v>3.45</v>
+        <v>2.02</v>
       </c>
       <c r="H16" t="n">
-        <v>2.26</v>
+        <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>2.42</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="R16" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="S16" t="n">
-        <v>2.86</v>
+        <v>2.72</v>
       </c>
       <c r="T16" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U16" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="V16" t="n">
-        <v>1.71</v>
+        <v>1.31</v>
       </c>
       <c r="W16" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="AA16" t="n">
         <v>95</v>
       </c>
       <c r="AB16" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF16" t="n">
-        <v>48</v>
+        <v>14.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
         <v>16.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AJ16" t="n">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c r="AK16" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>75</v>
       </c>
       <c r="AN16" t="n">
-        <v>600</v>
+        <v>11.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.24</v>
+        <v>1.79</v>
       </c>
       <c r="G17" t="n">
-        <v>1.26</v>
+        <v>1.88</v>
       </c>
       <c r="H17" t="n">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="I17" t="n">
-        <v>14.5</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>6.8</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>6.8</v>
+        <v>4.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>3.05</v>
+        <v>2.16</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.44</v>
+        <v>1.78</v>
       </c>
       <c r="R17" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.83</v>
       </c>
-      <c r="S17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.89</v>
-      </c>
       <c r="U17" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="V17" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="W17" t="n">
-        <v>4.4</v>
+        <v>2.12</v>
       </c>
       <c r="X17" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z17" t="n">
         <v>38</v>
       </c>
-      <c r="Y17" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>140</v>
-      </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>17</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN17" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.65</v>
-      </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="G18" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="J18" t="n">
         <v>3.7</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="O18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.23</v>
       </c>
-      <c r="P18" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.32</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="X18" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH18" t="n">
         <v>24</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL18" t="n">
         <v>100</v>
       </c>
-      <c r="Z18" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG18" t="n">
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN18" t="n">
         <v>11.5</v>
       </c>
-      <c r="AH18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>170</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>12</v>
-      </c>
       <c r="AO18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>18:15:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>CA Huracan</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="G19" t="n">
-        <v>1.88</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I19" t="n">
         <v>4.5</v>
       </c>
-      <c r="I19" t="n">
-        <v>5</v>
-      </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>2.14</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>2.16</v>
+        <v>1.42</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="R19" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="S19" t="n">
-        <v>2.94</v>
+        <v>1.01</v>
       </c>
       <c r="T19" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="W19" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="X19" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H20" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L20" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R20" t="n">
         <v>1.4</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.42</v>
-      </c>
       <c r="S20" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U20" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W20" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AC20" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK20" t="n">
         <v>21</v>
       </c>
-      <c r="AG20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH20" t="n">
+      <c r="AL20" t="n">
         <v>38</v>
       </c>
-      <c r="AI20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN20" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="G21" t="n">
-        <v>1.96</v>
+        <v>2.22</v>
       </c>
       <c r="H21" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="I21" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="L21" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O21" t="n">
         <v>1.41</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.32</v>
-      </c>
       <c r="P21" t="n">
-        <v>1.97</v>
+        <v>1.69</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="S21" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="U21" t="n">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="V21" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W21" t="n">
-        <v>2.04</v>
+        <v>1.81</v>
       </c>
       <c r="X21" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z21" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB21" t="n">
-        <v>29</v>
+        <v>8.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>15.5</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="AF21" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="AG21" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="AJ21" t="n">
-        <v>900</v>
+        <v>32</v>
       </c>
       <c r="AK21" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AN21" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,126 +3353,126 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.92</v>
+        <v>2.66</v>
       </c>
       <c r="G22" t="n">
-        <v>2.12</v>
+        <v>2.72</v>
       </c>
       <c r="H22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J22" t="n">
         <v>3.8</v>
       </c>
-      <c r="I22" t="n">
-        <v>5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>3.05</v>
+        <v>4.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="P22" t="n">
-        <v>1.68</v>
+        <v>2.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="S22" t="n">
-        <v>4.1</v>
+        <v>2.88</v>
       </c>
       <c r="T22" t="n">
-        <v>1.95</v>
+        <v>1.63</v>
       </c>
       <c r="U22" t="n">
-        <v>1.87</v>
+        <v>2.44</v>
       </c>
       <c r="V22" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="W22" t="n">
-        <v>1.89</v>
+        <v>1.58</v>
       </c>
       <c r="X22" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z22" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AA22" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="AB22" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AO22" t="n">
         <v>23</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>120</v>
       </c>
     </row>
     <row r="23">
@@ -3488,36 +3488,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:06:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Leon</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.64</v>
+        <v>1.69</v>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>1.72</v>
       </c>
       <c r="H23" t="n">
-        <v>2.68</v>
+        <v>5.3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.78</v>
+        <v>5.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="K23" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.35</v>
@@ -3526,223 +3526,88 @@
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P23" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="R23" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="S23" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="U23" t="n">
-        <v>2.42</v>
+        <v>2.1</v>
       </c>
       <c r="V23" t="n">
-        <v>1.56</v>
+        <v>1.21</v>
       </c>
       <c r="W23" t="n">
-        <v>1.58</v>
+        <v>2.38</v>
       </c>
       <c r="X23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y23" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="Z23" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="AA23" t="n">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="AB23" t="n">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AF23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH23" t="n">
         <v>19.5</v>
       </c>
-      <c r="AG23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>16</v>
-      </c>
       <c r="AI23" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AJ23" t="n">
-        <v>40</v>
+        <v>17.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AN23" t="n">
-        <v>20</v>
+        <v>9.4</v>
       </c>
       <c r="AO23" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2026-01-13</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>22:06:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Pachuca</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Leon</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N24" t="n">
-        <v>5</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W24" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="X24" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:35:00</t>
+          <t>12:25:09</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Zulfi SC</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>17.5</v>
+        <v>3.65</v>
       </c>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>3.95</v>
       </c>
       <c r="H2" t="n">
-        <v>1.22</v>
+        <v>2.54</v>
       </c>
       <c r="I2" t="n">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="J2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="S2" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X2" t="n">
         <v>6.8</v>
       </c>
-      <c r="K2" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.6</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>4.9</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.6</v>
+        <v>55</v>
       </c>
       <c r="AI2" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AM2" t="n">
+        <v>350</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>200</v>
+      </c>
+      <c r="AO2" t="n">
         <v>90</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>17.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>1.74</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>2.06</v>
+        <v>4.8</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1</v>
+        <v>4.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>4.3</v>
+        <v>7.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>1.73</v>
+        <v>2.98</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.28</v>
+        <v>1.49</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2</v>
+        <v>1.78</v>
       </c>
       <c r="S3" t="n">
-        <v>5.7</v>
+        <v>2.24</v>
       </c>
       <c r="T3" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="V3" t="n">
-        <v>1.87</v>
+        <v>1.25</v>
       </c>
       <c r="W3" t="n">
-        <v>1.25</v>
+        <v>2.34</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>30</v>
       </c>
       <c r="Z3" t="n">
-        <v>11.5</v>
+        <v>42</v>
       </c>
       <c r="AA3" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.1</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL3" t="n">
         <v>22</v>
       </c>
-      <c r="AI3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
+      <c r="AM3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO3" t="n">
         <v>36</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>340</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>100</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>160</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HNK Gorica</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NK Radomlje</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.98</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>14.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>1.26</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>7.6</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.63</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.07</v>
       </c>
-      <c r="N4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.96</v>
-      </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.5</v>
+        <v>55</v>
       </c>
       <c r="AC4" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>990</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AG4" t="n">
-        <v>990</v>
+        <v>50</v>
       </c>
       <c r="AH4" t="n">
-        <v>990</v>
+        <v>36</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>630</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="5">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:25:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.05</v>
+        <v>1.82</v>
       </c>
       <c r="G5" t="n">
-        <v>3.15</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>2.46</v>
+        <v>4.7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.52</v>
+        <v>4.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.76</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.24</v>
-      </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>4.2</v>
+        <v>2.92</v>
       </c>
       <c r="T5" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="V5" t="n">
-        <v>1.66</v>
+        <v>1.25</v>
       </c>
       <c r="W5" t="n">
-        <v>1.46</v>
+        <v>2.18</v>
       </c>
       <c r="X5" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.4</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AA5" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF5" t="n">
         <v>12</v>
       </c>
-      <c r="AE5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>21</v>
-      </c>
       <c r="AG5" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>60</v>
+        <v>19.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AN5" t="n">
-        <v>44</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.77</v>
+        <v>6.4</v>
       </c>
       <c r="G6" t="n">
-        <v>1.78</v>
+        <v>7.8</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>1.49</v>
       </c>
       <c r="I6" t="n">
-        <v>4.8</v>
+        <v>1.57</v>
       </c>
       <c r="J6" t="n">
         <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X6" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>470</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>240</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>290</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>450</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>430</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>170</v>
+      </c>
+      <c r="AO6" t="n">
         <v>7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="X6" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>1.41</v>
       </c>
       <c r="G7" t="n">
-        <v>13.5</v>
+        <v>1.42</v>
       </c>
       <c r="H7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L7" t="n">
         <v>1.28</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.27</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="S7" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="T7" t="n">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="U7" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>4.3</v>
+        <v>1.12</v>
       </c>
       <c r="W7" t="n">
-        <v>1.08</v>
+        <v>3.35</v>
       </c>
       <c r="X7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.5</v>
+        <v>36</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.4</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB7" t="n">
         <v>11</v>
       </c>
-      <c r="AB7" t="n">
-        <v>100</v>
-      </c>
       <c r="AC7" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AE7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK7" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>570</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>180</v>
-      </c>
       <c r="AL7" t="n">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="AM7" t="n">
-        <v>430</v>
+        <v>95</v>
       </c>
       <c r="AN7" t="n">
-        <v>180</v>
+        <v>4.9</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>3.75</v>
       </c>
       <c r="H8" t="n">
-        <v>4.3</v>
+        <v>2.12</v>
       </c>
       <c r="I8" t="n">
-        <v>4.6</v>
+        <v>2.14</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P8" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="R8" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="n">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="T8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V8" t="n">
-        <v>1.27</v>
+        <v>1.87</v>
       </c>
       <c r="W8" t="n">
-        <v>2.12</v>
+        <v>1.36</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="AA8" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>50</v>
+        <v>19.5</v>
       </c>
       <c r="AF8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO8" t="n">
         <v>13</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>500</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.8</v>
+        <v>1.84</v>
       </c>
       <c r="G9" t="n">
-        <v>3.85</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
-        <v>2.1</v>
+        <v>4.9</v>
       </c>
       <c r="I9" t="n">
-        <v>2.12</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
         <v>1.36</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S9" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="U9" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="V9" t="n">
-        <v>1.89</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>1.35</v>
+        <v>2.18</v>
       </c>
       <c r="X9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y9" t="n">
         <v>19</v>
       </c>
-      <c r="Y9" t="n">
-        <v>11.5</v>
-      </c>
       <c r="Z9" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="AB9" t="n">
-        <v>16.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN9" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>32</v>
-      </c>
       <c r="AO9" t="n">
-        <v>12.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,123 +1733,123 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FC Heidenheim</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="G10" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
         <v>4.7</v>
       </c>
       <c r="I10" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="R10" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="U10" t="n">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="V10" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="Y10" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Z10" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL10" t="n">
         <v>100</v>
       </c>
-      <c r="AB10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>32</v>
-      </c>
       <c r="AM10" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Finn Harps</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6.4</v>
+        <v>1.79</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>1.88</v>
       </c>
       <c r="H11" t="n">
-        <v>1.48</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.56</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.4</v>
       </c>
-      <c r="K11" t="n">
-        <v>5.3</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="S11" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="T11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="V11" t="n">
-        <v>2.74</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.14</v>
+        <v>2.12</v>
       </c>
       <c r="X11" t="n">
         <v>23</v>
       </c>
       <c r="Y11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB11" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>42</v>
-      </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG11" t="n">
         <v>11</v>
       </c>
-      <c r="AE11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>470</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>42</v>
-      </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="AK11" t="n">
-        <v>290</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
-        <v>450</v>
+        <v>32</v>
       </c>
       <c r="AM11" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="AN11" t="n">
-        <v>130</v>
+        <v>10.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.41</v>
+        <v>2.02</v>
       </c>
       <c r="G12" t="n">
-        <v>1.42</v>
+        <v>2.06</v>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>9.199999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="J12" t="n">
-        <v>5.5</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>2.78</v>
+        <v>2.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="R12" t="n">
-        <v>1.72</v>
+        <v>1.51</v>
       </c>
       <c r="S12" t="n">
-        <v>2.36</v>
+        <v>2.74</v>
       </c>
       <c r="T12" t="n">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="U12" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="V12" t="n">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="W12" t="n">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="X12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL12" t="n">
         <v>30</v>
       </c>
-      <c r="Y12" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC12" t="n">
+      <c r="AM12" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN12" t="n">
         <v>12</v>
       </c>
-      <c r="AD12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.8</v>
-      </c>
       <c r="AO12" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Barry Town Utd</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.24</v>
+        <v>3.2</v>
       </c>
       <c r="G13" t="n">
-        <v>1.28</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
-        <v>12.5</v>
+        <v>2.26</v>
       </c>
       <c r="I13" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X13" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB13" t="n">
         <v>15.5</v>
       </c>
-      <c r="J13" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>8</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>970</v>
-      </c>
       <c r="AC13" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="AF13" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10.5</v>
+        <v>160</v>
       </c>
       <c r="AK13" t="n">
-        <v>14.5</v>
+        <v>60</v>
       </c>
       <c r="AL13" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AM13" t="n">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>29</v>
+        <v>600</v>
       </c>
       <c r="AO13" t="n">
-        <v>290</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.3</v>
+        <v>1.24</v>
       </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>1.28</v>
       </c>
       <c r="H14" t="n">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="I14" t="n">
-        <v>2.3</v>
+        <v>14.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>6.8</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="P14" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S14" t="n">
         <v>2.18</v>
       </c>
-      <c r="Q14" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.88</v>
-      </c>
       <c r="T14" t="n">
-        <v>1.65</v>
+        <v>1.99</v>
       </c>
       <c r="U14" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="V14" t="n">
-        <v>1.76</v>
+        <v>1.07</v>
       </c>
       <c r="W14" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="X14" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>580</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC14" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AD14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG14" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD14" t="n">
+      <c r="AH14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>12</v>
       </c>
-      <c r="AE14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>210</v>
-      </c>
       <c r="AK14" t="n">
-        <v>90</v>
+        <v>14.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
-        <v>330</v>
+        <v>190</v>
       </c>
       <c r="AN14" t="n">
-        <v>32</v>
+        <v>3.8</v>
       </c>
       <c r="AO14" t="n">
-        <v>14.5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15">
@@ -2431,13 +2431,13 @@
         <v>12</v>
       </c>
       <c r="I15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="J15" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L15" t="n">
         <v>1.23</v>
@@ -2446,7 +2446,7 @@
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
         <v>1.14</v>
@@ -2455,16 +2455,16 @@
         <v>3.05</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R15" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S15" t="n">
         <v>2.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="U15" t="n">
         <v>1.98</v>
@@ -2473,7 +2473,7 @@
         <v>1.07</v>
       </c>
       <c r="W15" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="X15" t="n">
         <v>38</v>
@@ -2482,7 +2482,7 @@
         <v>55</v>
       </c>
       <c r="Z15" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -2500,31 +2500,31 @@
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>11</v>
       </c>
       <c r="AK15" t="n">
         <v>14.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>18:15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>CA Huracan</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.98</v>
+        <v>2.46</v>
       </c>
       <c r="G16" t="n">
-        <v>2.02</v>
+        <v>2.72</v>
       </c>
       <c r="H16" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="J16" t="n">
-        <v>3.8</v>
+        <v>2.98</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33</v>
+        <v>1.59</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="N16" t="n">
-        <v>4.7</v>
+        <v>2.62</v>
       </c>
       <c r="O16" t="n">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="P16" t="n">
-        <v>2.3</v>
+        <v>1.52</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.69</v>
+        <v>2.68</v>
       </c>
       <c r="R16" t="n">
-        <v>1.52</v>
+        <v>1.19</v>
       </c>
       <c r="S16" t="n">
-        <v>2.72</v>
+        <v>5.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.62</v>
+        <v>2.06</v>
       </c>
       <c r="U16" t="n">
-        <v>2.32</v>
+        <v>1.76</v>
       </c>
       <c r="V16" t="n">
         <v>1.31</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y16" t="n">
-        <v>100</v>
+        <v>970</v>
       </c>
       <c r="Z16" t="n">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="AA16" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AD16" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AF16" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="AL16" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>11.5</v>
+        <v>55</v>
       </c>
       <c r="AO16" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="G17" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="H17" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.35</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.45</v>
-      </c>
       <c r="S17" t="n">
-        <v>2.96</v>
+        <v>3.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="V17" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="W17" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="X17" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AA17" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="AB17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG17" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC17" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG17" t="n">
+      <c r="AH17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN17" t="n">
         <v>11</v>
       </c>
-      <c r="AH17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AO17" t="n">
-        <v>290</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.81</v>
       </c>
-      <c r="G18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.1</v>
-      </c>
       <c r="X18" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG18" t="n">
         <v>12</v>
       </c>
-      <c r="AG18" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ18" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AK18" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>11.5</v>
+        <v>28</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,126 +2948,126 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18:15:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CA Huracan</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.87</v>
+        <v>2.66</v>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>2.74</v>
       </c>
       <c r="H19" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>2.76</v>
       </c>
       <c r="J19" t="n">
-        <v>2.14</v>
+        <v>3.8</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L19" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.48</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.01</v>
-      </c>
       <c r="S19" t="n">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="V19" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="W19" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -3083,63 +3083,63 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:06:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Leon</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="G20" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="H20" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I20" t="n">
         <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L20" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="R20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S20" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U20" t="n">
         <v>2.1</v>
@@ -3148,466 +3148,61 @@
         <v>1.25</v>
       </c>
       <c r="W20" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="X20" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="Z20" t="n">
         <v>38</v>
       </c>
       <c r="AA20" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="AB20" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AC20" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>330</v>
+        <v>95</v>
       </c>
       <c r="AN20" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2026-01-13</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Once Caldas</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="X21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2026-01-13</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Necaxa</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Monterrey</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X22" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2026-01-13</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>22:06:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Pachuca</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Leon</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="H23" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X23" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:25:09</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.65</v>
+        <v>1.69</v>
       </c>
       <c r="G2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.95</v>
       </c>
-      <c r="H2" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.9</v>
-      </c>
       <c r="K2" t="n">
-        <v>3.05</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.33</v>
+        <v>11</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.8</v>
+        <v>1.09</v>
       </c>
       <c r="R2" t="n">
-        <v>1.09</v>
+        <v>3.15</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>1.46</v>
       </c>
       <c r="T2" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.63</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>2.34</v>
       </c>
       <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
         <v>6.8</v>
       </c>
-      <c r="Y2" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>24</v>
-      </c>
       <c r="AH2" t="n">
-        <v>55</v>
+        <v>8.4</v>
       </c>
       <c r="AI2" t="n">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>120</v>
+        <v>8.6</v>
       </c>
       <c r="AL2" t="n">
-        <v>220</v>
+        <v>10.5</v>
       </c>
       <c r="AM2" t="n">
-        <v>350</v>
+        <v>27</v>
       </c>
       <c r="AN2" t="n">
-        <v>200</v>
+        <v>5.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -793,121 +793,121 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.74</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>4.8</v>
+        <v>1.44</v>
       </c>
       <c r="I3" t="n">
-        <v>4.9</v>
+        <v>1.45</v>
       </c>
       <c r="J3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S3" t="n">
         <v>4.5</v>
       </c>
-      <c r="K3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="T3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.49</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.76</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="W3" t="n">
-        <v>2.34</v>
+        <v>1.1</v>
       </c>
       <c r="X3" t="n">
-        <v>32</v>
+        <v>14.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>30</v>
+        <v>5.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>42</v>
+        <v>6.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>110</v>
+        <v>12.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AC3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="n">
         <v>11</v>
       </c>
-      <c r="AD3" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AE3" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AF3" t="n">
-        <v>13.5</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="n">
-        <v>18.5</v>
+        <v>470</v>
       </c>
       <c r="AK3" t="n">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="AL3" t="n">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="AM3" t="n">
-        <v>50</v>
+        <v>660</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>36</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="4">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:30:01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>1.48</v>
       </c>
       <c r="G4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH4" t="n">
         <v>14.5</v>
       </c>
-      <c r="H4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="X4" t="n">
-        <v>38</v>
-      </c>
-      <c r="Y4" t="n">
+      <c r="AI4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN4" t="n">
         <v>11</v>
       </c>
-      <c r="Z4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>160</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>630</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>210</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>520</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>430</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>230</v>
-      </c>
       <c r="AO4" t="n">
-        <v>3.9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.82</v>
+        <v>6.6</v>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>7.8</v>
       </c>
       <c r="H5" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4.9</v>
+        <v>1.57</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="S5" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="T5" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="U5" t="n">
-        <v>2.34</v>
+        <v>1.96</v>
       </c>
       <c r="V5" t="n">
-        <v>1.25</v>
+        <v>2.72</v>
       </c>
       <c r="W5" t="n">
-        <v>2.18</v>
+        <v>1.14</v>
       </c>
       <c r="X5" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z5" t="n">
-        <v>95</v>
+        <v>10.5</v>
       </c>
       <c r="AA5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>190</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>240</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>290</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>450</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>430</v>
+      </c>
+      <c r="AN5" t="n">
         <v>120</v>
       </c>
-      <c r="AB5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Finn Harps</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.4</v>
+        <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>7.8</v>
+        <v>1.42</v>
       </c>
       <c r="H6" t="n">
-        <v>1.49</v>
+        <v>8.6</v>
       </c>
       <c r="I6" t="n">
-        <v>1.57</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="K6" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>2.24</v>
+        <v>2.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>2.7</v>
+        <v>1.12</v>
       </c>
       <c r="W6" t="n">
-        <v>1.14</v>
+        <v>3.35</v>
       </c>
       <c r="X6" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH6" t="n">
         <v>22</v>
       </c>
-      <c r="Y6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>470</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AJ6" t="n">
-        <v>240</v>
+        <v>12.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>290</v>
+        <v>13</v>
       </c>
       <c r="AL6" t="n">
-        <v>450</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
-        <v>430</v>
+        <v>95</v>
       </c>
       <c r="AN6" t="n">
-        <v>170</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.41</v>
+        <v>3.75</v>
       </c>
       <c r="G7" t="n">
-        <v>1.42</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
-        <v>8.6</v>
+        <v>2.12</v>
       </c>
       <c r="I7" t="n">
-        <v>8.800000000000001</v>
+        <v>2.14</v>
       </c>
       <c r="J7" t="n">
-        <v>5.6</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.8</v>
+        <v>2.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>2.36</v>
+        <v>2.94</v>
       </c>
       <c r="T7" t="n">
-        <v>1.79</v>
+        <v>1.06</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="V7" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN7" t="n">
         <v>32</v>
       </c>
-      <c r="Y7" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ7" t="n">
+      <c r="AO7" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>110</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.7</v>
+        <v>1.84</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
-        <v>2.12</v>
+        <v>4.8</v>
       </c>
       <c r="I8" t="n">
-        <v>2.14</v>
+        <v>4.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="S8" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="T8" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="U8" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="V8" t="n">
-        <v>1.87</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.36</v>
+        <v>2.16</v>
       </c>
       <c r="X8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI8" t="n">
+      <c r="AK8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL8" t="n">
         <v>30</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>42</v>
-      </c>
       <c r="AM8" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AN8" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FC Heidenheim</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="R9" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="S9" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U9" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W9" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="Y9" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Z9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AK9" t="n">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="n">
-        <v>90</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H10" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="R10" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="T10" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U10" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="V10" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X10" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC10" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AC10" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AD10" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AK10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL10" t="n">
         <v>32</v>
       </c>
-      <c r="AL10" t="n">
-        <v>100</v>
-      </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN10" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="G11" t="n">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="R11" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1.83</v>
+        <v>1.61</v>
       </c>
       <c r="U11" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="W11" t="n">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z11" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AA11" t="n">
-        <v>340</v>
+        <v>90</v>
       </c>
       <c r="AB11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG11" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AJ11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AK11" t="n">
         <v>19</v>
       </c>
       <c r="AL11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO11" t="n">
         <v>32</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.02</v>
+        <v>3.25</v>
       </c>
       <c r="G12" t="n">
-        <v>2.06</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>2.22</v>
       </c>
       <c r="I12" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="S12" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="T12" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="U12" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="W12" t="n">
-        <v>1.95</v>
+        <v>1.41</v>
       </c>
       <c r="X12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF12" t="n">
         <v>27</v>
       </c>
-      <c r="Z12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>75</v>
       </c>
-      <c r="AF12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>26</v>
-      </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
         <v>200</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="AO12" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.2</v>
+        <v>1.24</v>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>1.29</v>
       </c>
       <c r="H13" t="n">
-        <v>2.26</v>
+        <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>2.32</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>8.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="P13" t="n">
-        <v>2.22</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="R13" t="n">
-        <v>1.47</v>
+        <v>1.79</v>
       </c>
       <c r="S13" t="n">
-        <v>2.84</v>
+        <v>2.16</v>
       </c>
       <c r="T13" t="n">
-        <v>1.62</v>
+        <v>1.96</v>
       </c>
       <c r="U13" t="n">
-        <v>2.34</v>
+        <v>1.86</v>
       </c>
       <c r="V13" t="n">
-        <v>1.75</v>
+        <v>1.07</v>
       </c>
       <c r="W13" t="n">
-        <v>1.41</v>
+        <v>4.4</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="AA13" t="n">
-        <v>60</v>
+        <v>540</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>20</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="AE13" t="n">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="AF13" t="n">
-        <v>42</v>
+        <v>9.6</v>
       </c>
       <c r="AG13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK13" t="n">
         <v>14.5</v>
       </c>
-      <c r="AH13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>60</v>
-      </c>
       <c r="AL13" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AN13" t="n">
-        <v>600</v>
+        <v>3.8</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
@@ -2278,25 +2278,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Barry Town Utd</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G14" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="H14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I14" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="J14" t="n">
         <v>6.8</v>
@@ -2305,100 +2305,100 @@
         <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P14" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R14" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="S14" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="T14" t="n">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="U14" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="X14" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Y14" t="n">
         <v>120</v>
       </c>
       <c r="Z14" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AA14" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD14" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AE14" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AG14" t="n">
         <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AI14" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>18:15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>CA Huracan</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.24</v>
+        <v>2.26</v>
       </c>
       <c r="G15" t="n">
-        <v>1.26</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>12</v>
+        <v>3.55</v>
       </c>
       <c r="I15" t="n">
-        <v>15</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>8.199999999999999</v>
+        <v>3.45</v>
       </c>
       <c r="L15" t="n">
-        <v>1.23</v>
+        <v>1.62</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>2.46</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.59</v>
       </c>
       <c r="P15" t="n">
-        <v>3.05</v>
+        <v>1.47</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.44</v>
+        <v>2.76</v>
       </c>
       <c r="R15" t="n">
-        <v>1.84</v>
+        <v>1.17</v>
       </c>
       <c r="S15" t="n">
-        <v>2.1</v>
+        <v>5.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="U15" t="n">
-        <v>1.98</v>
+        <v>1.69</v>
       </c>
       <c r="V15" t="n">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="W15" t="n">
-        <v>4.5</v>
+        <v>1.72</v>
       </c>
       <c r="X15" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="Y15" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="Z15" t="n">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AC15" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AD15" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH15" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AI15" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="AK15" t="n">
-        <v>14.5</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.6</v>
+        <v>46</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CA Huracan</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.46</v>
+        <v>1.65</v>
       </c>
       <c r="G16" t="n">
-        <v>2.72</v>
+        <v>1.67</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>6.2</v>
       </c>
       <c r="I16" t="n">
-        <v>3.65</v>
+        <v>6.6</v>
       </c>
       <c r="J16" t="n">
-        <v>2.98</v>
+        <v>4.1</v>
       </c>
       <c r="K16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S16" t="n">
         <v>3.45</v>
       </c>
-      <c r="L16" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5.4</v>
-      </c>
       <c r="T16" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="U16" t="n">
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
       <c r="V16" t="n">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="W16" t="n">
-        <v>1.47</v>
+        <v>2.48</v>
       </c>
       <c r="X16" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AA16" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AB16" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AF16" t="n">
-        <v>19</v>
+        <v>9.4</v>
       </c>
       <c r="AG16" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="AK16" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN16" t="n">
-        <v>55</v>
+        <v>9.6</v>
       </c>
       <c r="AO16" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P17" t="n">
         <v>1.69</v>
       </c>
-      <c r="G17" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.93</v>
-      </c>
       <c r="Q17" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="R17" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="U17" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V17" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="W17" t="n">
-        <v>2.4</v>
+        <v>1.81</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD17" t="n">
         <v>19.5</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AE17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL17" t="n">
         <v>50</v>
       </c>
-      <c r="AA17" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>40</v>
-      </c>
       <c r="AM17" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AO17" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,126 +2813,126 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="G18" t="n">
-        <v>2.22</v>
+        <v>2.74</v>
       </c>
       <c r="H18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.85</v>
       </c>
-      <c r="I18" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>3.05</v>
+        <v>4.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>1.69</v>
+        <v>2.26</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.26</v>
+        <v>1.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.49</v>
       </c>
       <c r="S18" t="n">
-        <v>4.2</v>
+        <v>2.92</v>
       </c>
       <c r="T18" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>1.89</v>
+        <v>2.44</v>
       </c>
       <c r="V18" t="n">
-        <v>1.29</v>
+        <v>1.58</v>
       </c>
       <c r="W18" t="n">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="X18" t="n">
-        <v>11.5</v>
+        <v>18</v>
       </c>
       <c r="Y18" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD18" t="n">
         <v>13</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AE18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL18" t="n">
         <v>34</v>
       </c>
-      <c r="AA18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AM18" t="n">
         <v>70</v>
       </c>
-      <c r="AF18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>160</v>
-      </c>
       <c r="AN18" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
-        <v>85</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -2948,261 +2948,126 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:06:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Leon</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.66</v>
+        <v>1.81</v>
       </c>
       <c r="G19" t="n">
-        <v>2.74</v>
+        <v>1.84</v>
       </c>
       <c r="H19" t="n">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="I19" t="n">
-        <v>2.76</v>
+        <v>5.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K19" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="O19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.25</v>
       </c>
-      <c r="P19" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.56</v>
-      </c>
       <c r="W19" t="n">
-        <v>1.57</v>
+        <v>2.18</v>
       </c>
       <c r="X19" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Z19" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AB19" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AF19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
         <v>19.5</v>
       </c>
-      <c r="AG19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>16</v>
-      </c>
       <c r="AI19" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL19" t="n">
         <v>32</v>
       </c>
-      <c r="AL19" t="n">
-        <v>34</v>
-      </c>
       <c r="AM19" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2026-01-13</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>22:06:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Pachuca</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Leon</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X20" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,87 +653,87 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.69</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>12.5</v>
       </c>
       <c r="H2" t="n">
-        <v>6.2</v>
+        <v>1.49</v>
       </c>
       <c r="I2" t="n">
-        <v>6.6</v>
+        <v>1.54</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
-        <v>11</v>
+        <v>1.42</v>
       </c>
       <c r="Q2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.09</v>
       </c>
-      <c r="R2" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.34</v>
-      </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
         <v>11.5</v>
@@ -742,43 +742,43 @@
         <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AG2" t="n">
-        <v>6.8</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.4</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO2" t="n">
         <v>23</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>1.29</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>1.3</v>
       </c>
       <c r="H3" t="n">
-        <v>1.44</v>
+        <v>15.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.45</v>
+        <v>17</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="L3" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.66</v>
       </c>
-      <c r="Q3" t="n">
-        <v>2.48</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="S3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W3" t="n">
         <v>4.5</v>
       </c>
-      <c r="T3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="V3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.1</v>
-      </c>
       <c r="X3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>27</v>
+        <v>8.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AE3" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="AF3" t="n">
-        <v>90</v>
+        <v>6.2</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>7.4</v>
       </c>
       <c r="AH3" t="n">
-        <v>40</v>
+        <v>18.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>470</v>
+        <v>9.6</v>
       </c>
       <c r="AK3" t="n">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="AL3" t="n">
-        <v>320</v>
+        <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>660</v>
+        <v>150</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AO3" t="n">
-        <v>11.5</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:01</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.48</v>
+        <v>3.75</v>
       </c>
       <c r="G4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.5</v>
       </c>
-      <c r="H4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.55</v>
-      </c>
       <c r="S4" t="n">
-        <v>2.74</v>
+        <v>2.94</v>
       </c>
       <c r="T4" t="n">
-        <v>1.55</v>
+        <v>1.06</v>
       </c>
       <c r="U4" t="n">
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
       <c r="V4" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>70</v>
       </c>
-      <c r="AF4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
       <c r="AK4" t="n">
-        <v>14.5</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AO4" t="n">
-        <v>90</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Finn Harps</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.6</v>
+        <v>1.36</v>
       </c>
       <c r="G5" t="n">
-        <v>7.8</v>
+        <v>1.37</v>
       </c>
       <c r="H5" t="n">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>1.57</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="K5" t="n">
         <v>5.2</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.34</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.46</v>
-      </c>
       <c r="S5" t="n">
-        <v>2.86</v>
+        <v>3.75</v>
       </c>
       <c r="T5" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="U5" t="n">
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>2.72</v>
+        <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>1.14</v>
+        <v>3.65</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>44</v>
+        <v>6.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.5</v>
+        <v>24</v>
       </c>
       <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
         <v>16</v>
       </c>
-      <c r="AF5" t="n">
-        <v>190</v>
-      </c>
-      <c r="AG5" t="n">
+      <c r="AL5" t="n">
         <v>42</v>
       </c>
-      <c r="AH5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>240</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>290</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>450</v>
-      </c>
       <c r="AM5" t="n">
-        <v>430</v>
+        <v>170</v>
       </c>
       <c r="AN5" t="n">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.2</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H6" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="I6" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.78</v>
+        <v>15</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.55</v>
+        <v>1.06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="X6" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>460</v>
       </c>
       <c r="AE6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.4</v>
+        <v>460</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.75</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>9.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.12</v>
+        <v>1.43</v>
       </c>
       <c r="I7" t="n">
-        <v>2.14</v>
+        <v>1.49</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>4.6</v>
+        <v>10.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="P7" t="n">
-        <v>2.24</v>
+        <v>3.05</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="S7" t="n">
-        <v>2.94</v>
+        <v>2.36</v>
       </c>
       <c r="T7" t="n">
-        <v>1.06</v>
+        <v>1.46</v>
       </c>
       <c r="U7" t="n">
-        <v>2.46</v>
+        <v>2.84</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="X7" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AA7" t="n">
         <v>14</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
         <v>26</v>
       </c>
-      <c r="AB7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>30</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN7" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AO7" t="n">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC Heidenheim</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.84</v>
+        <v>1.11</v>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>1.13</v>
       </c>
       <c r="H8" t="n">
-        <v>4.8</v>
+        <v>34</v>
       </c>
       <c r="I8" t="n">
-        <v>4.9</v>
+        <v>44</v>
       </c>
       <c r="J8" t="n">
-        <v>3.95</v>
+        <v>11.5</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L8" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.06</v>
       </c>
-      <c r="N8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.27</v>
-      </c>
       <c r="P8" t="n">
-        <v>2.18</v>
+        <v>4.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.29</v>
       </c>
       <c r="R8" t="n">
-        <v>1.46</v>
+        <v>2.06</v>
       </c>
       <c r="S8" t="n">
-        <v>3.05</v>
+        <v>1.91</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>2.24</v>
+        <v>1.86</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.02</v>
       </c>
       <c r="W8" t="n">
-        <v>2.16</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
         <v>19</v>
       </c>
-      <c r="Z8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>32</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="AE8" t="n">
-        <v>60</v>
+        <v>480</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>17.5</v>
+        <v>42</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18.5</v>
+        <v>7.8</v>
       </c>
       <c r="AK8" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AL8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="n">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="AN8" t="n">
-        <v>10</v>
+        <v>3.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>60</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.82</v>
+        <v>4.9</v>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H9" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="I9" t="n">
-        <v>5.3</v>
+        <v>1.84</v>
       </c>
       <c r="J9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U9" t="n">
         <v>3.7</v>
       </c>
-      <c r="K9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.08</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.23</v>
+        <v>2.16</v>
       </c>
       <c r="W9" t="n">
-        <v>2.1</v>
+        <v>1.03</v>
       </c>
       <c r="X9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK9" t="n">
         <v>34</v>
       </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ9" t="n">
+      <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN9" t="n">
         <v>40</v>
       </c>
-      <c r="AK9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.79</v>
+        <v>3.05</v>
       </c>
       <c r="G10" t="n">
-        <v>1.88</v>
+        <v>3.15</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>2.46</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>2.52</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>10.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="P10" t="n">
-        <v>2.18</v>
+        <v>3.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.76</v>
+        <v>1.42</v>
       </c>
       <c r="R10" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.45</v>
       </c>
-      <c r="S10" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.12</v>
-      </c>
       <c r="X10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z10" t="n">
         <v>23</v>
       </c>
-      <c r="Y10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI10" t="n">
         <v>38</v>
       </c>
-      <c r="AA10" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE10" t="n">
+      <c r="AJ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM10" t="n">
         <v>60</v>
       </c>
-      <c r="AF10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>500</v>
-      </c>
       <c r="AN10" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.02</v>
+        <v>3.55</v>
       </c>
       <c r="G11" t="n">
-        <v>2.08</v>
+        <v>3.65</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>2.24</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.08</v>
       </c>
       <c r="P11" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.69</v>
+        <v>1.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="S11" t="n">
-        <v>2.8</v>
+        <v>2.18</v>
       </c>
       <c r="T11" t="n">
-        <v>1.61</v>
+        <v>1.21</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>4.7</v>
       </c>
       <c r="V11" t="n">
-        <v>1.33</v>
+        <v>1.76</v>
       </c>
       <c r="W11" t="n">
-        <v>1.92</v>
+        <v>1.37</v>
       </c>
       <c r="X11" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA11" t="n">
         <v>48</v>
       </c>
-      <c r="AA11" t="n">
-        <v>90</v>
-      </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>15.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE11" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AN11" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>18:15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>CA Huracan</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.25</v>
+        <v>2.26</v>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>2.46</v>
       </c>
       <c r="H12" t="n">
-        <v>2.22</v>
+        <v>3.65</v>
       </c>
       <c r="I12" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>2.92</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.61</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>4.7</v>
+        <v>2.54</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="P12" t="n">
-        <v>2.24</v>
+        <v>1.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.73</v>
+        <v>2.74</v>
       </c>
       <c r="R12" t="n">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="S12" t="n">
-        <v>2.82</v>
+        <v>5.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.64</v>
+        <v>2.14</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>1.69</v>
       </c>
       <c r="V12" t="n">
-        <v>1.78</v>
+        <v>1.31</v>
       </c>
       <c r="W12" t="n">
-        <v>1.41</v>
+        <v>1.69</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AA12" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="AF12" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AJ12" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AK12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
         <v>42</v>
       </c>
-      <c r="AL12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>500</v>
-      </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Barry Town Utd</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="G13" t="n">
-        <v>1.29</v>
+        <v>1.66</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>6.2</v>
       </c>
       <c r="I13" t="n">
-        <v>14</v>
+        <v>6.8</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>8.6</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>6.4</v>
+        <v>3.95</v>
       </c>
       <c r="O13" t="n">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.47</v>
+        <v>1.96</v>
       </c>
       <c r="R13" t="n">
-        <v>1.79</v>
+        <v>1.39</v>
       </c>
       <c r="S13" t="n">
-        <v>2.16</v>
+        <v>3.45</v>
       </c>
       <c r="T13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.96</v>
       </c>
-      <c r="U13" t="n">
-        <v>1.86</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="W13" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="X13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI13" t="n">
         <v>95</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AJ13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AO13" t="n">
         <v>120</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>540</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>240</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.25</v>
+        <v>1.79</v>
       </c>
       <c r="G14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.29</v>
       </c>
-      <c r="H14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="S14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB14" t="n">
         <v>8</v>
       </c>
-      <c r="L14" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W14" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="X14" t="n">
+      <c r="AC14" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL14" t="n">
         <v>50</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AM14" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO14" t="n">
         <v>120</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18:15:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CA Huracan</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P15" t="n">
         <v>2.26</v>
       </c>
-      <c r="G15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="Q15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U15" t="n">
         <v>2.46</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.69</v>
-      </c>
       <c r="V15" t="n">
-        <v>1.33</v>
+        <v>1.58</v>
       </c>
       <c r="W15" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="X15" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="Z15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="n">
         <v>27</v>
       </c>
-      <c r="AA15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>75</v>
-      </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK15" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AL15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM15" t="n">
         <v>70</v>
       </c>
-      <c r="AM15" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN15" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AO15" t="n">
-        <v>110</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -2543,531 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:06:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Leon</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="G16" t="n">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="H16" t="n">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="I16" t="n">
-        <v>6.6</v>
+        <v>4.9</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
         <v>4.3</v>
       </c>
-      <c r="L16" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.95</v>
-      </c>
       <c r="O16" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="R16" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="S16" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="T16" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="U16" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="W16" t="n">
-        <v>2.48</v>
+        <v>2.18</v>
       </c>
       <c r="X16" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AA16" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="n">
         <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM16" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-01-13</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Once Caldas</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="X17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2026-01-13</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Necaxa</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Monterrey</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X18" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2026-01-13</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>22:06:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Pachuca</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Leon</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N19" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="X19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.75</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>1.05</v>
       </c>
       <c r="H2" t="n">
-        <v>2.12</v>
+        <v>90</v>
       </c>
       <c r="I2" t="n">
-        <v>2.14</v>
+        <v>290</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>27</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>32</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>4.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="S2" t="n">
-        <v>2.94</v>
+        <v>2.44</v>
       </c>
       <c r="T2" t="n">
-        <v>1.06</v>
+        <v>2.56</v>
       </c>
       <c r="U2" t="n">
-        <v>2.46</v>
+        <v>1.53</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>22</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>360</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AK2" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE2" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>38</v>
-      </c>
       <c r="AL2" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>70</v>
+        <v>410</v>
       </c>
       <c r="AN2" t="n">
-        <v>32</v>
+        <v>4.9</v>
       </c>
       <c r="AO2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Barry Town Utd</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:15:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CA Huracan</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.26</v>
+        <v>2.86</v>
       </c>
       <c r="G4" t="n">
-        <v>1.28</v>
+        <v>2.96</v>
       </c>
       <c r="H4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF4" t="n">
         <v>22</v>
       </c>
-      <c r="I4" t="n">
-        <v>30</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>380</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>5.1</v>
-      </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>430</v>
+        <v>32</v>
       </c>
       <c r="AJ4" t="n">
-        <v>14.5</v>
+        <v>46</v>
       </c>
       <c r="AK4" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AL4" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN4" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="5">
@@ -1058,531 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:06:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Leon</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="H5" t="n">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="I5" t="n">
-        <v>6.8</v>
+        <v>4.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>1.96</v>
+        <v>2.22</v>
       </c>
       <c r="V5" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="W5" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="X5" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI5" t="n">
         <v>55</v>
       </c>
-      <c r="AA5" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>95</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AK5" t="n">
         <v>18</v>
       </c>
       <c r="AL5" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AM5" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-01-13</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Once Caldas</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="X6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA6" t="n">
         <v>65</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-01-13</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Necaxa</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Monterrey</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-01-13</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>22:06:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Pachuca</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Leon</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="X8" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
